--- a/表字段设计2 (自动保存的).xlsx
+++ b/表字段设计2 (自动保存的).xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="21" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="页面表头" sheetId="23" r:id="rId1"/>
@@ -12,27 +12,27 @@
     <sheet name="excel文件类型" sheetId="17" r:id="rId3"/>
     <sheet name="excel表类型" sheetId="20" r:id="rId4"/>
     <sheet name="excel字段关系映射" sheetId="18" r:id="rId5"/>
-    <sheet name="评审表" sheetId="11" r:id="rId6"/>
-    <sheet name="项目收款" sheetId="14" r:id="rId7"/>
-    <sheet name="里程碑" sheetId="16" r:id="rId8"/>
-    <sheet name="项目" sheetId="3" r:id="rId9"/>
-    <sheet name="项目群关系表" sheetId="13" r:id="rId10"/>
-    <sheet name="项目群管理" sheetId="9" r:id="rId11"/>
-    <sheet name="项目问题表" sheetId="7" r:id="rId12"/>
-    <sheet name="合同" sheetId="2" r:id="rId13"/>
-    <sheet name="证据" sheetId="4" r:id="rId14"/>
-    <sheet name="计提计划" sheetId="12" r:id="rId15"/>
-    <sheet name="收入" sheetId="5" r:id="rId16"/>
-    <sheet name="客户表" sheetId="8" r:id="rId17"/>
-    <sheet name="产品信息" sheetId="29" r:id="rId18"/>
-    <sheet name="产品项目关系表" sheetId="31" r:id="rId19"/>
-    <sheet name="客户群关系表" sheetId="25" r:id="rId20"/>
-    <sheet name="客户群管理表" sheetId="22" r:id="rId21"/>
-    <sheet name="公司表" sheetId="26" r:id="rId22"/>
-    <sheet name="销售团队表" sheetId="27" r:id="rId23"/>
-    <sheet name="销售团队成员表" sheetId="28" r:id="rId24"/>
-    <sheet name="投标确认表" sheetId="32" r:id="rId25"/>
-    <sheet name="文件表" sheetId="6" r:id="rId26"/>
+    <sheet name="项目收款" sheetId="14" r:id="rId6"/>
+    <sheet name="里程碑" sheetId="16" r:id="rId7"/>
+    <sheet name="项目" sheetId="3" r:id="rId8"/>
+    <sheet name="项目群关系表" sheetId="13" r:id="rId9"/>
+    <sheet name="项目群管理" sheetId="9" r:id="rId10"/>
+    <sheet name="项目问题表" sheetId="7" r:id="rId11"/>
+    <sheet name="合同" sheetId="2" r:id="rId12"/>
+    <sheet name="证据" sheetId="4" r:id="rId13"/>
+    <sheet name="计提计划" sheetId="12" r:id="rId14"/>
+    <sheet name="收入" sheetId="5" r:id="rId15"/>
+    <sheet name="客户表" sheetId="8" r:id="rId16"/>
+    <sheet name="产品信息" sheetId="29" r:id="rId17"/>
+    <sheet name="产品项目关系表" sheetId="31" r:id="rId18"/>
+    <sheet name="客户群关系表" sheetId="25" r:id="rId19"/>
+    <sheet name="客户群管理表" sheetId="22" r:id="rId20"/>
+    <sheet name="公司表" sheetId="26" r:id="rId21"/>
+    <sheet name="销售团队表" sheetId="27" r:id="rId22"/>
+    <sheet name="销售团队成员表" sheetId="28" r:id="rId23"/>
+    <sheet name="投标确认表" sheetId="32" r:id="rId24"/>
+    <sheet name="文件表" sheetId="6" r:id="rId25"/>
+    <sheet name="评审表" sheetId="11" r:id="rId26"/>
     <sheet name="评审意见表" sheetId="10" r:id="rId27"/>
     <sheet name="付款点信息表" sheetId="33" r:id="rId28"/>
     <sheet name="Sheet1" sheetId="34" r:id="rId29"/>
@@ -42,7 +42,7 @@
     <definedName name="数据类型">里程碑!$D$4:$D$13</definedName>
     <definedName name="数据类型枚举">枚举!$A$2:$A$8</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="737">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2475,523 +2475,523 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATOR_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODIFIER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODIFY_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-存在,1-删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传人编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审表数字主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审表字符主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投标首次报价金额</t>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户sap编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付部门编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST_CN_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST_SAP_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSTRUCTION_DEPT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRST_BID_AMOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_FILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_REVIEW_COMMENT_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款点描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT_POINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款点描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术总监名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术总监编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TECHNICAL_DIRECTOR_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TECHNICAL_DIRECTOR_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售部门负责人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售部门负责人编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付部门负责人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付部门负责人编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELL_DEPT_MANAGER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELL_DEPT_MANAGER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSTRUCTION_DEPT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSTRUCTION_DEPT_MANAGER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSTRUCTION_DEPT_MANAGER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST_SAP_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计提-人力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计提-产品及服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCRUED_CHARGES_WORKERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCRUED_CHARGES_PRODUCTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00-整包项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户SAP编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREDICT_CONTRACT_AMOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估合同金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估当年收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估人均收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估人均成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估工作量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差旅费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估税后收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本中心编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润中心编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROFIT_CENTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROFIT_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COST_CENTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COST_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NET_SALARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YEAR_SALARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估利润率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREDICT_PROFIT_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREDICT_CAPITA_SALARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREDICT_CAPITA_COST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREDICT_WORKLOAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPLOYEE_COST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUSINESS_TRIP_COST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTHER_COST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10，4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10，0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_PROJECT_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP_REPORT_REVIEW_RESULT</t>
+  </si>
+  <si>
+    <t>PM_PROJECT_GROUP_RELATION_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBS</t>
+  </si>
+  <si>
+    <t>WBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_PROJECT_INCOMMING_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROBLEM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROBLEM_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROBLEM_DETAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATOR_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATOR_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROBLEM_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_PROJECT_MILESTONE_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_PROJECT_PROBLEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目问题表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FOREIGN_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATOR_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MODIFIER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MODIFY_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_DELETE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-存在,1-删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传人编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改人编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评审编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评审代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REVIEW_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评审表数字主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评审表字符主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意见类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投标首次报价金额</t>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户sap编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交付部门编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交付部门名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUST_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUST_CN_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUST_SAP_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONSTRUCTION_DEPT_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIRST_BID_AMOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_FILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_REVIEW_COMMENT_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款点描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAYMENT_POINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款点描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术总监名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术总监编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TECHNICAL_DIRECTOR_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TECHNICAL_DIRECTOR_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售部门负责人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售部门负责人编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交付部门负责人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交付部门负责人编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELL_DEPT_MANAGER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELL_DEPT_MANAGER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONSTRUCTION_DEPT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONSTRUCTION_DEPT_MANAGER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONSTRUCTION_DEPT_MANAGER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUST_SAP_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计提-人力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计提-产品及服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCRUED_CHARGES_WORKERS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCRUED_CHARGES_PRODUCTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00-整包项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利润中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户SAP编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREDICT_CONTRACT_AMOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预估合同金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预估当年收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预估人均收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预估人均成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预估工作量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人力费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>差旅费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预估税后收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本中心编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利润中心编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROFIT_CENTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROFIT_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COST_CENTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COST_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NET_SALARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YEAR_SALARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预估利润率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREDICT_PROFIT_RATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREDICT_CAPITA_SALARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREDICT_CAPITA_COST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREDICT_WORKLOAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMPLOYEE_COST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUSINESS_TRIP_COST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OTHER_COST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10，4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10，0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_PROJECT_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTP_REPORT_REVIEW_RESULT</t>
-  </si>
-  <si>
-    <t>PM_PROJECT_GROUP_RELATION_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WBS</t>
-  </si>
-  <si>
-    <t>WBS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_PROJECT_INCOMMING_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROJECT_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROJECT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROBLEM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROBLEM_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROBLEM_DETAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATOR_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATOR_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROBLEM_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_PROJECT_MILESTONE_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_PROJECT_PROBLEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目问题表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3144,74 +3144,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3231,7 +3163,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3492,9 +3424,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3505,7 +3437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>424</v>
       </c>
@@ -3516,7 +3448,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3548,7 +3480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -3572,7 +3504,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -3596,13 +3528,13 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="8"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3610,7 +3542,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="8"/>
@@ -3634,305 +3566,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f t="shared" ref="B4:B11" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
-        <v>relationship</v>
-      </c>
-      <c r="C4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>projectGroupId</v>
-      </c>
-      <c r="C5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>projectId</v>
-      </c>
-      <c r="C6" t="s">
-        <v>394</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>721</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>wbs</v>
-      </c>
-      <c r="C7" t="s">
-        <v>721</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="8">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>createTime</v>
-      </c>
-      <c r="C8" t="s">
-        <v>393</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="8">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>creator</v>
-      </c>
-      <c r="C9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>modifyTime</v>
-      </c>
-      <c r="C10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="8">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>modifier</v>
-      </c>
-      <c r="C11" t="s">
-        <v>390</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f>LOWER(LEFT($C12,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C12,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C12,"_", " "))," ",""))-1)</f>
-        <v>isDelete</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="9">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G12"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
-      <formula1>数据类型枚举</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3943,7 +3590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>449</v>
       </c>
@@ -3951,7 +3598,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3983,7 +3630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -4007,7 +3654,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -4025,7 +3672,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>382</v>
       </c>
@@ -4043,7 +3690,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>383</v>
       </c>
@@ -4061,7 +3708,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>384</v>
       </c>
@@ -4079,7 +3726,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>385</v>
       </c>
@@ -4097,7 +3744,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -4115,7 +3762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -4133,7 +3780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -4151,7 +3798,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -4169,7 +3816,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -4217,22 +3864,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4243,15 +3890,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B2" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4283,7 +3930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -4292,7 +3939,7 @@
         <v>problemId</v>
       </c>
       <c r="C4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -4307,7 +3954,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -4316,7 +3963,7 @@
         <v>projectId</v>
       </c>
       <c r="C5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -4328,16 +3975,16 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>projectName</v>
       </c>
       <c r="C6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -4349,19 +3996,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" ref="B7:B13" si="1">LOWER(LEFT($C7,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C7,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C7,"_", " "))," ",""))-1)</f>
         <v>wbs</v>
       </c>
       <c r="C7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -4370,7 +4017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -4379,7 +4026,7 @@
         <v>problemType</v>
       </c>
       <c r="C8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
@@ -4391,7 +4038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -4400,7 +4047,7 @@
         <v>problemDetail</v>
       </c>
       <c r="C9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -4412,7 +4059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -4421,7 +4068,7 @@
         <v>creatorId</v>
       </c>
       <c r="C10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D10" t="s">
         <v>288</v>
@@ -4433,7 +4080,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -4442,7 +4089,7 @@
         <v>creatorName</v>
       </c>
       <c r="C11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -4454,7 +4101,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -4463,7 +4110,7 @@
         <v>createTime</v>
       </c>
       <c r="C12" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -4475,7 +4122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -4484,7 +4131,7 @@
         <v>problemStatus</v>
       </c>
       <c r="C13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
@@ -4496,7 +4143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -4543,7 +4190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -4551,13 +4198,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4568,7 +4215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4600,7 +4247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
@@ -4614,22 +4261,22 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -4674,7 +4321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
@@ -4682,13 +4329,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4699,12 +4346,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4736,7 +4383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -4753,7 +4400,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -4764,7 +4411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -4775,7 +4422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -4786,7 +4433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -4797,7 +4444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -4808,7 +4455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -4819,7 +4466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -4830,7 +4477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -4841,7 +4488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -4852,7 +4499,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -4863,7 +4510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>142</v>
       </c>
@@ -4874,7 +4521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -4885,7 +4532,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -4896,7 +4543,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -4907,7 +4554,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>141</v>
       </c>
@@ -4918,7 +4565,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -4962,17 +4609,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AO11" sqref="AO11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4983,12 +4630,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5020,7 +4667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -5037,7 +4684,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -5051,7 +4698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -5059,10 +4706,10 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -5073,7 +4720,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -5081,10 +4728,10 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -5095,7 +4742,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -5106,7 +4753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -5117,7 +4764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -5128,7 +4775,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -5172,7 +4819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -5180,13 +4827,13 @@
       <selection activeCell="F6" sqref="F6:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -5197,12 +4844,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5234,7 +4881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>144</v>
       </c>
@@ -5251,7 +4898,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -5265,7 +4912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -5279,7 +4926,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -5287,13 +4934,13 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -5301,13 +4948,13 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>147</v>
       </c>
@@ -5315,13 +4962,13 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -5335,7 +4982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>148</v>
       </c>
@@ -5349,7 +4996,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -5363,7 +5010,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5377,7 +5024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -5391,7 +5038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -5437,7 +5084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -5445,15 +5092,15 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -5471,7 +5118,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -5489,7 +5136,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -5521,7 +5168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -5548,7 +5195,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -5573,7 +5220,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -5598,7 +5245,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>330</v>
       </c>
@@ -5621,7 +5268,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>331</v>
       </c>
@@ -5644,7 +5291,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>332</v>
       </c>
@@ -5667,7 +5314,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>333</v>
       </c>
@@ -5690,7 +5337,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>334</v>
       </c>
@@ -5713,7 +5360,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>335</v>
       </c>
@@ -5736,7 +5383,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>336</v>
       </c>
@@ -5759,7 +5406,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>337</v>
       </c>
@@ -5782,7 +5429,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>338</v>
       </c>
@@ -5805,7 +5452,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>339</v>
       </c>
@@ -5828,7 +5475,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>340</v>
       </c>
@@ -5851,7 +5498,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>341</v>
       </c>
@@ -5874,7 +5521,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>342</v>
       </c>
@@ -5897,7 +5544,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>343</v>
       </c>
@@ -5920,7 +5567,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>344</v>
       </c>
@@ -5943,7 +5590,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>345</v>
       </c>
@@ -5966,7 +5613,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>346</v>
       </c>
@@ -5989,7 +5636,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>347</v>
       </c>
@@ -6012,7 +5659,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>348</v>
       </c>
@@ -6035,7 +5682,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>349</v>
       </c>
@@ -6056,7 +5703,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -6081,7 +5728,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -6104,7 +5751,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
@@ -6129,7 +5776,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
@@ -6152,7 +5799,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>91</v>
       </c>
@@ -6179,7 +5826,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -6210,7 +5857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -6218,13 +5865,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -6242,7 +5889,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>497</v>
       </c>
@@ -6260,7 +5907,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -6292,7 +5939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>498</v>
       </c>
@@ -6319,7 +5966,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>517</v>
       </c>
@@ -6346,7 +5993,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>499</v>
       </c>
@@ -6373,7 +6020,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>500</v>
       </c>
@@ -6400,7 +6047,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>502</v>
       </c>
@@ -6425,7 +6072,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>503</v>
       </c>
@@ -6450,7 +6097,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>510</v>
       </c>
@@ -6475,7 +6122,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>511</v>
       </c>
@@ -6500,7 +6147,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>501</v>
       </c>
@@ -6525,7 +6172,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>522</v>
       </c>
@@ -6550,7 +6197,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>152</v>
       </c>
@@ -6575,7 +6222,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>157</v>
       </c>
@@ -6600,7 +6247,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -6625,7 +6272,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -6652,7 +6299,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -6677,7 +6324,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>91</v>
       </c>
@@ -6725,7 +6372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -6733,14 +6380,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -6757,7 +6404,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>496</v>
       </c>
@@ -6774,7 +6421,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -6803,7 +6450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>521</v>
       </c>
@@ -6829,7 +6476,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>499</v>
       </c>
@@ -6855,7 +6502,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>498</v>
       </c>
@@ -6881,7 +6528,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>515</v>
       </c>
@@ -6903,7 +6550,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -6925,7 +6572,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>199</v>
       </c>
@@ -6947,7 +6594,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -6971,7 +6618,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -6995,7 +6642,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>577</v>
       </c>
@@ -7019,7 +6666,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>102</v>
       </c>
@@ -7043,7 +6690,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>152</v>
       </c>
@@ -7068,7 +6715,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>157</v>
       </c>
@@ -7093,7 +6740,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -7118,7 +6765,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -7145,7 +6792,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -7170,7 +6817,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>91</v>
       </c>
@@ -7218,301 +6865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>430</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f t="shared" ref="B4:B12" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
-        <v>headId</v>
-      </c>
-      <c r="C4" t="s">
-        <v>426</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>tableId</v>
-      </c>
-      <c r="C5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="8">
-        <v>255</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>title</v>
-      </c>
-      <c r="C6" t="s">
-        <v>443</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="8">
-        <v>255</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>432</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>field</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="9">
-        <v>255</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>434</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>width</v>
-      </c>
-      <c r="C8" t="s">
-        <v>444</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>435</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sort</v>
-      </c>
-      <c r="C9" t="s">
-        <v>445</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>438</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>unresize</v>
-      </c>
-      <c r="C10" t="s">
-        <v>437</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>other</v>
-      </c>
-      <c r="C11" t="s">
-        <v>440</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="8">
-        <v>512</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>436</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>isDelete</v>
-      </c>
-      <c r="C12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="8">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F12">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
-      <formula1>数据类型枚举</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -7520,14 +6873,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -7545,7 +6898,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -7563,7 +6916,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -7595,7 +6948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>371</v>
       </c>
@@ -7622,7 +6975,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>451</v>
       </c>
@@ -7649,7 +7002,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -7676,7 +7029,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -7701,7 +7054,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>331</v>
       </c>
@@ -7743,7 +7096,301 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" ref="B4:B12" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
+        <v>headId</v>
+      </c>
+      <c r="C4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>tableId</v>
+      </c>
+      <c r="C5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8">
+        <v>255</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>title</v>
+      </c>
+      <c r="C6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8">
+        <v>255</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>field</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="9">
+        <v>255</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>width</v>
+      </c>
+      <c r="C8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>sort</v>
+      </c>
+      <c r="C9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>unresize</v>
+      </c>
+      <c r="C10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>other</v>
+      </c>
+      <c r="C11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="8">
+        <v>512</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>isDelete</v>
+      </c>
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F12">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
+      <formula1>数据类型枚举</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -7751,14 +7398,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -7776,7 +7423,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -7794,7 +7441,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -7826,7 +7473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>371</v>
       </c>
@@ -7853,7 +7500,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>370</v>
       </c>
@@ -7880,7 +7527,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -7907,7 +7554,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>157</v>
       </c>
@@ -7926,7 +7573,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -7951,7 +7598,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -7978,7 +7625,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -8003,7 +7650,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>91</v>
       </c>
@@ -8032,7 +7679,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F12" s="3"/>
     </row>
   </sheetData>
@@ -8054,7 +7701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -8062,12 +7709,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -8085,7 +7732,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>455</v>
       </c>
@@ -8103,7 +7750,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -8135,7 +7782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>457</v>
       </c>
@@ -8162,7 +7809,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>456</v>
       </c>
@@ -8189,7 +7836,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>458</v>
       </c>
@@ -8216,7 +7863,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>459</v>
       </c>
@@ -8241,7 +7888,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>468</v>
       </c>
@@ -8266,7 +7913,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -8293,7 +7940,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -8320,7 +7967,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -8347,7 +7994,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>91</v>
       </c>
@@ -8395,7 +8042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -8403,15 +8050,15 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -8429,7 +8076,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>469</v>
       </c>
@@ -8447,7 +8094,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -8479,7 +8126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>470</v>
       </c>
@@ -8506,7 +8153,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>471</v>
       </c>
@@ -8533,7 +8180,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>472</v>
       </c>
@@ -8560,7 +8207,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>587</v>
       </c>
@@ -8587,7 +8234,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>487</v>
       </c>
@@ -8614,7 +8261,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>468</v>
       </c>
@@ -8641,7 +8288,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -8668,7 +8315,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -8695,7 +8342,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -8722,7 +8369,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
@@ -8769,7 +8416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -8777,14 +8424,14 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -8802,7 +8449,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>474</v>
       </c>
@@ -8820,7 +8467,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -8852,7 +8499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>475</v>
       </c>
@@ -8879,7 +8526,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>476</v>
       </c>
@@ -8906,7 +8553,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>584</v>
       </c>
@@ -8933,7 +8580,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>477</v>
       </c>
@@ -8960,7 +8607,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>459</v>
       </c>
@@ -8987,7 +8634,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>468</v>
       </c>
@@ -9014,7 +8661,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -9039,7 +8686,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -9066,7 +8713,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -9091,7 +8738,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
@@ -9139,25 +8786,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -9175,7 +8822,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>524</v>
       </c>
@@ -9193,7 +8840,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -9225,7 +8872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>526</v>
       </c>
@@ -9252,7 +8899,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>527</v>
       </c>
@@ -9279,16 +8926,16 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>firstBidAmount</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -9301,12 +8948,12 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>528</v>
       </c>
@@ -9333,7 +8980,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>529</v>
       </c>
@@ -9359,7 +9006,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>530</v>
       </c>
@@ -9386,7 +9033,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>531</v>
       </c>
@@ -9413,19 +9060,19 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>custId</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E11" s="11">
         <v>10</v>
@@ -9435,24 +9082,24 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>custCnName</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E12" s="11">
         <v>256</v>
@@ -9462,24 +9109,24 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>custSapCode</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E13" s="11">
         <v>128</v>
@@ -9489,24 +9136,24 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>constructionDeptId</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E14" s="11">
         <v>16</v>
@@ -9516,24 +9163,24 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>constructionDeptName</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>648</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>649</v>
       </c>
       <c r="E15" s="11">
         <v>256</v>
@@ -9543,12 +9190,12 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>535</v>
       </c>
@@ -9575,7 +9222,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>536</v>
       </c>
@@ -9602,7 +9249,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>533</v>
       </c>
@@ -9629,7 +9276,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>534</v>
       </c>
@@ -9656,19 +9303,19 @@
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>technicalDirectorId</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="B20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>technicalDirectorId</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>661</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E20" s="11">
         <v>10</v>
@@ -9681,19 +9328,19 @@
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>technicalDirectorName</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E21" s="11">
         <v>256</v>
@@ -9706,16 +9353,16 @@
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>sellDeptManagerName</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>31</v>
@@ -9731,16 +9378,16 @@
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>sellDeptManagerId</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>195</v>
@@ -9756,16 +9403,16 @@
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>constructionDeptManagerName</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>31</v>
@@ -9781,16 +9428,16 @@
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>constructionDeptManagerId</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>195</v>
@@ -9806,16 +9453,16 @@
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>status</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>247</v>
@@ -9831,7 +9478,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>532</v>
       </c>
@@ -9860,7 +9507,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>571</v>
       </c>
@@ -9889,7 +9536,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>537</v>
       </c>
@@ -9916,19 +9563,19 @@
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B30" s="4" t="str">
         <f>LOWER(LEFT($C30,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C30,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C30,"_", " "))," ",""))-1)</f>
         <v>paymentPoint</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>656</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>657</v>
       </c>
       <c r="E30" s="11">
         <v>512</v>
@@ -9938,12 +9585,12 @@
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>468</v>
       </c>
@@ -9970,7 +9617,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
@@ -9997,7 +9644,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
@@ -10024,7 +9671,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>14</v>
       </c>
@@ -10051,7 +9698,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>91</v>
       </c>
@@ -10099,26 +9746,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -10136,12 +9783,12 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -10152,7 +9799,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -10184,7 +9831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>596</v>
       </c>
@@ -10211,7 +9858,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>589</v>
       </c>
@@ -10238,7 +9885,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>588</v>
       </c>
@@ -10265,7 +9912,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>604</v>
       </c>
@@ -10292,7 +9939,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>590</v>
       </c>
@@ -10319,7 +9966,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>606</v>
       </c>
@@ -10346,7 +9993,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>591</v>
       </c>
@@ -10358,7 +10005,7 @@
         <v>607</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E10" s="20">
         <v>10</v>
@@ -10373,7 +10020,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>592</v>
       </c>
@@ -10382,10 +10029,10 @@
         <v>foreignCode</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>608</v>
+        <v>736</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E11" s="20">
         <v>32</v>
@@ -10400,9 +10047,9 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -10427,16 +10074,16 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B13" s="5" t="str">
         <f t="shared" ref="B13:B17" si="1">LOWER(LEFT($C13,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C13,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C13,"_", " "))," ",""))-1)</f>
         <v>creatorId</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>598</v>
@@ -10445,61 +10092,61 @@
         <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>createTime</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>613</v>
       </c>
       <c r="E14" s="20">
         <v>32</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>modifier</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>615</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>616</v>
       </c>
       <c r="E15" s="20">
         <v>10</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
@@ -10508,25 +10155,25 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>modifyTime</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>619</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>620</v>
       </c>
       <c r="E16" s="20">
         <v>32</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
@@ -10535,28 +10182,28 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>isDelete</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>622</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>623</v>
       </c>
       <c r="E17" s="20">
         <v>2</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>91</v>
@@ -10583,25 +10230,325 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="17" t="str">
+        <f t="shared" ref="B4:B10" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
+        <v>reviewId</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>foreignId</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="20">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>foreignCode</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6" s="20">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewType</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewUserName</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7">
+        <v>64</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewUserCode</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>result</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="17" t="str">
+        <f>LOWER(LEFT($C11,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C11,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C11,"_", " "))," ",""))-1)</f>
+        <v>isDelete</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11 F4:F6">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G11"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D11">
+      <formula1>数据类型枚举</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -10619,12 +10566,12 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -10635,7 +10582,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -10667,7 +10614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>46</v>
       </c>
@@ -10694,7 +10641,7 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>52</v>
       </c>
@@ -10725,9 +10672,9 @@
       </c>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10747,23 +10694,23 @@
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>96</v>
       </c>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewCode</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>634</v>
-      </c>
-      <c r="B7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>reviewCode</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>635</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>18</v>
@@ -10776,14 +10723,14 @@
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>45</v>
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>50</v>
       </c>
@@ -10805,14 +10752,14 @@
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>96</v>
       </c>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>55</v>
       </c>
@@ -10841,7 +10788,7 @@
       </c>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>56</v>
       </c>
@@ -10870,7 +10817,7 @@
       </c>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>48</v>
       </c>
@@ -10899,7 +10846,7 @@
       </c>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>47</v>
       </c>
@@ -10911,7 +10858,7 @@
         <v>400</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E12" s="21">
         <v>32</v>
@@ -10928,7 +10875,7 @@
       </c>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
@@ -10959,7 +10906,7 @@
       </c>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -10997,17 +10944,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -11025,7 +10972,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>547</v>
       </c>
@@ -11043,7 +10990,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -11075,7 +11022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>550</v>
       </c>
@@ -11102,7 +11049,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>564</v>
       </c>
@@ -11129,7 +11076,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>566</v>
       </c>
@@ -11156,7 +11103,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>551</v>
       </c>
@@ -11185,7 +11132,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>552</v>
       </c>
@@ -11212,7 +11159,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>337</v>
       </c>
@@ -11238,7 +11185,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>553</v>
       </c>
@@ -11265,7 +11212,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>554</v>
       </c>
@@ -11292,7 +11239,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>537</v>
       </c>
@@ -11319,7 +11266,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>468</v>
       </c>
@@ -11346,7 +11293,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -11373,7 +11320,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -11400,7 +11347,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -11427,7 +11374,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>91</v>
       </c>
@@ -11480,11 +11427,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="20" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -11502,16 +11449,16 @@
       <selection sqref="A1:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -11522,7 +11469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -11533,7 +11480,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -11565,7 +11512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -11589,7 +11536,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -11613,7 +11560,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -11637,7 +11584,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>160</v>
       </c>
@@ -11662,7 +11609,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -11710,44 +11657,44 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -11766,14 +11713,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -11784,7 +11731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -11795,7 +11742,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -11827,7 +11774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -11851,7 +11798,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -11875,7 +11822,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -11899,7 +11846,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -11923,7 +11870,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -11947,7 +11894,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -11993,16 +11940,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -12013,7 +11960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -12024,7 +11971,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -12056,7 +12003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -12080,7 +12027,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -12104,7 +12051,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -12128,7 +12075,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -12152,7 +12099,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -12176,7 +12123,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -12200,7 +12147,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>175</v>
       </c>
@@ -12227,7 +12174,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>297</v>
       </c>
@@ -12252,7 +12199,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>276</v>
       </c>
@@ -12277,7 +12224,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -12322,289 +12269,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="17" t="str">
-        <f t="shared" ref="B4:B9" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
-        <v>reviewId</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>projectId</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>reviewType</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>reviewUserName</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7">
-        <v>64</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>reviewUserCode</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>result</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="17" t="str">
-        <f>LOWER(LEFT($C10,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C10,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C10,"_", " "))," ",""))-1)</f>
-        <v>isDelete</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="17">
-        <v>2</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10 F4">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G10"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10">
-      <formula1>数据类型枚举</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -12615,18 +12293,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -12658,7 +12336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -12682,7 +12360,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -12703,25 +12381,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>wbs</v>
       </c>
       <c r="C6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E6">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -12739,7 +12417,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -12757,7 +12435,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -12775,7 +12453,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -12793,7 +12471,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -12811,7 +12489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -12832,7 +12510,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -12874,7 +12552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -12882,14 +12560,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -12907,12 +12585,12 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>99</v>
@@ -12925,7 +12603,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -12960,7 +12638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>110</v>
       </c>
@@ -12990,7 +12668,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
@@ -13015,7 +12693,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>102</v>
       </c>
@@ -13040,19 +12718,19 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>wbs</v>
       </c>
       <c r="C7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -13065,7 +12743,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>111</v>
       </c>
@@ -13090,7 +12768,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>112</v>
       </c>
@@ -13115,7 +12793,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>113</v>
       </c>
@@ -13140,7 +12818,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>105</v>
       </c>
@@ -13165,7 +12843,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>114</v>
       </c>
@@ -13190,7 +12868,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>91</v>
       </c>
@@ -13237,7 +12915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
@@ -13245,17 +12923,17 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -13273,12 +12951,12 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>59</v>
@@ -13291,7 +12969,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>183</v>
       </c>
@@ -13323,7 +13001,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>193</v>
       </c>
@@ -13350,7 +13028,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>199</v>
       </c>
@@ -13375,7 +13053,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>200</v>
       </c>
@@ -13400,7 +13078,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>201</v>
       </c>
@@ -13425,7 +13103,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>203</v>
       </c>
@@ -13450,7 +13128,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>204</v>
       </c>
@@ -13472,7 +13150,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>205</v>
       </c>
@@ -13494,7 +13172,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>206</v>
       </c>
@@ -13516,7 +13194,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>207</v>
       </c>
@@ -13538,7 +13216,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>208</v>
       </c>
@@ -13560,7 +13238,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>209</v>
       </c>
@@ -13585,7 +13263,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>210</v>
       </c>
@@ -13610,7 +13288,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>211</v>
       </c>
@@ -13635,16 +13313,16 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>custSapCode</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>195</v>
@@ -13660,7 +13338,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>212</v>
       </c>
@@ -13685,7 +13363,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>213</v>
       </c>
@@ -13710,7 +13388,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>214</v>
       </c>
@@ -13735,7 +13413,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>215</v>
       </c>
@@ -13760,7 +13438,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>216</v>
       </c>
@@ -13785,7 +13463,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>217</v>
       </c>
@@ -13806,22 +13484,22 @@
         <v>202</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictContractAmount</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>195</v>
@@ -13837,16 +13515,16 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>profitCenter</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>53</v>
@@ -13858,25 +13536,25 @@
         <v>96</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>profitCode</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E26" s="2">
         <v>32</v>
@@ -13889,16 +13567,16 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>costCenter</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>53</v>
@@ -13910,25 +13588,25 @@
         <v>96</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>costCode</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E28" s="2">
         <v>32</v>
@@ -13941,7 +13619,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>218</v>
       </c>
@@ -13966,7 +13644,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>219</v>
       </c>
@@ -13991,7 +13669,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>220</v>
       </c>
@@ -14016,7 +13694,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>221</v>
       </c>
@@ -14041,7 +13719,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>222</v>
       </c>
@@ -14066,7 +13744,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>223</v>
       </c>
@@ -14091,7 +13769,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>224</v>
       </c>
@@ -14116,7 +13794,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>225</v>
       </c>
@@ -14141,7 +13819,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>226</v>
       </c>
@@ -14166,7 +13844,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>227</v>
       </c>
@@ -14191,7 +13869,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>228</v>
       </c>
@@ -14216,7 +13894,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>229</v>
       </c>
@@ -14241,7 +13919,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>230</v>
       </c>
@@ -14266,7 +13944,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>231</v>
       </c>
@@ -14291,7 +13969,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>232</v>
       </c>
@@ -14316,7 +13994,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>233</v>
       </c>
@@ -14325,7 +14003,7 @@
         <v>ftpReportReviewResult</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>53</v>
@@ -14341,7 +14019,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>234</v>
       </c>
@@ -14366,7 +14044,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>235</v>
       </c>
@@ -14391,7 +14069,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>236</v>
       </c>
@@ -14416,7 +14094,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>237</v>
       </c>
@@ -14441,7 +14119,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>238</v>
       </c>
@@ -14466,7 +14144,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>239</v>
       </c>
@@ -14491,7 +14169,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>240</v>
       </c>
@@ -14516,7 +14194,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>241</v>
       </c>
@@ -14541,16 +14219,16 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>netSalary</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>195</v>
@@ -14566,16 +14244,16 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>yearSalary</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>195</v>
@@ -14591,22 +14269,22 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>predictProfitRate</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="B55" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>predictProfitRate</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>96</v>
@@ -14616,16 +14294,16 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictCapitaSalary</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>195</v>
@@ -14641,16 +14319,16 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictCapitaCost</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>195</v>
@@ -14666,22 +14344,22 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B58" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictWorkload</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>96</v>
@@ -14691,16 +14369,16 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B59" s="2" t="str">
         <f t="shared" si="0"/>
         <v>employeeCost</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>195</v>
@@ -14716,16 +14394,16 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>businessTripCost</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>195</v>
@@ -14741,16 +14419,16 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>otherCost</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>195</v>
@@ -14766,16 +14444,16 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B62" s="2" t="str">
         <f t="shared" si="0"/>
         <v>accruedChargesWorkers</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>195</v>
@@ -14791,16 +14469,16 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B63" s="2" t="str">
         <f t="shared" si="0"/>
         <v>accruedChargesProducts</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>195</v>
@@ -14816,7 +14494,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>242</v>
       </c>
@@ -14841,7 +14519,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>243</v>
       </c>
@@ -14866,7 +14544,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>244</v>
       </c>
@@ -14891,7 +14569,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>245</v>
       </c>
@@ -14920,7 +14598,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -14941,7 +14619,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -14962,7 +14640,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -14983,7 +14661,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -15017,4 +14695,289 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" ref="B4:B11" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
+        <v>relationship</v>
+      </c>
+      <c r="C4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>projectGroupId</v>
+      </c>
+      <c r="C5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>projectId</v>
+      </c>
+      <c r="C6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>720</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>wbs</v>
+      </c>
+      <c r="C7" t="s">
+        <v>720</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>createTime</v>
+      </c>
+      <c r="C8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>creator</v>
+      </c>
+      <c r="C9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyTime</v>
+      </c>
+      <c r="C10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="8">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>modifier</v>
+      </c>
+      <c r="C11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>LOWER(LEFT($C12,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C12,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C12,"_", " "))," ",""))-1)</f>
+        <v>isDelete</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G12"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
+      <formula1>数据类型枚举</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/表字段设计2 (自动保存的).xlsx
+++ b/表字段设计2 (自动保存的).xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="21" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="22" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="页面表头" sheetId="23" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="数据类型">里程碑!$D$4:$D$13</definedName>
     <definedName name="数据类型枚举">枚举!$A$2:$A$8</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="742">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2168,10 +2168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预付期限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工作任务及范围是否清晰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2216,10 +2212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PREDICT_PERIOD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2985,13 +2977,41 @@
   </si>
   <si>
     <t>FOREIGN_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付期限-开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREDICT_PERIOD_START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付期限-结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREDICT_PERIOD_END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3144,6 +3164,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3163,7 +3251,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3424,9 +3512,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3437,7 +3525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>424</v>
       </c>
@@ -3448,7 +3536,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3480,7 +3568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -3504,7 +3592,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -3528,13 +3616,13 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="8"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3542,7 +3630,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="8"/>
@@ -3572,14 +3660,14 @@
       <selection activeCell="C4" sqref="C4:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3590,7 +3678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>449</v>
       </c>
@@ -3598,7 +3686,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3630,7 +3718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3654,7 +3742,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -3672,7 +3760,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>382</v>
       </c>
@@ -3690,7 +3778,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>383</v>
       </c>
@@ -3708,7 +3796,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>384</v>
       </c>
@@ -3726,7 +3814,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>385</v>
       </c>
@@ -3744,7 +3832,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -3762,7 +3850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -3780,7 +3868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -3798,7 +3886,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -3816,7 +3904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -3872,14 +3960,14 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3890,15 +3978,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B2" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3930,7 +4018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -3939,7 +4027,7 @@
         <v>problemId</v>
       </c>
       <c r="C4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -3954,7 +4042,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -3963,7 +4051,7 @@
         <v>projectId</v>
       </c>
       <c r="C5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -3975,16 +4063,16 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>projectName</v>
       </c>
       <c r="C6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -3996,19 +4084,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" ref="B7:B13" si="1">LOWER(LEFT($C7,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C7,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C7,"_", " "))," ",""))-1)</f>
         <v>wbs</v>
       </c>
       <c r="C7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -4017,7 +4105,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -4026,7 +4114,7 @@
         <v>problemType</v>
       </c>
       <c r="C8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
@@ -4038,7 +4126,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -4047,7 +4135,7 @@
         <v>problemDetail</v>
       </c>
       <c r="C9" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -4059,7 +4147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -4068,7 +4156,7 @@
         <v>creatorId</v>
       </c>
       <c r="C10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D10" t="s">
         <v>288</v>
@@ -4080,7 +4168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -4089,7 +4177,7 @@
         <v>creatorName</v>
       </c>
       <c r="C11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -4101,7 +4189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -4110,7 +4198,7 @@
         <v>createTime</v>
       </c>
       <c r="C12" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -4122,7 +4210,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -4131,7 +4219,7 @@
         <v>problemStatus</v>
       </c>
       <c r="C13" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
@@ -4143,7 +4231,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -4198,13 +4286,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4215,7 +4303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4247,7 +4335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
@@ -4261,22 +4349,22 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -4329,13 +4417,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4346,12 +4434,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4383,7 +4471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -4400,7 +4488,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -4411,7 +4499,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -4422,7 +4510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -4433,7 +4521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -4444,7 +4532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -4455,7 +4543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -4466,7 +4554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -4477,7 +4565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -4488,7 +4576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -4499,7 +4587,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -4510,7 +4598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>142</v>
       </c>
@@ -4521,7 +4609,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -4532,7 +4620,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -4543,7 +4631,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -4554,7 +4642,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>141</v>
       </c>
@@ -4565,7 +4653,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -4606,6 +4694,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4617,9 +4706,9 @@
       <selection activeCell="AO11" sqref="AO11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4630,12 +4719,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4667,7 +4756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -4684,7 +4773,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -4698,7 +4787,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -4706,10 +4795,10 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -4720,7 +4809,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -4728,10 +4817,10 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -4742,7 +4831,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -4753,7 +4842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -4764,7 +4853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -4775,7 +4864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -4827,13 +4916,13 @@
       <selection activeCell="F6" sqref="F6:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4844,12 +4933,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4881,7 +4970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>144</v>
       </c>
@@ -4898,7 +4987,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -4912,7 +5001,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -4926,7 +5015,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -4934,13 +5023,13 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -4948,13 +5037,13 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>147</v>
       </c>
@@ -4962,13 +5051,13 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -4982,7 +5071,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>148</v>
       </c>
@@ -4996,7 +5085,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -5010,7 +5099,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5024,7 +5113,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -5038,7 +5127,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -5092,15 +5181,15 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -5118,7 +5207,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -5136,7 +5225,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -5168,7 +5257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -5195,7 +5284,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -5220,7 +5309,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -5245,7 +5334,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>330</v>
       </c>
@@ -5268,7 +5357,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>331</v>
       </c>
@@ -5291,7 +5380,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>332</v>
       </c>
@@ -5314,7 +5403,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>333</v>
       </c>
@@ -5337,7 +5426,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>334</v>
       </c>
@@ -5360,7 +5449,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>335</v>
       </c>
@@ -5383,7 +5472,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>336</v>
       </c>
@@ -5406,7 +5495,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>337</v>
       </c>
@@ -5429,7 +5518,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>338</v>
       </c>
@@ -5452,7 +5541,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>339</v>
       </c>
@@ -5475,7 +5564,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>340</v>
       </c>
@@ -5498,7 +5587,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>341</v>
       </c>
@@ -5521,7 +5610,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>342</v>
       </c>
@@ -5544,7 +5633,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>343</v>
       </c>
@@ -5567,7 +5656,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>344</v>
       </c>
@@ -5590,7 +5679,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>345</v>
       </c>
@@ -5613,7 +5702,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>346</v>
       </c>
@@ -5636,7 +5725,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>347</v>
       </c>
@@ -5659,7 +5748,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>348</v>
       </c>
@@ -5682,7 +5771,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="14" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>349</v>
       </c>
@@ -5703,7 +5792,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -5728,7 +5817,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -5751,7 +5840,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
@@ -5776,7 +5865,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
@@ -5799,7 +5888,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>91</v>
       </c>
@@ -5826,7 +5915,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -5865,13 +5954,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -5889,12 +5978,12 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>497</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>496</v>
@@ -5907,7 +5996,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -5939,7 +6028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>498</v>
       </c>
@@ -5966,7 +6055,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>517</v>
       </c>
@@ -5993,7 +6082,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>499</v>
       </c>
@@ -6020,7 +6109,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>500</v>
       </c>
@@ -6047,7 +6136,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>502</v>
       </c>
@@ -6072,7 +6161,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>503</v>
       </c>
@@ -6097,7 +6186,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>510</v>
       </c>
@@ -6122,7 +6211,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>511</v>
       </c>
@@ -6147,7 +6236,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>501</v>
       </c>
@@ -6172,7 +6261,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>522</v>
       </c>
@@ -6197,7 +6286,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>152</v>
       </c>
@@ -6222,7 +6311,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>157</v>
       </c>
@@ -6247,7 +6336,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -6272,7 +6361,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -6299,7 +6388,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -6324,7 +6413,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>91</v>
       </c>
@@ -6380,14 +6469,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -6404,12 +6493,12 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>496</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>496</v>
@@ -6421,7 +6510,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -6450,7 +6539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>521</v>
       </c>
@@ -6476,7 +6565,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>499</v>
       </c>
@@ -6502,7 +6591,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>498</v>
       </c>
@@ -6528,7 +6617,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>515</v>
       </c>
@@ -6550,7 +6639,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -6572,7 +6661,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>199</v>
       </c>
@@ -6594,7 +6683,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -6618,7 +6707,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -6627,7 +6716,7 @@
         <v>custId</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -6642,19 +6731,19 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>custSapCode</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>custSapCode</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>579</v>
       </c>
       <c r="E12" s="3">
         <v>32</v>
@@ -6666,7 +6755,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>102</v>
       </c>
@@ -6690,7 +6779,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>152</v>
       </c>
@@ -6715,7 +6804,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>157</v>
       </c>
@@ -6740,7 +6829,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -6765,7 +6854,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -6792,7 +6881,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -6817,7 +6906,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>91</v>
       </c>
@@ -6873,14 +6962,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -6898,7 +6987,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -6916,7 +7005,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -6948,7 +7037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>371</v>
       </c>
@@ -6975,7 +7064,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>451</v>
       </c>
@@ -7002,7 +7091,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -7029,7 +7118,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -7054,7 +7143,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>331</v>
       </c>
@@ -7104,13 +7193,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -7121,7 +7210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>424</v>
       </c>
@@ -7132,7 +7221,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7164,7 +7253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>430</v>
       </c>
@@ -7188,7 +7277,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>431</v>
       </c>
@@ -7212,7 +7301,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>433</v>
       </c>
@@ -7236,7 +7325,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>432</v>
       </c>
@@ -7261,7 +7350,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>434</v>
       </c>
@@ -7285,7 +7374,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>435</v>
       </c>
@@ -7309,7 +7398,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>438</v>
       </c>
@@ -7330,7 +7419,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>439</v>
       </c>
@@ -7351,7 +7440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>436</v>
       </c>
@@ -7398,14 +7487,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -7423,7 +7512,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -7441,7 +7530,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -7473,7 +7562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>371</v>
       </c>
@@ -7500,7 +7589,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>370</v>
       </c>
@@ -7527,7 +7616,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -7554,7 +7643,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>157</v>
       </c>
@@ -7573,7 +7662,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -7598,7 +7687,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -7625,7 +7714,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -7650,7 +7739,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>91</v>
       </c>
@@ -7679,7 +7768,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F12" s="3"/>
     </row>
   </sheetData>
@@ -7709,12 +7798,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -7732,7 +7821,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>455</v>
       </c>
@@ -7750,7 +7839,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -7782,7 +7871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>457</v>
       </c>
@@ -7809,7 +7898,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>456</v>
       </c>
@@ -7836,7 +7925,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>458</v>
       </c>
@@ -7863,7 +7952,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>459</v>
       </c>
@@ -7888,7 +7977,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>468</v>
       </c>
@@ -7913,7 +8002,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -7940,7 +8029,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -7967,7 +8056,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -7994,7 +8083,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>91</v>
       </c>
@@ -8050,15 +8139,15 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -8076,7 +8165,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>469</v>
       </c>
@@ -8094,7 +8183,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -8126,7 +8215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>470</v>
       </c>
@@ -8135,7 +8224,7 @@
         <v>groupId</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -8153,7 +8242,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>471</v>
       </c>
@@ -8180,7 +8269,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>472</v>
       </c>
@@ -8207,16 +8296,16 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ownerOrgName</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>31</v>
@@ -8229,12 +8318,12 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>487</v>
       </c>
@@ -8261,7 +8350,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>468</v>
       </c>
@@ -8288,7 +8377,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -8315,7 +8404,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -8342,7 +8431,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -8369,7 +8458,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
@@ -8424,14 +8513,14 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -8449,7 +8538,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>474</v>
       </c>
@@ -8467,7 +8556,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -8499,7 +8588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>475</v>
       </c>
@@ -8526,7 +8615,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>476</v>
       </c>
@@ -8553,16 +8642,16 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>menberUsrName</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
@@ -8575,12 +8664,12 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>477</v>
       </c>
@@ -8607,7 +8696,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>459</v>
       </c>
@@ -8634,7 +8723,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>468</v>
       </c>
@@ -8661,7 +8750,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -8686,7 +8775,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -8713,7 +8802,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -8738,7 +8827,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
@@ -8788,23 +8877,23 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -8822,12 +8911,12 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>524</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>524</v>
@@ -8840,7 +8929,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -8872,12 +8961,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>526</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f t="shared" ref="B4:B35" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
+        <f t="shared" ref="B4:B36" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>bidId</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -8899,7 +8988,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>527</v>
       </c>
@@ -8908,7 +8997,7 @@
         <v>bidName</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>18</v>
@@ -8926,16 +9015,16 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>firstBidAmount</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -8948,12 +9037,12 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>528</v>
       </c>
@@ -8962,13 +9051,13 @@
         <v>predictAmount</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>164</v>
@@ -8980,7 +9069,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>529</v>
       </c>
@@ -8989,13 +9078,13 @@
         <v>predictCost</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>164</v>
@@ -9006,7 +9095,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>530</v>
       </c>
@@ -9015,13 +9104,13 @@
         <v>predictProfitRate</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>164</v>
@@ -9033,19 +9122,19 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>531</v>
+        <v>735</v>
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>predictPeriod</v>
+        <v>predictPeriodStart</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>543</v>
+        <v>736</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>581</v>
+        <v>737</v>
       </c>
       <c r="E10" s="11">
         <v>32</v>
@@ -9055,295 +9144,297 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="3" t="s">
-        <v>531</v>
+        <v>735</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>639</v>
+        <v>738</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>custId</v>
+        <v>predictPeriodEnd</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>644</v>
+        <v>739</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>650</v>
+        <v>740</v>
       </c>
       <c r="E11" s="11">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>164</v>
+        <v>741</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="3" t="s">
-        <v>639</v>
+        <v>738</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>custCnName</v>
+        <v>custId</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="E12" s="11">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>custSapCode</v>
+        <v>custCnName</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E13" s="11">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>constructionDeptId</v>
+        <v>custSapCode</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="E14" s="11">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>constructionDeptName</v>
+        <v>constructionDeptId</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>648</v>
-      </c>
       <c r="E15" s="11">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>535</v>
+        <v>641</v>
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>sellDeptId</v>
+        <v>constructionDeptName</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>542</v>
+        <v>645</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>546</v>
+        <v>646</v>
+      </c>
+      <c r="E16" s="11">
+        <v>256</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="3" t="s">
-        <v>205</v>
+        <v>641</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>sellDeptName</v>
+        <v>sellDeptId</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="11">
-        <v>128</v>
+        <v>19</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>544</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>custManagerId</v>
+        <v>sellDeptName</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="E18" s="11">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="3" t="s">
-        <v>533</v>
+        <v>204</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>custManagerName</v>
+        <v>custManagerId</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="E19" s="11">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>659</v>
+        <v>533</v>
       </c>
       <c r="B20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>technicalDirectorId</v>
+        <v>custManagerName</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>660</v>
+        <v>539</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>662</v>
+        <v>18</v>
       </c>
       <c r="E20" s="11">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>533</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>technicalDirectorId</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="B21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>technicalDirectorName</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>661</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E21" s="11">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>164</v>
@@ -9353,19 +9444,19 @@
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>sellDeptManagerName</v>
+        <v>technicalDirectorName</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>31</v>
+        <v>661</v>
       </c>
       <c r="E22" s="11">
         <v>256</v>
@@ -9378,22 +9469,22 @@
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>sellDeptManagerId</v>
+        <v>sellDeptManagerName</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="E23" s="11">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>164</v>
@@ -9403,22 +9494,22 @@
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>constructionDeptManagerName</v>
+        <v>sellDeptManagerId</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="E24" s="11">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>164</v>
@@ -9428,22 +9519,22 @@
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>constructionDeptManagerId</v>
+        <v>constructionDeptManagerName</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="E25" s="11">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>164</v>
@@ -9453,22 +9544,22 @@
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>status</v>
+        <v>constructionDeptManagerId</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="E26" s="11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>164</v>
@@ -9478,19 +9569,19 @@
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>532</v>
+        <v>666</v>
       </c>
       <c r="B27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>isWorkAreaExplicit</v>
+        <v>status</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>541</v>
+        <v>669</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="E27" s="11">
         <v>2</v>
@@ -9498,28 +9589,24 @@
       <c r="F27" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>532</v>
-      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>571</v>
+        <v>531</v>
       </c>
       <c r="B28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>isChecked</v>
+        <v>isWorkAreaExplicit</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>572</v>
+        <v>540</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="E28" s="11">
         <v>2</v>
@@ -9528,216 +9615,245 @@
         <v>164</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>571</v>
+        <v>531</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="B29" s="4" t="str">
-        <f>LOWER(LEFT($C29,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C29,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C29,"_", " "))," ",""))-1)</f>
-        <v>remark</v>
+        <f t="shared" si="0"/>
+        <v>isChecked</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>162</v>
+        <v>570</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="E29" s="11">
-        <v>256</v>
+        <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>571</v>
+      </c>
       <c r="H29" s="3" t="s">
-        <v>152</v>
+        <v>569</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>654</v>
+        <v>536</v>
       </c>
       <c r="B30" s="4" t="str">
         <f>LOWER(LEFT($C30,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C30,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C30,"_", " "))," ",""))-1)</f>
-        <v>paymentPoint</v>
+        <v>remark</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>655</v>
+        <v>162</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>656</v>
+        <v>31</v>
       </c>
       <c r="E30" s="11">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="3" t="s">
-        <v>657</v>
+        <v>152</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>468</v>
+        <v>652</v>
       </c>
       <c r="B31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>creatorId</v>
+        <f>LOWER(LEFT($C31,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C31,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C31,"_", " "))," ",""))-1)</f>
+        <v>paymentPoint</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>467</v>
+        <v>653</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>27</v>
+        <v>654</v>
       </c>
       <c r="E31" s="11">
-        <v>10</v>
+        <v>512</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="3" t="s">
-        <v>157</v>
+        <v>655</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>15</v>
+        <v>468</v>
       </c>
       <c r="B32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>createTime</v>
+        <v>creatorId</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>18</v>
+        <v>467</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E32" s="11">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="3" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>modifier</v>
+        <v>createTime</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E33" s="11">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>modifyTime</v>
+        <v>modifier</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>490</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E34" s="11">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>isDelete</v>
+    <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyTime</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E35" s="11">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>91</v>
+      <c r="G35" s="5"/>
+      <c r="H35" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>isDelete</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="11">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G35"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G36"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
       <formula1>" =枚举!$A1:$A7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F36">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D36">
       <formula1>数据类型枚举</formula1>
     </dataValidation>
   </dataValidations>
@@ -9754,18 +9870,18 @@
       <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -9783,12 +9899,12 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -9799,7 +9915,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -9831,43 +9947,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" ref="B4:B12" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>fileId</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>598</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>599</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>600</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fileUploadName</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>18</v>
@@ -9880,21 +9996,21 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>filePath</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
@@ -9907,21 +10023,21 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fileSaveName</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
@@ -9934,21 +10050,21 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>uploadType</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>247</v>
@@ -9961,21 +10077,21 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fileSize</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>27</v>
@@ -9988,24 +10104,24 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>foreignId</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E10" s="20">
         <v>10</v>
@@ -10015,24 +10131,24 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>foreignCode</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E11" s="20">
         <v>32</v>
@@ -10042,21 +10158,21 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>remark</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>18</v>
@@ -10074,79 +10190,79 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B13" s="5" t="str">
         <f t="shared" ref="B13:B17" si="1">LOWER(LEFT($C13,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C13,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C13,"_", " "))," ",""))-1)</f>
         <v>creatorId</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E13" s="20">
         <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>createTime</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E14" s="20">
         <v>32</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>modifier</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E15" s="20">
         <v>10</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
@@ -10155,25 +10271,25 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>modifyTime</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E16" s="20">
         <v>32</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
@@ -10182,28 +10298,28 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>isDelete</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E17" s="20">
         <v>2</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>91</v>
@@ -10234,19 +10350,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -10264,7 +10380,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>57</v>
       </c>
@@ -10282,7 +10398,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
@@ -10314,7 +10430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>60</v>
       </c>
@@ -10341,16 +10457,16 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>foreignId</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>195</v>
@@ -10363,21 +10479,21 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>foreignCode</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>310</v>
@@ -10390,12 +10506,12 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>93</v>
       </c>
@@ -10418,7 +10534,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>61</v>
       </c>
@@ -10441,7 +10557,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>62</v>
       </c>
@@ -10464,7 +10580,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>92</v>
       </c>
@@ -10487,7 +10603,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>91</v>
       </c>
@@ -10538,17 +10654,17 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="1" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -10566,12 +10682,12 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -10582,7 +10698,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -10614,7 +10730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>46</v>
       </c>
@@ -10641,7 +10757,7 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>52</v>
       </c>
@@ -10672,9 +10788,9 @@
       </c>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10694,23 +10810,23 @@
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>96</v>
       </c>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>reviewCode</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>18</v>
@@ -10723,14 +10839,14 @@
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>45</v>
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>50</v>
       </c>
@@ -10752,14 +10868,14 @@
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>96</v>
       </c>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>55</v>
       </c>
@@ -10788,7 +10904,7 @@
       </c>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>56</v>
       </c>
@@ -10817,7 +10933,7 @@
       </c>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>48</v>
       </c>
@@ -10846,7 +10962,7 @@
       </c>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>47</v>
       </c>
@@ -10858,7 +10974,7 @@
         <v>400</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E12" s="21">
         <v>32</v>
@@ -10875,7 +10991,7 @@
       </c>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
@@ -10906,7 +11022,7 @@
       </c>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -10944,17 +11060,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -10972,15 +11088,15 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -10990,7 +11106,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -11022,16 +11138,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" ref="B4:B17" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>paymentId</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -11044,21 +11160,21 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>paymentForeignId</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -11071,21 +11187,21 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>paymentForeignCode</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
@@ -11098,21 +11214,21 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>paymentType</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>53</v>
@@ -11124,27 +11240,27 @@
         <v>164</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>paymentDate</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E8" s="11">
         <v>32</v>
@@ -11154,12 +11270,12 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>337</v>
       </c>
@@ -11168,13 +11284,13 @@
         <v>paymentTerm</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>164</v>
@@ -11185,43 +11301,43 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>paymentRate</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>paymentAmount</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -11234,14 +11350,14 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>LOWER(LEFT($C12,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C12,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C12,"_", " "))," ",""))-1)</f>
@@ -11261,12 +11377,12 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>468</v>
       </c>
@@ -11293,7 +11409,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -11320,7 +11436,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -11347,7 +11463,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -11374,7 +11490,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>91</v>
       </c>
@@ -11427,11 +11543,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="20" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -11449,16 +11565,16 @@
       <selection sqref="A1:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -11469,7 +11585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -11480,7 +11596,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -11512,7 +11628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -11536,7 +11652,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -11560,7 +11676,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -11584,7 +11700,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>160</v>
       </c>
@@ -11609,7 +11725,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -11657,44 +11773,44 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -11713,14 +11829,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -11731,7 +11847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -11742,7 +11858,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -11774,7 +11890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -11798,7 +11914,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -11822,7 +11938,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -11846,7 +11962,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -11870,7 +11986,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -11894,7 +12010,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -11940,16 +12056,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -11960,7 +12076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -11971,7 +12087,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -12003,7 +12119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -12027,7 +12143,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -12051,7 +12167,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -12075,7 +12191,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -12099,7 +12215,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -12123,7 +12239,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -12147,7 +12263,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>175</v>
       </c>
@@ -12174,7 +12290,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>297</v>
       </c>
@@ -12199,7 +12315,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>276</v>
       </c>
@@ -12224,7 +12340,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -12275,14 +12391,14 @@
       <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -12293,18 +12409,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -12336,7 +12452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -12360,7 +12476,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -12381,25 +12497,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>wbs</v>
       </c>
       <c r="C6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E6">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -12417,7 +12533,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -12435,7 +12551,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -12453,7 +12569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -12471,7 +12587,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -12489,7 +12605,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -12510,7 +12626,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -12560,14 +12676,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -12585,12 +12701,12 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>99</v>
@@ -12603,7 +12719,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -12638,7 +12754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>110</v>
       </c>
@@ -12668,7 +12784,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
@@ -12693,7 +12809,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>102</v>
       </c>
@@ -12718,19 +12834,19 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>wbs</v>
       </c>
       <c r="C7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -12743,7 +12859,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>111</v>
       </c>
@@ -12768,7 +12884,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>112</v>
       </c>
@@ -12793,7 +12909,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>113</v>
       </c>
@@ -12818,7 +12934,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>105</v>
       </c>
@@ -12843,7 +12959,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>114</v>
       </c>
@@ -12868,7 +12984,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>91</v>
       </c>
@@ -12923,17 +13039,17 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -12951,12 +13067,12 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>59</v>
@@ -12969,7 +13085,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>183</v>
       </c>
@@ -13001,7 +13117,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>193</v>
       </c>
@@ -13028,7 +13144,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>199</v>
       </c>
@@ -13053,7 +13169,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>200</v>
       </c>
@@ -13078,7 +13194,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>201</v>
       </c>
@@ -13103,7 +13219,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>203</v>
       </c>
@@ -13128,7 +13244,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>204</v>
       </c>
@@ -13150,7 +13266,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>205</v>
       </c>
@@ -13172,7 +13288,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>206</v>
       </c>
@@ -13194,7 +13310,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>207</v>
       </c>
@@ -13216,7 +13332,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>208</v>
       </c>
@@ -13238,7 +13354,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>209</v>
       </c>
@@ -13263,7 +13379,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>210</v>
       </c>
@@ -13288,7 +13404,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>211</v>
       </c>
@@ -13313,16 +13429,16 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>custSapCode</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>195</v>
@@ -13338,7 +13454,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>212</v>
       </c>
@@ -13363,7 +13479,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>213</v>
       </c>
@@ -13388,7 +13504,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>214</v>
       </c>
@@ -13413,7 +13529,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>215</v>
       </c>
@@ -13438,7 +13554,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>216</v>
       </c>
@@ -13463,7 +13579,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>217</v>
       </c>
@@ -13484,22 +13600,22 @@
         <v>202</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictContractAmount</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>195</v>
@@ -13515,16 +13631,16 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>profitCenter</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>53</v>
@@ -13536,25 +13652,25 @@
         <v>96</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>profitCode</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="B26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>profitCode</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>700</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E26" s="2">
         <v>32</v>
@@ -13567,16 +13683,16 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>costCenter</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>53</v>
@@ -13588,25 +13704,25 @@
         <v>96</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>costCode</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E28" s="2">
         <v>32</v>
@@ -13619,7 +13735,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>218</v>
       </c>
@@ -13644,7 +13760,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>219</v>
       </c>
@@ -13669,7 +13785,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>220</v>
       </c>
@@ -13694,7 +13810,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>221</v>
       </c>
@@ -13719,7 +13835,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>222</v>
       </c>
@@ -13744,7 +13860,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>223</v>
       </c>
@@ -13769,7 +13885,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>224</v>
       </c>
@@ -13794,7 +13910,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>225</v>
       </c>
@@ -13819,7 +13935,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>226</v>
       </c>
@@ -13844,7 +13960,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>227</v>
       </c>
@@ -13869,7 +13985,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>228</v>
       </c>
@@ -13894,7 +14010,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>229</v>
       </c>
@@ -13919,7 +14035,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>230</v>
       </c>
@@ -13944,7 +14060,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>231</v>
       </c>
@@ -13969,7 +14085,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>232</v>
       </c>
@@ -13994,7 +14110,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>233</v>
       </c>
@@ -14003,7 +14119,7 @@
         <v>ftpReportReviewResult</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>53</v>
@@ -14019,7 +14135,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>234</v>
       </c>
@@ -14044,7 +14160,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>235</v>
       </c>
@@ -14069,7 +14185,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>236</v>
       </c>
@@ -14094,7 +14210,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>237</v>
       </c>
@@ -14119,7 +14235,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>238</v>
       </c>
@@ -14144,7 +14260,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>239</v>
       </c>
@@ -14169,7 +14285,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>240</v>
       </c>
@@ -14194,7 +14310,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>241</v>
       </c>
@@ -14219,16 +14335,16 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>netSalary</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>195</v>
@@ -14244,16 +14360,16 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>yearSalary</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>195</v>
@@ -14269,22 +14385,22 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictProfitRate</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>96</v>
@@ -14294,16 +14410,16 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictCapitaSalary</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>195</v>
@@ -14319,16 +14435,16 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictCapitaCost</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>195</v>
@@ -14344,22 +14460,22 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B58" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictWorkload</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>96</v>
@@ -14369,16 +14485,16 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B59" s="2" t="str">
         <f t="shared" si="0"/>
         <v>employeeCost</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>195</v>
@@ -14394,16 +14510,16 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>businessTripCost</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>195</v>
@@ -14419,16 +14535,16 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>otherCost</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>195</v>
@@ -14444,16 +14560,16 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>accruedChargesWorkers</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="B62" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>accruedChargesWorkers</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>195</v>
@@ -14469,16 +14585,16 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>accruedChargesProducts</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="B63" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>accruedChargesProducts</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>195</v>
@@ -14494,7 +14610,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>242</v>
       </c>
@@ -14519,7 +14635,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>243</v>
       </c>
@@ -14544,7 +14660,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>244</v>
       </c>
@@ -14569,7 +14685,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>245</v>
       </c>
@@ -14598,7 +14714,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -14619,7 +14735,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -14640,7 +14756,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -14661,7 +14777,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -14705,15 +14821,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -14724,18 +14840,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -14767,7 +14883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -14791,7 +14907,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -14812,7 +14928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -14833,16 +14949,16 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>wbs</v>
       </c>
       <c r="C7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -14854,7 +14970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -14875,7 +14991,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -14896,7 +15012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -14917,7 +15033,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -14938,7 +15054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>

--- a/表字段设计2 (自动保存的).xlsx
+++ b/表字段设计2 (自动保存的).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="22" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="17" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="页面表头" sheetId="23" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="747">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3006,6 +3006,22 @@
   <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00-已保存，01-交付部门待确认，02-销售部门待确认，03-技术总监待确认,04-全部确认（只要有一人不同意则直接变成00）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审》》》提交评审的时候通过id获取完整信息》》通过状态获取下一评审人》》插入评审表》》更新投标状态</t>
+  </si>
+  <si>
+    <t>评审通过》》通过id，评审类型获取完整信息》》通过结果变更状态》》提交给下一评审人：插入新纪录，将旧评审记录状态置为无效</t>
+  </si>
+  <si>
+    <t>插入评审过程：获取外键ID，评审类型，将符合条件的数据置为无效，插入新数据。若有填写意见则带上意见，更新</t>
+  </si>
+  <si>
+    <t>提交评审：同上</t>
   </si>
 </sst>
 </file>
@@ -8877,10 +8893,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9311,7 +9327,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>534</v>
       </c>
@@ -9338,7 +9354,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>535</v>
       </c>
@@ -9365,7 +9381,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>532</v>
       </c>
@@ -9392,7 +9408,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>533</v>
       </c>
@@ -9419,7 +9435,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>657</v>
       </c>
@@ -9440,11 +9456,13 @@
         <v>164</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>657</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>656</v>
       </c>
@@ -9465,11 +9483,13 @@
         <v>164</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>656</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>662</v>
       </c>
@@ -9490,11 +9510,13 @@
         <v>164</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>662</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>663</v>
       </c>
@@ -9515,11 +9537,13 @@
         <v>164</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>663</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>664</v>
       </c>
@@ -9540,11 +9564,13 @@
         <v>164</v>
       </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>664</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>665</v>
       </c>
@@ -9565,11 +9591,13 @@
         <v>164</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>665</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>666</v>
       </c>
@@ -9590,11 +9618,16 @@
         <v>164</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="5" t="s">
+        <v>742</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>531</v>
       </c>
@@ -9623,7 +9656,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>569</v>
       </c>
@@ -9651,8 +9684,11 @@
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>536</v>
       </c>
@@ -9679,7 +9715,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>652</v>
       </c>
@@ -9705,8 +9741,11 @@
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>468</v>
       </c>
@@ -9732,6 +9771,9 @@
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
+      <c r="K32" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">

--- a/表字段设计2 (自动保存的).xlsx
+++ b/表字段设计2 (自动保存的).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="页面表头" sheetId="23" r:id="rId1"/>
@@ -12,27 +12,27 @@
     <sheet name="excel文件类型" sheetId="17" r:id="rId3"/>
     <sheet name="excel表类型" sheetId="20" r:id="rId4"/>
     <sheet name="excel字段关系映射" sheetId="18" r:id="rId5"/>
-    <sheet name="评审表" sheetId="11" r:id="rId6"/>
-    <sheet name="项目收款" sheetId="14" r:id="rId7"/>
-    <sheet name="里程碑" sheetId="16" r:id="rId8"/>
-    <sheet name="项目" sheetId="3" r:id="rId9"/>
-    <sheet name="项目群关系表" sheetId="13" r:id="rId10"/>
-    <sheet name="项目群管理" sheetId="9" r:id="rId11"/>
-    <sheet name="项目问题表" sheetId="7" r:id="rId12"/>
-    <sheet name="合同" sheetId="2" r:id="rId13"/>
-    <sheet name="证据" sheetId="4" r:id="rId14"/>
-    <sheet name="计提计划" sheetId="12" r:id="rId15"/>
-    <sheet name="收入" sheetId="5" r:id="rId16"/>
-    <sheet name="客户表" sheetId="8" r:id="rId17"/>
-    <sheet name="产品信息" sheetId="29" r:id="rId18"/>
-    <sheet name="产品项目关系表" sheetId="31" r:id="rId19"/>
-    <sheet name="客户群关系表" sheetId="25" r:id="rId20"/>
-    <sheet name="客户群管理表" sheetId="22" r:id="rId21"/>
-    <sheet name="公司表" sheetId="26" r:id="rId22"/>
-    <sheet name="销售团队表" sheetId="27" r:id="rId23"/>
-    <sheet name="销售团队成员表" sheetId="28" r:id="rId24"/>
-    <sheet name="投标确认表" sheetId="32" r:id="rId25"/>
-    <sheet name="文件表" sheetId="6" r:id="rId26"/>
+    <sheet name="项目收款" sheetId="14" r:id="rId6"/>
+    <sheet name="里程碑" sheetId="16" r:id="rId7"/>
+    <sheet name="项目" sheetId="3" r:id="rId8"/>
+    <sheet name="项目群关系表" sheetId="13" r:id="rId9"/>
+    <sheet name="项目群管理" sheetId="9" r:id="rId10"/>
+    <sheet name="项目问题表" sheetId="7" r:id="rId11"/>
+    <sheet name="合同" sheetId="2" r:id="rId12"/>
+    <sheet name="证据" sheetId="4" r:id="rId13"/>
+    <sheet name="计提计划" sheetId="12" r:id="rId14"/>
+    <sheet name="收入" sheetId="5" r:id="rId15"/>
+    <sheet name="客户表" sheetId="8" r:id="rId16"/>
+    <sheet name="产品信息" sheetId="29" r:id="rId17"/>
+    <sheet name="产品项目关系表" sheetId="31" r:id="rId18"/>
+    <sheet name="客户群关系表" sheetId="25" r:id="rId19"/>
+    <sheet name="客户群管理表" sheetId="22" r:id="rId20"/>
+    <sheet name="公司表" sheetId="26" r:id="rId21"/>
+    <sheet name="销售团队表" sheetId="27" r:id="rId22"/>
+    <sheet name="销售团队成员表" sheetId="28" r:id="rId23"/>
+    <sheet name="投标确认表" sheetId="32" r:id="rId24"/>
+    <sheet name="文件表" sheetId="6" r:id="rId25"/>
+    <sheet name="评审表" sheetId="11" r:id="rId26"/>
     <sheet name="评审意见表" sheetId="10" r:id="rId27"/>
     <sheet name="付款点信息表" sheetId="33" r:id="rId28"/>
     <sheet name="Sheet1" sheetId="34" r:id="rId29"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="805">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2986,6 +2986,210 @@
   <si>
     <t>项目问题表</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectId</t>
+  </si>
+  <si>
+    <t>buildDeptName</t>
+  </si>
+  <si>
+    <t>buildDeptId</t>
+  </si>
+  <si>
+    <t>buildManagerName</t>
+  </si>
+  <si>
+    <t>buildManagerId</t>
+  </si>
+  <si>
+    <t>sellDeptName</t>
+  </si>
+  <si>
+    <t>sellDeptId</t>
+  </si>
+  <si>
+    <t>sellManagerName</t>
+  </si>
+  <si>
+    <t>sellManagerId</t>
+  </si>
+  <si>
+    <t>createProjectTime</t>
+  </si>
+  <si>
+    <t>finishProjectTime</t>
+  </si>
+  <si>
+    <t>wbs</t>
+  </si>
+  <si>
+    <t>custName</t>
+  </si>
+  <si>
+    <t>custSapCode</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>currentYearFollow</t>
+  </si>
+  <si>
+    <t>isContinue</t>
+  </si>
+  <si>
+    <t>projectStatus</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>projectType</t>
+  </si>
+  <si>
+    <t>predictContractAmount</t>
+  </si>
+  <si>
+    <t>profitCenter</t>
+  </si>
+  <si>
+    <t>profitCode</t>
+  </si>
+  <si>
+    <t>costCenter</t>
+  </si>
+  <si>
+    <t>costCode</t>
+  </si>
+  <si>
+    <t>profitRate</t>
+  </si>
+  <si>
+    <t>profitMount</t>
+  </si>
+  <si>
+    <t>workLoad</t>
+  </si>
+  <si>
+    <t>currendYearIncomming</t>
+  </si>
+  <si>
+    <t>currentYearGrossProfit</t>
+  </si>
+  <si>
+    <t>allIncomming</t>
+  </si>
+  <si>
+    <t>overFlowReportIncomming</t>
+  </si>
+  <si>
+    <t>signContractDate</t>
+  </si>
+  <si>
+    <t>isSignedContract</t>
+  </si>
+  <si>
+    <t>ftpContractReviewResult</t>
+  </si>
+  <si>
+    <t>onlineDate</t>
+  </si>
+  <si>
+    <t>isOnline</t>
+  </si>
+  <si>
+    <t>onlineReportReviewResult</t>
+  </si>
+  <si>
+    <t>acceptDate</t>
+  </si>
+  <si>
+    <t>isAccept</t>
+  </si>
+  <si>
+    <t>ftpReportReviewResult</t>
+  </si>
+  <si>
+    <t>onlineDateLater</t>
+  </si>
+  <si>
+    <t>acceptDateLater</t>
+  </si>
+  <si>
+    <t>onlineNum</t>
+  </si>
+  <si>
+    <t>acceptNum</t>
+  </si>
+  <si>
+    <t>isImportant</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>currentYearMount</t>
+  </si>
+  <si>
+    <t>innerAcceptDate</t>
+  </si>
+  <si>
+    <t>netSalary</t>
+  </si>
+  <si>
+    <t>yearSalary</t>
+  </si>
+  <si>
+    <t>predictProfitRate</t>
+  </si>
+  <si>
+    <t>predictCapitaSalary</t>
+  </si>
+  <si>
+    <t>predictCapitaCost</t>
+  </si>
+  <si>
+    <t>predictWorkload</t>
+  </si>
+  <si>
+    <t>employeeCost</t>
+  </si>
+  <si>
+    <t>businessTripCost</t>
+  </si>
+  <si>
+    <t>otherCost</t>
+  </si>
+  <si>
+    <t>accruedChargesWorkers</t>
+  </si>
+  <si>
+    <t>accruedChargesProducts</t>
+  </si>
+  <si>
+    <t>remark1</t>
+  </si>
+  <si>
+    <t>remark2</t>
+  </si>
+  <si>
+    <t>remark3</t>
+  </si>
+  <si>
+    <t>isDelete</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>modifyTime</t>
+  </si>
+  <si>
+    <t>modifier</t>
   </si>
 </sst>
 </file>
@@ -3144,74 +3348,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3231,7 +3367,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3634,291 +3770,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f t="shared" ref="B4:B11" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
-        <v>relationship</v>
-      </c>
-      <c r="C4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>projectGroupId</v>
-      </c>
-      <c r="C5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>projectId</v>
-      </c>
-      <c r="C6" t="s">
-        <v>394</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>721</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>wbs</v>
-      </c>
-      <c r="C7" t="s">
-        <v>721</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="8">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>createTime</v>
-      </c>
-      <c r="C8" t="s">
-        <v>393</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="8">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>creator</v>
-      </c>
-      <c r="C9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>modifyTime</v>
-      </c>
-      <c r="C10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="8">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>modifier</v>
-      </c>
-      <c r="C11" t="s">
-        <v>390</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f>LOWER(LEFT($C12,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C12,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C12,"_", " "))," ",""))-1)</f>
-        <v>isDelete</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="9">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G12"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
-      <formula1>数据类型枚举</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4217,11 +4068,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -4543,7 +4394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -4674,7 +4525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
@@ -4962,7 +4813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -5172,7 +5023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -5437,7 +5288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -6210,7 +6061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -6725,7 +6576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -7212,6 +7063,237 @@
       <formula1>数据类型枚举</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" sqref="H4:H8 G19 H14:H18"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f>LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
+        <v>custGroupRelationId</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C5,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C5,"_", " "))," ",""))-1)</f>
+        <v>custGroupId</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="11">
+        <v>256</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f>LOWER(LEFT($C6,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C6,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C6,"_", " "))," ",""))-1)</f>
+        <v>custId</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f>LOWER(LEFT($C7,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C7,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C7,"_", " "))," ",""))-1)</f>
+        <v>custCnName</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3">
+        <v>256</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f>LOWER(LEFT($C8,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C8,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C8,"_", " "))," ",""))-1)</f>
+        <v>sapCode</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <v>128</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F8">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="H4:H8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
+      <formula1>" =枚举!$A1:$A7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8">
+      <formula1>数据类型枚举</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7514,237 +7596,6 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <f>LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
-        <v>custGroupRelationId</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B5" s="4" t="str">
-        <f>LOWER(LEFT($C5,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C5,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C5,"_", " "))," ",""))-1)</f>
-        <v>custGroupId</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="11">
-        <v>256</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <f>LOWER(LEFT($C6,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C6,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C6,"_", " "))," ",""))-1)</f>
-        <v>custId</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4" t="str">
-        <f>LOWER(LEFT($C7,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C7,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C7,"_", " "))," ",""))-1)</f>
-        <v>custCnName</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3">
-        <v>256</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <f>LOWER(LEFT($C8,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C8,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C8,"_", " "))," ",""))-1)</f>
-        <v>sapCode</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3">
-        <v>128</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F8">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="H4:H8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>" =枚举!$A1:$A7"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8">
-      <formula1>数据类型枚举</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8054,7 +7905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -8395,7 +8246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -8769,7 +8620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -9139,12 +8990,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9230,7 +9081,7 @@
         <v>526</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f t="shared" ref="B4:B35" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
+        <f t="shared" ref="B4:B36" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>bidId</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -9387,316 +9238,303 @@
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="B10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>predictPeriod</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="E10" s="11">
-        <v>32</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>164</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="3" t="s">
-        <v>531</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>640</v>
+        <v>531</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>custId</v>
+        <v>predictPeriod</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>645</v>
+        <v>543</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>651</v>
+        <v>581</v>
       </c>
       <c r="E11" s="11">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="3" t="s">
-        <v>640</v>
+        <v>531</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>custCnName</v>
+        <v>custId</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="E12" s="11">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>custSapCode</v>
+        <v>custCnName</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E13" s="11">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>constructionDeptId</v>
+        <v>custSapCode</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="E14" s="11">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>constructionDeptName</v>
+        <v>constructionDeptId</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E15" s="11">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>535</v>
+        <v>644</v>
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>sellDeptId</v>
+        <v>constructionDeptName</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>542</v>
+        <v>648</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>546</v>
+        <v>649</v>
+      </c>
+      <c r="E16" s="11">
+        <v>256</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="3" t="s">
-        <v>205</v>
+        <v>644</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>sellDeptName</v>
+        <v>sellDeptId</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="11">
-        <v>128</v>
+        <v>19</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>546</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>custManagerId</v>
+        <v>sellDeptName</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="E18" s="11">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="3" t="s">
-        <v>533</v>
+        <v>204</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>custManagerName</v>
+        <v>custManagerId</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="E19" s="11">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>660</v>
+        <v>534</v>
       </c>
       <c r="B20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>technicalDirectorId</v>
+        <v>custManagerName</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>661</v>
+        <v>540</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>663</v>
+        <v>18</v>
       </c>
       <c r="E20" s="11">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>534</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>technicalDirectorName</v>
+        <v>technicalDirectorId</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E21" s="11">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>164</v>
@@ -9708,17 +9546,17 @@
     </row>
     <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>sellDeptManagerName</v>
+        <v>technicalDirectorName</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>31</v>
+        <v>664</v>
       </c>
       <c r="E22" s="11">
         <v>256</v>
@@ -9733,20 +9571,20 @@
     </row>
     <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>sellDeptManagerId</v>
+        <v>sellDeptManagerName</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="E23" s="11">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>164</v>
@@ -9758,20 +9596,20 @@
     </row>
     <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>constructionDeptManagerName</v>
+        <v>sellDeptManagerId</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="E24" s="11">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>164</v>
@@ -9783,20 +9621,20 @@
     </row>
     <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>constructionDeptManagerId</v>
+        <v>constructionDeptManagerName</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="E25" s="11">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>164</v>
@@ -9808,20 +9646,20 @@
     </row>
     <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>status</v>
+        <v>constructionDeptManagerId</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="E26" s="11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>164</v>
@@ -9833,17 +9671,17 @@
     </row>
     <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>532</v>
+        <v>669</v>
       </c>
       <c r="B27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>isWorkAreaExplicit</v>
+        <v>status</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>541</v>
+        <v>672</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="E27" s="11">
         <v>2</v>
@@ -9851,28 +9689,24 @@
       <c r="F27" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>532</v>
-      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="B28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>isChecked</v>
+        <v>isWorkAreaExplicit</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="E28" s="11">
         <v>2</v>
@@ -9881,216 +9715,245 @@
         <v>164</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="B29" s="4" t="str">
-        <f>LOWER(LEFT($C29,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C29,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C29,"_", " "))," ",""))-1)</f>
-        <v>remark</v>
+        <f t="shared" si="0"/>
+        <v>isChecked</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>162</v>
+        <v>572</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="E29" s="11">
-        <v>256</v>
+        <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>573</v>
+      </c>
       <c r="H29" s="3" t="s">
-        <v>152</v>
+        <v>571</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>655</v>
+        <v>537</v>
       </c>
       <c r="B30" s="4" t="str">
         <f>LOWER(LEFT($C30,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C30,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C30,"_", " "))," ",""))-1)</f>
-        <v>paymentPoint</v>
+        <v>remark</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>656</v>
+        <v>162</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>657</v>
+        <v>31</v>
       </c>
       <c r="E30" s="11">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="3" t="s">
-        <v>658</v>
+        <v>152</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>468</v>
+        <v>655</v>
       </c>
       <c r="B31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>creatorId</v>
+        <f>LOWER(LEFT($C31,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C31,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C31,"_", " "))," ",""))-1)</f>
+        <v>paymentPoint</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>467</v>
+        <v>656</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>27</v>
+        <v>657</v>
       </c>
       <c r="E31" s="11">
-        <v>10</v>
+        <v>512</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="3" t="s">
-        <v>157</v>
+        <v>658</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>15</v>
+        <v>468</v>
       </c>
       <c r="B32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>createTime</v>
+        <v>creatorId</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>18</v>
+        <v>467</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E32" s="11">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="3" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>modifier</v>
+        <v>createTime</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E33" s="11">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>modifyTime</v>
+        <v>modifier</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>490</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E34" s="11">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>isDelete</v>
+      <c r="A35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyTime</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E35" s="11">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>91</v>
+      <c r="G35" s="5"/>
+      <c r="H35" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>isDelete</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="11">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G35"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G36"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
       <formula1>" =枚举!$A1:$A7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F36">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D36">
       <formula1>数据类型枚举</formula1>
     </dataValidation>
   </dataValidations>
@@ -10099,12 +9962,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10583,12 +10446,312 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="17" t="str">
+        <f t="shared" ref="B4:B10" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
+        <v>reviewId</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>foreignId</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="20">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>foreignCode</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="20">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewType</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewUserName</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7">
+        <v>64</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewUserCode</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>result</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="17" t="str">
+        <f>LOWER(LEFT($C11,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C11,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C11,"_", " "))," ",""))-1)</f>
+        <v>isDelete</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11 F4:F6">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G11"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D11">
+      <formula1>数据类型枚举</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12322,275 +12485,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="17" t="str">
-        <f t="shared" ref="B4:B9" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
-        <v>reviewId</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>projectId</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>reviewType</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>reviewUserName</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7">
-        <v>64</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>reviewUserCode</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>result</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="17" t="str">
-        <f>LOWER(LEFT($C10,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C10,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C10,"_", " "))," ",""))-1)</f>
-        <v>isDelete</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="17">
-        <v>2</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10 F4">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G10"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10">
-      <formula1>数据类型枚举</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12874,7 +12768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -13237,12 +13131,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13327,9 +13221,8 @@
       <c r="A4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="2" t="str">
-        <f t="shared" ref="B4:B66" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
-        <v>projectId</v>
+      <c r="B4" s="2" t="s">
+        <v>737</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>194</v>
@@ -13354,9 +13247,8 @@
       <c r="A5" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>buildDeptName</v>
+      <c r="B5" s="2" t="s">
+        <v>738</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>249</v>
@@ -13379,9 +13271,8 @@
       <c r="A6" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>buildDeptId</v>
+      <c r="B6" s="2" t="s">
+        <v>739</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>250</v>
@@ -13404,9 +13295,8 @@
       <c r="A7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>buildManagerName</v>
+      <c r="B7" s="2" t="s">
+        <v>740</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>251</v>
@@ -13429,9 +13319,8 @@
       <c r="A8" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>buildManagerId</v>
+      <c r="B8" s="2" t="s">
+        <v>741</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>252</v>
@@ -13454,9 +13343,8 @@
       <c r="A9" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sellDeptName</v>
+      <c r="B9" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>253</v>
@@ -13476,9 +13364,8 @@
       <c r="A10" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sellDeptId</v>
+      <c r="B10" s="2" t="s">
+        <v>743</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>254</v>
@@ -13498,9 +13385,8 @@
       <c r="A11" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sellManagerName</v>
+      <c r="B11" s="2" t="s">
+        <v>744</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>255</v>
@@ -13520,9 +13406,8 @@
       <c r="A12" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sellManagerId</v>
+      <c r="B12" s="2" t="s">
+        <v>745</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>256</v>
@@ -13542,9 +13427,8 @@
       <c r="A13" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>createProjectTime</v>
+      <c r="B13" s="2" t="s">
+        <v>746</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>257</v>
@@ -13564,9 +13448,8 @@
       <c r="A14" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>finishProjectTime</v>
+      <c r="B14" s="2" t="s">
+        <v>747</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>258</v>
@@ -13589,9 +13472,8 @@
       <c r="A15" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>wbs</v>
+      <c r="B15" s="2" t="s">
+        <v>748</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>259</v>
@@ -13614,9 +13496,8 @@
       <c r="A16" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>custName</v>
+      <c r="B16" s="2" t="s">
+        <v>749</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>260</v>
@@ -13639,9 +13520,8 @@
       <c r="A17" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>custSapCode</v>
+      <c r="B17" s="2" t="s">
+        <v>750</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>677</v>
@@ -13664,9 +13544,8 @@
       <c r="A18" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>projectName</v>
+      <c r="B18" s="2" t="s">
+        <v>751</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>261</v>
@@ -13689,9 +13568,8 @@
       <c r="A19" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>currentYearFollow</v>
+      <c r="B19" s="2" t="s">
+        <v>752</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>262</v>
@@ -13714,9 +13592,8 @@
       <c r="A20" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>isContinue</v>
+      <c r="B20" s="2" t="s">
+        <v>753</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>263</v>
@@ -13739,9 +13616,8 @@
       <c r="A21" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>projectStatus</v>
+      <c r="B21" s="2" t="s">
+        <v>754</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>264</v>
@@ -13764,9 +13640,8 @@
       <c r="A22" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>state</v>
+      <c r="B22" s="2" t="s">
+        <v>755</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>265</v>
@@ -13789,9 +13664,8 @@
       <c r="A23" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>projectType</v>
+      <c r="B23" s="2" t="s">
+        <v>756</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>266</v>
@@ -13816,9 +13690,8 @@
       <c r="A24" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>predictContractAmount</v>
+      <c r="B24" s="2" t="s">
+        <v>757</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>688</v>
@@ -13841,9 +13714,8 @@
       <c r="A25" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>profitCenter</v>
+      <c r="B25" s="2" t="s">
+        <v>758</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>700</v>
@@ -13868,9 +13740,8 @@
       <c r="A26" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="B26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>profitCode</v>
+      <c r="B26" s="2" t="s">
+        <v>759</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>701</v>
@@ -13893,9 +13764,8 @@
       <c r="A27" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>costCenter</v>
+      <c r="B27" s="2" t="s">
+        <v>760</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>702</v>
@@ -13920,9 +13790,8 @@
       <c r="A28" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="B28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>costCode</v>
+      <c r="B28" s="2" t="s">
+        <v>761</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>703</v>
@@ -13945,9 +13814,8 @@
       <c r="A29" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>profitRate</v>
+      <c r="B29" s="2" t="s">
+        <v>762</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>267</v>
@@ -13970,9 +13838,8 @@
       <c r="A30" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>profitMount</v>
+      <c r="B30" s="2" t="s">
+        <v>763</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>268</v>
@@ -13995,9 +13862,8 @@
       <c r="A31" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>workLoad</v>
+      <c r="B31" s="2" t="s">
+        <v>764</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>269</v>
@@ -14020,9 +13886,8 @@
       <c r="A32" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>currendYearIncomming</v>
+      <c r="B32" s="2" t="s">
+        <v>765</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>270</v>
@@ -14045,9 +13910,8 @@
       <c r="A33" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>currentYearGrossProfit</v>
+      <c r="B33" s="2" t="s">
+        <v>766</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>271</v>
@@ -14070,9 +13934,8 @@
       <c r="A34" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>allIncomming</v>
+      <c r="B34" s="2" t="s">
+        <v>767</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>272</v>
@@ -14095,9 +13958,8 @@
       <c r="A35" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>overFlowReportIncomming</v>
+      <c r="B35" s="2" t="s">
+        <v>768</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>273</v>
@@ -14120,9 +13982,8 @@
       <c r="A36" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>signContractDate</v>
+      <c r="B36" s="2" t="s">
+        <v>769</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>274</v>
@@ -14145,9 +14006,8 @@
       <c r="A37" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>isSignedContract</v>
+      <c r="B37" s="2" t="s">
+        <v>770</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>275</v>
@@ -14170,9 +14030,8 @@
       <c r="A38" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ftpContractReviewResult</v>
+      <c r="B38" s="2" t="s">
+        <v>771</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>289</v>
@@ -14195,9 +14054,8 @@
       <c r="A39" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>onlineDate</v>
+      <c r="B39" s="2" t="s">
+        <v>772</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>290</v>
@@ -14220,9 +14078,8 @@
       <c r="A40" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>isOnline</v>
+      <c r="B40" s="2" t="s">
+        <v>773</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>291</v>
@@ -14245,9 +14102,8 @@
       <c r="A41" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>onlineReportReviewResult</v>
+      <c r="B41" s="2" t="s">
+        <v>774</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>292</v>
@@ -14270,9 +14126,8 @@
       <c r="A42" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>acceptDate</v>
+      <c r="B42" s="2" t="s">
+        <v>775</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>293</v>
@@ -14295,9 +14150,8 @@
       <c r="A43" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>isAccept</v>
+      <c r="B43" s="2" t="s">
+        <v>776</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>294</v>
@@ -14320,9 +14174,8 @@
       <c r="A44" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ftpReportReviewResult</v>
+      <c r="B44" s="2" t="s">
+        <v>777</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>718</v>
@@ -14345,9 +14198,8 @@
       <c r="A45" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>onlineDateLater</v>
+      <c r="B45" s="2" t="s">
+        <v>778</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>295</v>
@@ -14370,9 +14222,8 @@
       <c r="A46" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>acceptDateLater</v>
+      <c r="B46" s="2" t="s">
+        <v>779</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>296</v>
@@ -14395,9 +14246,8 @@
       <c r="A47" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>onlineNum</v>
+      <c r="B47" s="2" t="s">
+        <v>780</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>315</v>
@@ -14420,9 +14270,8 @@
       <c r="A48" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>acceptNum</v>
+      <c r="B48" s="2" t="s">
+        <v>781</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>316</v>
@@ -14445,9 +14294,8 @@
       <c r="A49" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>isImportant</v>
+      <c r="B49" s="2" t="s">
+        <v>782</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>317</v>
@@ -14470,9 +14318,8 @@
       <c r="A50" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B50" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>budget</v>
+      <c r="B50" s="2" t="s">
+        <v>783</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>318</v>
@@ -14495,9 +14342,8 @@
       <c r="A51" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B51" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>currentYearMount</v>
+      <c r="B51" s="2" t="s">
+        <v>784</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>319</v>
@@ -14520,9 +14366,8 @@
       <c r="A52" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B52" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>innerAcceptDate</v>
+      <c r="B52" s="2" t="s">
+        <v>785</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>320</v>
@@ -14545,9 +14390,8 @@
       <c r="A53" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B53" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>netSalary</v>
+      <c r="B53" s="2" t="s">
+        <v>786</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>704</v>
@@ -14570,9 +14414,8 @@
       <c r="A54" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="B54" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>yearSalary</v>
+      <c r="B54" s="2" t="s">
+        <v>787</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>705</v>
@@ -14595,9 +14438,8 @@
       <c r="A55" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="B55" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>predictProfitRate</v>
+      <c r="B55" s="2" t="s">
+        <v>788</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>707</v>
@@ -14620,9 +14462,8 @@
       <c r="A56" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B56" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>predictCapitaSalary</v>
+      <c r="B56" s="2" t="s">
+        <v>789</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>708</v>
@@ -14645,9 +14486,8 @@
       <c r="A57" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B57" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>predictCapitaCost</v>
+      <c r="B57" s="2" t="s">
+        <v>790</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>709</v>
@@ -14670,9 +14510,8 @@
       <c r="A58" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B58" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>predictWorkload</v>
+      <c r="B58" s="2" t="s">
+        <v>791</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>710</v>
@@ -14695,9 +14534,8 @@
       <c r="A59" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B59" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>employeeCost</v>
+      <c r="B59" s="2" t="s">
+        <v>792</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>711</v>
@@ -14720,9 +14558,8 @@
       <c r="A60" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="B60" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>businessTripCost</v>
+      <c r="B60" s="2" t="s">
+        <v>793</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>712</v>
@@ -14745,9 +14582,8 @@
       <c r="A61" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B61" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>otherCost</v>
+      <c r="B61" s="2" t="s">
+        <v>794</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>713</v>
@@ -14770,9 +14606,8 @@
       <c r="A62" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B62" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>accruedChargesWorkers</v>
+      <c r="B62" s="2" t="s">
+        <v>795</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>680</v>
@@ -14795,9 +14630,8 @@
       <c r="A63" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B63" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>accruedChargesProducts</v>
+      <c r="B63" s="2" t="s">
+        <v>796</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>681</v>
@@ -14820,9 +14654,8 @@
       <c r="A64" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B64" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>remark1</v>
+      <c r="B64" s="2" t="s">
+        <v>797</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>321</v>
@@ -14845,9 +14678,8 @@
       <c r="A65" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B65" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>remark2</v>
+      <c r="B65" s="2" t="s">
+        <v>798</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>322</v>
@@ -14870,9 +14702,8 @@
       <c r="A66" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B66" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>remark3</v>
+      <c r="B66" s="2" t="s">
+        <v>799</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>323</v>
@@ -14895,9 +14726,8 @@
       <c r="A67" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B67" s="2" t="str">
-        <f>LOWER(LEFT($C67,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C67,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C67,"_", " "))," ",""))-1)</f>
-        <v>isDelete</v>
+      <c r="B67" s="2" t="s">
+        <v>800</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>246</v>
@@ -14924,9 +14754,8 @@
       <c r="A68" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="2" t="str">
-        <f t="shared" ref="B68:B71" si="1">LOWER(LEFT($C68,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C68,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C68,"_", " "))," ",""))-1)</f>
-        <v>createTime</v>
+      <c r="B68" s="2" t="s">
+        <v>801</v>
       </c>
       <c r="C68" t="s">
         <v>393</v>
@@ -14945,9 +14774,8 @@
       <c r="A69" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>creator</v>
+      <c r="B69" s="2" t="s">
+        <v>802</v>
       </c>
       <c r="C69" t="s">
         <v>392</v>
@@ -14966,9 +14794,8 @@
       <c r="A70" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>modifyTime</v>
+      <c r="B70" s="2" t="s">
+        <v>803</v>
       </c>
       <c r="C70" t="s">
         <v>391</v>
@@ -14987,9 +14814,8 @@
       <c r="A71" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>modifier</v>
+      <c r="B71" s="2" t="s">
+        <v>804</v>
       </c>
       <c r="C71" t="s">
         <v>390</v>
@@ -15017,4 +14843,289 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" ref="B4:B11" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
+        <v>relationship</v>
+      </c>
+      <c r="C4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>projectGroupId</v>
+      </c>
+      <c r="C5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>projectId</v>
+      </c>
+      <c r="C6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>721</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>wbs</v>
+      </c>
+      <c r="C7" t="s">
+        <v>721</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>createTime</v>
+      </c>
+      <c r="C8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>creator</v>
+      </c>
+      <c r="C9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyTime</v>
+      </c>
+      <c r="C10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="8">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>modifier</v>
+      </c>
+      <c r="C11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>LOWER(LEFT($C12,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C12,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C12,"_", " "))," ",""))-1)</f>
+        <v>isDelete</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G12"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
+      <formula1>数据类型枚举</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/表字段设计2 (自动保存的).xlsx
+++ b/表字段设计2 (自动保存的).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="19" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="页面表头" sheetId="23" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="投标确认表" sheetId="32" r:id="rId24"/>
     <sheet name="文件表" sheetId="6" r:id="rId25"/>
     <sheet name="评审表" sheetId="11" r:id="rId26"/>
-    <sheet name="评审意见表" sheetId="10" r:id="rId27"/>
+    <sheet name="评审意见表(作废)" sheetId="10" r:id="rId27"/>
     <sheet name="付款点信息表" sheetId="33" r:id="rId28"/>
     <sheet name="Sheet1" sheetId="34" r:id="rId29"/>
     <sheet name="枚举" sheetId="21" r:id="rId30"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="805">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10448,10 +10448,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10551,8 +10551,8 @@
         <v>165</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="17" t="s">
-        <v>166</v>
+      <c r="H4" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -10628,9 +10628,13 @@
       <c r="E7" s="7">
         <v>2</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
@@ -10651,9 +10655,13 @@
       <c r="E8" s="7">
         <v>64</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
@@ -10674,9 +10682,13 @@
       <c r="E9" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
@@ -10697,47 +10709,80 @@
       <c r="E10" s="7">
         <v>2</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>LOWER(LEFT($C11,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C11,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C11,"_", " "))," ",""))-1)</f>
+        <v>commentDetail</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1024</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="17" t="str">
-        <f>LOWER(LEFT($C11,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C11,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C11,"_", " "))," ",""))-1)</f>
+      <c r="B12" s="17" t="str">
+        <f>LOWER(LEFT($C12,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C12,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C12,"_", " "))," ",""))-1)</f>
         <v>isDelete</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="17">
         <v>2</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="7"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11 F4:F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12 F4:F10">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G11"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D11">
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G12"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
       <formula1>数据类型枚举</formula1>
     </dataValidation>
   </dataValidations>
@@ -10751,7 +10796,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13135,7 +13180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>

--- a/表字段设计2 (自动保存的).xlsx
+++ b/表字段设计2 (自动保存的).xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="811">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3209,6 +3209,10 @@
   </si>
   <si>
     <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT_DETAIL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9082,7 +9086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -10559,7 +10563,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10836,7 +10840,7 @@
         <v>commentDetail</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>399</v>
+        <v>810</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>18</v>

--- a/表字段设计2 (自动保存的).xlsx
+++ b/表字段设计2 (自动保存的).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="18" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="页面表头" sheetId="23" r:id="rId1"/>
@@ -35,8 +35,7 @@
     <sheet name="评审表" sheetId="11" r:id="rId26"/>
     <sheet name="评审意见表(作废)" sheetId="10" r:id="rId27"/>
     <sheet name="付款点信息表" sheetId="33" r:id="rId28"/>
-    <sheet name="Sheet1" sheetId="34" r:id="rId29"/>
-    <sheet name="枚举" sheetId="21" r:id="rId30"/>
+    <sheet name="枚举" sheetId="21" r:id="rId29"/>
   </sheets>
   <definedNames>
     <definedName name="数据类型">里程碑!$D$4:$D$13</definedName>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="763">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -950,10 +949,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否签订</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合同FTP检查结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2738,10 +2733,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CUST_SAP_CODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2980,210 +2971,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>projectId</t>
-  </si>
-  <si>
-    <t>buildDeptName</t>
-  </si>
-  <si>
-    <t>buildDeptId</t>
-  </si>
-  <si>
-    <t>buildManagerName</t>
-  </si>
-  <si>
-    <t>buildManagerId</t>
-  </si>
-  <si>
-    <t>sellDeptName</t>
-  </si>
-  <si>
-    <t>sellDeptId</t>
-  </si>
-  <si>
-    <t>sellManagerName</t>
-  </si>
-  <si>
-    <t>sellManagerId</t>
-  </si>
-  <si>
-    <t>createProjectTime</t>
-  </si>
-  <si>
-    <t>finishProjectTime</t>
-  </si>
-  <si>
-    <t>wbs</t>
-  </si>
-  <si>
-    <t>custName</t>
-  </si>
-  <si>
-    <t>custSapCode</t>
-  </si>
-  <si>
-    <t>projectName</t>
-  </si>
-  <si>
-    <t>currentYearFollow</t>
-  </si>
-  <si>
-    <t>isContinue</t>
-  </si>
-  <si>
-    <t>projectStatus</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>projectType</t>
-  </si>
-  <si>
-    <t>predictContractAmount</t>
-  </si>
-  <si>
-    <t>profitCenter</t>
-  </si>
-  <si>
-    <t>profitCode</t>
-  </si>
-  <si>
-    <t>costCenter</t>
-  </si>
-  <si>
-    <t>costCode</t>
-  </si>
-  <si>
-    <t>profitRate</t>
-  </si>
-  <si>
-    <t>profitMount</t>
-  </si>
-  <si>
-    <t>workLoad</t>
-  </si>
-  <si>
-    <t>currendYearIncomming</t>
-  </si>
-  <si>
-    <t>currentYearGrossProfit</t>
-  </si>
-  <si>
-    <t>allIncomming</t>
-  </si>
-  <si>
-    <t>overFlowReportIncomming</t>
-  </si>
-  <si>
-    <t>signContractDate</t>
-  </si>
-  <si>
-    <t>isSignedContract</t>
-  </si>
-  <si>
-    <t>ftpContractReviewResult</t>
-  </si>
-  <si>
-    <t>onlineDate</t>
-  </si>
-  <si>
-    <t>isOnline</t>
-  </si>
-  <si>
-    <t>onlineReportReviewResult</t>
-  </si>
-  <si>
-    <t>acceptDate</t>
-  </si>
-  <si>
-    <t>isAccept</t>
-  </si>
-  <si>
-    <t>ftpReportReviewResult</t>
-  </si>
-  <si>
-    <t>onlineDateLater</t>
-  </si>
-  <si>
-    <t>acceptDateLater</t>
-  </si>
-  <si>
-    <t>onlineNum</t>
-  </si>
-  <si>
-    <t>acceptNum</t>
-  </si>
-  <si>
-    <t>isImportant</t>
-  </si>
-  <si>
-    <t>budget</t>
-  </si>
-  <si>
-    <t>currentYearMount</t>
-  </si>
-  <si>
-    <t>innerAcceptDate</t>
-  </si>
-  <si>
-    <t>netSalary</t>
-  </si>
-  <si>
-    <t>yearSalary</t>
-  </si>
-  <si>
-    <t>predictProfitRate</t>
-  </si>
-  <si>
-    <t>predictCapitaSalary</t>
-  </si>
-  <si>
-    <t>predictCapitaCost</t>
-  </si>
-  <si>
-    <t>predictWorkload</t>
-  </si>
-  <si>
-    <t>employeeCost</t>
-  </si>
-  <si>
-    <t>businessTripCost</t>
-  </si>
-  <si>
-    <t>otherCost</t>
-  </si>
-  <si>
-    <t>accruedChargesWorkers</t>
-  </si>
-  <si>
-    <t>accruedChargesProducts</t>
-  </si>
-  <si>
-    <t>remark1</t>
-  </si>
-  <si>
-    <t>remark2</t>
-  </si>
-  <si>
-    <t>remark3</t>
-  </si>
-  <si>
-    <t>isDelete</t>
-  </si>
-  <si>
-    <t>createTime</t>
-  </si>
-  <si>
-    <t>creator</t>
-  </si>
-  <si>
-    <t>modifyTime</t>
-  </si>
-  <si>
-    <t>modifier</t>
-  </si>
-  <si>
     <t>00-已保存，01-交付部门待确认，02-销售部门待确认，03-技术总监待确认,04-全部确认（只要有一人不同意则直接变成00）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3192,10 +2979,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预付期限-开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PREDICT_PERIOD_START</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3213,6 +2996,98 @@
   </si>
   <si>
     <t>COMMENT_DETAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估期限-开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估期限-结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>币种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURRENCY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAX_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>币种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术总监编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术总监名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售部门经理名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售部门经理编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施部门经理名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施部门经理编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否签订合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM_ALL_COST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3372,74 +3247,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3459,7 +3266,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3735,13 +3542,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" t="s">
         <v>424</v>
-      </c>
-      <c r="B2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3785,7 +3592,7 @@
         <v>tableId</v>
       </c>
       <c r="C4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -3809,7 +3616,7 @@
         <v>tableName</v>
       </c>
       <c r="C5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -3888,10 +3695,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3935,7 +3742,7 @@
         <v>projectGroupId</v>
       </c>
       <c r="C4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -3959,7 +3766,7 @@
         <v>projectGroupName</v>
       </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -3970,14 +3777,14 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>groupManagerCode</v>
       </c>
       <c r="C6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -3988,14 +3795,14 @@
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>groupManagerId</v>
       </c>
       <c r="C7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -4006,14 +3813,14 @@
     </row>
     <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>groupCreatorId</v>
       </c>
       <c r="C8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -4024,14 +3831,14 @@
     </row>
     <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>groupCreatorName</v>
       </c>
       <c r="C9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -4049,7 +3856,7 @@
         <v>groupCreateTime</v>
       </c>
       <c r="C10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -4067,7 +3874,7 @@
         <v>groupStatus</v>
       </c>
       <c r="C11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
@@ -4085,7 +3892,7 @@
         <v>modifier</v>
       </c>
       <c r="C12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -4103,7 +3910,7 @@
         <v>modifyTime</v>
       </c>
       <c r="C13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
@@ -4188,10 +3995,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4235,7 +4042,7 @@
         <v>problemId</v>
       </c>
       <c r="C4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -4259,7 +4066,7 @@
         <v>projectId</v>
       </c>
       <c r="C5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -4273,14 +4080,14 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>projectName</v>
       </c>
       <c r="C6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -4294,17 +4101,17 @@
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" ref="B7:B13" si="1">LOWER(LEFT($C7,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C7,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C7,"_", " "))," ",""))-1)</f>
         <v>wbs</v>
       </c>
       <c r="C7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -4322,7 +4129,7 @@
         <v>problemType</v>
       </c>
       <c r="C8" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
@@ -4343,7 +4150,7 @@
         <v>problemDetail</v>
       </c>
       <c r="C9" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -4364,10 +4171,10 @@
         <v>creatorId</v>
       </c>
       <c r="C10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E10" s="8">
         <v>16</v>
@@ -4385,7 +4192,7 @@
         <v>creatorName</v>
       </c>
       <c r="C11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -4406,7 +4213,7 @@
         <v>createTime</v>
       </c>
       <c r="C12" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -4427,7 +4234,7 @@
         <v>problemStatus</v>
       </c>
       <c r="C13" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
@@ -5002,7 +4809,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
@@ -5024,7 +4831,7 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
@@ -5230,7 +5037,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -5244,7 +5051,7 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -5258,7 +5065,7 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
@@ -5419,7 +5226,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
@@ -5500,7 +5307,7 @@
         <v>custCnName</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
@@ -5528,7 +5335,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E6" s="3">
         <v>128</v>
@@ -5543,14 +5350,14 @@
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>country</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>18</v>
@@ -5566,14 +5373,14 @@
     </row>
     <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>sapCode</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>18</v>
@@ -5589,14 +5396,14 @@
     </row>
     <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>enName</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>18</v>
@@ -5612,14 +5419,14 @@
     </row>
     <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>custPatTaxesCode</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>18</v>
@@ -5635,14 +5442,14 @@
     </row>
     <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>custType</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>18</v>
@@ -5658,14 +5465,14 @@
     </row>
     <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>address</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>31</v>
@@ -5681,14 +5488,14 @@
     </row>
     <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>cashManagementGroup</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>18</v>
@@ -5704,14 +5511,14 @@
     </row>
     <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>payCondition</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>18</v>
@@ -5727,14 +5534,14 @@
     </row>
     <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>tradeCode</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>18</v>
@@ -5750,14 +5557,14 @@
     </row>
     <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>regionalMarket</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>18</v>
@@ -5773,14 +5580,14 @@
     </row>
     <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mainBusiness</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>18</v>
@@ -5796,14 +5603,14 @@
     </row>
     <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>area</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>18</v>
@@ -5819,14 +5626,14 @@
     </row>
     <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>custTrade</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>18</v>
@@ -5842,14 +5649,14 @@
     </row>
     <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>payCycle</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>18</v>
@@ -5865,14 +5672,14 @@
     </row>
     <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>isUseful</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>18</v>
@@ -5888,14 +5695,14 @@
     </row>
     <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>groupCompany</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>18</v>
@@ -5911,14 +5718,14 @@
     </row>
     <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>bgVisiable</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>18</v>
@@ -5934,14 +5741,14 @@
     </row>
     <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>companyCode</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>18</v>
@@ -5957,14 +5764,14 @@
     </row>
     <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>companyFuncCode</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>18</v>
@@ -5980,7 +5787,7 @@
     </row>
     <row r="26" spans="1:10" s="14" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B26" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6008,7 +5815,7 @@
         <v>addUserId</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -6033,7 +5840,7 @@
         <v>addTime</v>
       </c>
       <c r="C28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>18</v>
@@ -6158,7 +5965,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6187,13 +5994,13 @@
     </row>
     <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -6237,14 +6044,14 @@
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" ref="B4:B19" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>productId</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -6257,21 +6064,21 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>productCode</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
@@ -6284,21 +6091,21 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>productName</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>31</v>
@@ -6311,48 +6118,48 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>productSuggestPrice</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>developmentDeptName</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>31</v>
@@ -6370,14 +6177,14 @@
     </row>
     <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>developmentDeptId</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>27</v>
@@ -6395,14 +6202,14 @@
     </row>
     <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>developmentManagerName</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
@@ -6420,14 +6227,14 @@
     </row>
     <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>developmentManagerId</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -6445,14 +6252,14 @@
     </row>
     <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>startSaleDate</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>18</v>
@@ -6470,14 +6277,14 @@
     </row>
     <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>productType</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="B13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>productType</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>523</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>53</v>
@@ -6527,7 +6334,7 @@
         <v>creatorId</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>27</v>
@@ -6702,13 +6509,13 @@
     </row>
     <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -6748,14 +6555,14 @@
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" ref="B4:B19" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>productRelationId</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -6774,14 +6581,14 @@
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>productName</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
@@ -6800,14 +6607,14 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>productId</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -6826,14 +6633,14 @@
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>productGroupId</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="B7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>productGroupId</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>516</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -6877,7 +6684,7 @@
         <v>buildDeptName</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>18</v>
@@ -6899,7 +6706,7 @@
         <v>custName</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>18</v>
@@ -6923,7 +6730,7 @@
         <v>custId</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -6940,17 +6747,17 @@
     </row>
     <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>custSapCode</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="B12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>custSapCode</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="E12" s="3">
         <v>32</v>
@@ -6971,7 +6778,7 @@
         <v>projectName</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>18</v>
@@ -7020,7 +6827,7 @@
         <v>creatorId</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>27</v>
@@ -7199,10 +7006,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -7246,14 +7053,14 @@
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B4" s="4" t="str">
         <f>LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>custGroupRelationId</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>27</v>
@@ -7273,14 +7080,14 @@
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B5" s="4" t="str">
         <f>LOWER(LEFT($C5,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C5,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C5,"_", " "))," ",""))-1)</f>
         <v>custGroupId</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
@@ -7334,7 +7141,7 @@
         <v>custCnName</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>31</v>
@@ -7352,14 +7159,14 @@
     </row>
     <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B8" s="4" t="str">
         <f>LOWER(LEFT($C8,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C8,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C8,"_", " "))," ",""))-1)</f>
         <v>sapCode</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>18</v>
@@ -7419,13 +7226,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" t="s">
         <v>424</v>
-      </c>
-      <c r="B2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -7462,14 +7269,14 @@
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B4" s="2" t="str">
         <f t="shared" ref="B4:B12" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>headId</v>
       </c>
       <c r="C4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -7486,14 +7293,14 @@
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>tableId</v>
       </c>
       <c r="C5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -7510,14 +7317,14 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>title</v>
       </c>
       <c r="C6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -7534,14 +7341,14 @@
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>field</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -7559,14 +7366,14 @@
     </row>
     <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>width</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>176</v>
@@ -7583,14 +7390,14 @@
     </row>
     <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>sort</v>
       </c>
       <c r="C9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>176</v>
@@ -7607,14 +7414,14 @@
     </row>
     <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>unresize</v>
       </c>
       <c r="C10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>176</v>
@@ -7628,14 +7435,14 @@
     </row>
     <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>other</v>
+      </c>
+      <c r="C11" t="s">
         <v>439</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>other</v>
-      </c>
-      <c r="C11" t="s">
-        <v>440</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -7649,7 +7456,7 @@
     </row>
     <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7724,7 +7531,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
@@ -7771,17 +7578,17 @@
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" ref="B4:B11" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>custGroupId</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E4" s="3">
         <v>16</v>
@@ -7798,14 +7605,14 @@
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>custGroupName</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
@@ -7859,7 +7666,7 @@
         <v>creatorId</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="11"/>
@@ -8030,13 +7837,13 @@
     </row>
     <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -8080,14 +7887,14 @@
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" ref="B4:B12" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>companyCode</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>31</v>
@@ -8107,14 +7914,14 @@
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>companyName</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
@@ -8134,14 +7941,14 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>companyAddress</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>31</v>
@@ -8161,14 +7968,14 @@
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>remark</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>31</v>
@@ -8186,14 +7993,14 @@
     </row>
     <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>creatorId</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>27</v>
@@ -8218,7 +8025,7 @@
         <v>createTime</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -8272,7 +8079,7 @@
         <v>modifyTime</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -8299,7 +8106,7 @@
         <v>isDelete</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>53</v>
@@ -8374,13 +8181,13 @@
     </row>
     <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -8424,14 +8231,14 @@
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" ref="B4:B13" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>groupId</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -8444,21 +8251,21 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>groupName</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
@@ -8471,21 +8278,21 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ownerOrgId</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -8498,21 +8305,21 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ownerOrgName</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>31</v>
@@ -8525,21 +8332,21 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>remark</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>remark</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>31</v>
@@ -8559,14 +8366,14 @@
     </row>
     <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>creatorId</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>27</v>
@@ -8593,7 +8400,7 @@
         <v>createTime</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -8620,7 +8427,7 @@
         <v>modifier</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -8674,7 +8481,7 @@
         <v>isDelete</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>53</v>
@@ -8747,13 +8554,13 @@
     </row>
     <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>474</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -8797,14 +8604,14 @@
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" ref="B4:B13" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>menberUsrId</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -8817,21 +8624,21 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>groupCode</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>18</v>
@@ -8844,21 +8651,21 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>menberUsrName</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>menberUsrName</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>583</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
@@ -8871,24 +8678,24 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>memberType</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>memberType</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>478</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E7" s="11">
         <v>2</v>
@@ -8898,21 +8705,21 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>remark</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>31</v>
@@ -8925,21 +8732,21 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>creatorId</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>27</v>
@@ -8952,7 +8759,7 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
@@ -8991,7 +8798,7 @@
         <v>modifier</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -9043,7 +8850,7 @@
         <v>isDelete</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>53</v>
@@ -9084,10 +8891,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9120,13 +8927,13 @@
     </row>
     <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -9170,14 +8977,14 @@
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f t="shared" ref="B4:B36" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
+        <f t="shared" ref="B4:B38" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>bidId</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -9190,21 +8997,21 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>bidName</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>18</v>
@@ -9217,128 +9024,128 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>firstBidAmount</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>predictAmount</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>predictCost</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>164</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>predictProfitRate</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>805</v>
+        <v>740</v>
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>predictPeriodStart</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>806</v>
+        <v>735</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
@@ -9351,24 +9158,24 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="3" t="s">
-        <v>804</v>
+        <v>734</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>807</v>
+        <v>741</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>predictPeriodEnd</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>808</v>
+        <v>737</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>809</v>
+        <v>738</v>
       </c>
       <c r="E11" s="11">
         <v>32</v>
@@ -9378,267 +9185,267 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="3" t="s">
-        <v>807</v>
+        <v>736</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>638</v>
+        <v>742</v>
       </c>
       <c r="B12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>custId</v>
+        <v>currency</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>643</v>
+        <v>744</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>649</v>
+        <v>746</v>
       </c>
       <c r="E12" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="3" t="s">
-        <v>638</v>
+        <v>749</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>639</v>
+        <v>743</v>
       </c>
       <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>custCnName</v>
+        <v>taxRate</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>644</v>
+        <v>745</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E13" s="11">
-        <v>256</v>
+        <v>747</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>748</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="3" t="s">
-        <v>639</v>
+        <v>750</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>custSapCode</v>
+        <v>custId</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="E14" s="11">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>constructionDeptId</v>
+        <v>custCnName</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>671</v>
+        <v>643</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="E15" s="11">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>constructionDeptName</v>
+        <v>custSapCode</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="E16" s="11">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>534</v>
+        <v>640</v>
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>sellDeptId</v>
+        <v>constructionDeptId</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>541</v>
+        <v>670</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>544</v>
+        <v>647</v>
+      </c>
+      <c r="E17" s="11">
+        <v>16</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="3" t="s">
-        <v>205</v>
+        <v>640</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>535</v>
+        <v>641</v>
       </c>
       <c r="B18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>sellDeptName</v>
+        <v>constructionDeptName</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>537</v>
+        <v>645</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>18</v>
+        <v>646</v>
       </c>
       <c r="E18" s="11">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="3" t="s">
-        <v>204</v>
+        <v>641</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>custManagerId</v>
+        <v>sellDeptId</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E19" s="11">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>543</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="3" t="s">
-        <v>532</v>
+        <v>205</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>custManagerName</v>
+        <v>sellDeptName</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="11">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="3" t="s">
-        <v>533</v>
+        <v>204</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>658</v>
+        <v>531</v>
       </c>
       <c r="B21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>technicalDirectorId</v>
+        <v>custManagerId</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>659</v>
+        <v>537</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>661</v>
+        <v>287</v>
       </c>
       <c r="E21" s="11">
         <v>10</v>
@@ -9647,95 +9454,103 @@
         <v>164</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>657</v>
+        <v>532</v>
       </c>
       <c r="B22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>technicalDirectorName</v>
+        <v>custManagerName</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>660</v>
+        <v>538</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>662</v>
+        <v>18</v>
       </c>
       <c r="E22" s="11">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>532</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>sellDeptManagerName</v>
+        <v>technicalDirectorId</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>31</v>
+        <v>660</v>
       </c>
       <c r="E23" s="11">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>751</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>sellDeptManagerId</v>
+        <v>technicalDirectorName</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>195</v>
+        <v>661</v>
       </c>
       <c r="E24" s="11">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>752</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>constructionDeptManagerName</v>
+        <v>sellDeptManagerName</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>31</v>
@@ -9747,20 +9562,22 @@
         <v>164</v>
       </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>753</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>constructionDeptManagerId</v>
+        <v>sellDeptManagerId</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>195</v>
@@ -9772,79 +9589,79 @@
         <v>164</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>754</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>status</v>
+        <v>constructionDeptManagerName</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="E27" s="11">
-        <v>2</v>
+        <v>256</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="5" t="s">
-        <v>803</v>
+      <c r="H27" s="3" t="s">
+        <v>755</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>531</v>
+        <v>665</v>
       </c>
       <c r="B28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>isWorkAreaExplicit</v>
+        <v>constructionDeptManagerId</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>540</v>
+        <v>671</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="E28" s="11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>547</v>
-      </c>
+      <c r="G28" s="5"/>
       <c r="H28" s="3" t="s">
-        <v>531</v>
+        <v>756</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>569</v>
+        <v>666</v>
       </c>
       <c r="B29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>isChecked</v>
+        <v>status</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>570</v>
+        <v>669</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E29" s="11">
         <v>2</v>
@@ -9852,133 +9669,135 @@
       <c r="F29" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>569</v>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B30" s="4" t="str">
-        <f>LOWER(LEFT($C30,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C30,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C30,"_", " "))," ",""))-1)</f>
-        <v>remark</v>
+        <f t="shared" si="0"/>
+        <v>isWorkAreaExplicit</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>162</v>
+        <v>539</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c r="E30" s="11">
-        <v>256</v>
+        <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="H30" s="3" t="s">
-        <v>152</v>
+        <v>530</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>653</v>
+        <v>568</v>
       </c>
       <c r="B31" s="4" t="str">
-        <f>LOWER(LEFT($C31,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C31,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C31,"_", " "))," ",""))-1)</f>
-        <v>paymentPoint</v>
+        <f t="shared" si="0"/>
+        <v>isChecked</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>654</v>
+        <v>569</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>655</v>
+        <v>246</v>
       </c>
       <c r="E31" s="11">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>570</v>
+      </c>
       <c r="H31" s="3" t="s">
-        <v>656</v>
+        <v>568</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>468</v>
+        <v>535</v>
       </c>
       <c r="B32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>creatorId</v>
+        <f>LOWER(LEFT($C32,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C32,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C32,"_", " "))," ",""))-1)</f>
+        <v>remark</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>467</v>
+        <v>162</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E32" s="11">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>15</v>
+        <v>652</v>
       </c>
       <c r="B33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>createTime</v>
+        <f>LOWER(LEFT($C33,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C33,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C33,"_", " "))," ",""))-1)</f>
+        <v>paymentPoint</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>18</v>
+        <v>653</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>654</v>
       </c>
       <c r="E33" s="11">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="3" t="s">
-        <v>15</v>
+        <v>655</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>21</v>
+        <v>467</v>
       </c>
       <c r="B34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>modifier</v>
+        <v>creatorId</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>27</v>
@@ -9991,21 +9810,21 @@
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="3" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>modifyTime</v>
+        <v>createTime</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>18</v>
@@ -10018,54 +9837,105 @@
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>isDelete</v>
+      <c r="A36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>modifier</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E36" s="11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>91</v>
+      <c r="G36" s="5"/>
+      <c r="H36" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="5"/>
     </row>
+    <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyTime</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="11">
+        <v>32</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>isDelete</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="11">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G36"/>
+  <dataValidations count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G38"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
       <formula1>" =枚举!$A1:$A7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F38">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D9 D12:D36">
-      <formula1>数据类型枚举</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D38">
       <formula1>数据类型枚举</formula1>
     </dataValidation>
   </dataValidations>
@@ -10079,7 +9949,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A7:H8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10116,7 +9986,7 @@
         <v>151</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -10161,41 +10031,41 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" ref="B4:B12" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>fileId</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="5" t="s">
         <v>597</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>598</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fileUploadName</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>18</v>
@@ -10208,21 +10078,21 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>filePath</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
@@ -10235,21 +10105,21 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fileSaveName</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>602</v>
-      </c>
-      <c r="B7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>fileSaveName</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>603</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
@@ -10262,24 +10132,24 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>uploadType</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E8" s="20">
         <v>2</v>
@@ -10289,21 +10159,21 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fileSize</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>27</v>
@@ -10316,24 +10186,24 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>foreignId</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E10" s="20">
         <v>10</v>
@@ -10343,24 +10213,24 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>foreignCode</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E11" s="20">
         <v>32</v>
@@ -10370,21 +10240,21 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>remark</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>18</v>
@@ -10404,77 +10274,77 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B13" s="5" t="str">
         <f t="shared" ref="B13:B17" si="1">LOWER(LEFT($C13,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C13,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C13,"_", " "))," ",""))-1)</f>
         <v>creatorId</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E13" s="20">
         <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>createTime</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>611</v>
       </c>
       <c r="E14" s="20">
         <v>32</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>modifier</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>613</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>614</v>
       </c>
       <c r="E15" s="20">
         <v>10</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
@@ -10485,23 +10355,23 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>modifyTime</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>617</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>618</v>
       </c>
       <c r="E16" s="20">
         <v>32</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
@@ -10512,26 +10382,26 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>isDelete</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>620</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>621</v>
       </c>
       <c r="E17" s="20">
         <v>2</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>91</v>
@@ -10563,7 +10433,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10597,7 +10467,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>57</v>
@@ -10671,14 +10541,14 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>foreignId</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>27</v>
@@ -10691,21 +10561,21 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>foreignCode</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>31</v>
@@ -10718,7 +10588,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="7"/>
@@ -10732,7 +10602,7 @@
         <v>reviewType</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>53</v>
@@ -10759,7 +10629,7 @@
         <v>reviewUserName</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>18</v>
@@ -10786,7 +10656,7 @@
         <v>reviewUserCode</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>19</v>
@@ -10813,7 +10683,7 @@
         <v>result</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>53</v>
@@ -10840,7 +10710,7 @@
         <v>commentDetail</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>810</v>
+        <v>739</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>18</v>
@@ -10944,7 +10814,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -11047,7 +10917,7 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -11067,7 +10937,7 @@
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>96</v>
@@ -11076,14 +10946,14 @@
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewCode</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>632</v>
-      </c>
-      <c r="B7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>reviewCode</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>633</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>18</v>
@@ -11096,7 +10966,7 @@
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>45</v>
@@ -11112,7 +10982,7 @@
         <v>result</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>53</v>
@@ -11125,7 +10995,7 @@
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>96</v>
@@ -11141,7 +11011,7 @@
         <v>wrotenUserId</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>19</v>
@@ -11170,7 +11040,7 @@
         <v>wrotenUserName</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>18</v>
@@ -11199,7 +11069,7 @@
         <v>commentDetail</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>18</v>
@@ -11228,10 +11098,10 @@
         <v>writeTime</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E12" s="21">
         <v>32</v>
@@ -11257,7 +11127,7 @@
         <v>isDelete</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>53</v>
@@ -11347,13 +11217,13 @@
     </row>
     <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -11397,14 +11267,14 @@
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" ref="B4:B17" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>paymentId</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -11417,21 +11287,21 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>paymentForeignId</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="B5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>paymentForeignId</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>563</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -11444,21 +11314,21 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>paymentForeignCode</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>paymentForeignCode</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>565</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
@@ -11471,21 +11341,21 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>paymentType</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>53</v>
@@ -11497,27 +11367,27 @@
         <v>164</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>paymentDate</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E8" s="11">
         <v>32</v>
@@ -11527,94 +11397,94 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>paymentTerm</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>164</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>paymentRate</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>paymentAmount</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>LOWER(LEFT($C12,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C12,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C12,"_", " "))," ",""))-1)</f>
@@ -11634,21 +11504,21 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>creatorId</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>27</v>
@@ -11661,7 +11531,7 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
@@ -11702,7 +11572,7 @@
         <v>modifier</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>27</v>
@@ -11756,7 +11626,7 @@
         <v>isDelete</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>53</v>
@@ -11796,21 +11666,57 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="M20"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="20" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M20" t="s">
-        <v>674</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11847,10 +11753,10 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2" t="s">
         <v>403</v>
-      </c>
-      <c r="C2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -11894,7 +11800,7 @@
         <v>excelFileId</v>
       </c>
       <c r="C4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -11918,7 +11824,7 @@
         <v>excelFileCnName</v>
       </c>
       <c r="C5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -11942,7 +11848,7 @@
         <v>excelFileEnName</v>
       </c>
       <c r="C6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -11966,7 +11872,7 @@
         <v>excelDescripte</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -12019,62 +11925,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12109,10 +11959,10 @@
         <v>120</v>
       </c>
       <c r="B2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" t="s">
         <v>409</v>
-      </c>
-      <c r="C2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -12156,7 +12006,7 @@
         <v>excelSheetId</v>
       </c>
       <c r="C4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -12180,7 +12030,7 @@
         <v>excelFileId</v>
       </c>
       <c r="C5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -12204,7 +12054,7 @@
         <v>excelSheetCnName</v>
       </c>
       <c r="C6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -12228,7 +12078,7 @@
         <v>excelSheetEnName</v>
       </c>
       <c r="C7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -12385,7 +12235,7 @@
         <v>excelCellId</v>
       </c>
       <c r="C4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -12409,7 +12259,7 @@
         <v>excelSheetId</v>
       </c>
       <c r="C5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -12433,7 +12283,7 @@
         <v>excelCellCnName</v>
       </c>
       <c r="C6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -12457,7 +12307,7 @@
         <v>excelCellEnName</v>
       </c>
       <c r="C7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -12481,7 +12331,7 @@
         <v>excelCellColNum</v>
       </c>
       <c r="C8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>176</v>
@@ -12505,7 +12355,7 @@
         <v>excelCellRowNum</v>
       </c>
       <c r="C9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>176</v>
@@ -12529,7 +12379,7 @@
         <v>excelCellType</v>
       </c>
       <c r="C10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
@@ -12549,14 +12399,14 @@
     </row>
     <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>excelDataType</v>
       </c>
       <c r="C11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -12569,19 +12419,19 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>excelDefaultValue</v>
       </c>
       <c r="C12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -12590,11 +12440,11 @@
         <v>255</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
@@ -12671,7 +12521,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C2" t="s">
         <v>99</v>
@@ -12718,7 +12568,7 @@
         <v>receiveId</v>
       </c>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -12756,17 +12606,17 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>wbs</v>
       </c>
       <c r="C6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E6">
         <v>32</v>
@@ -12781,7 +12631,7 @@
         <v>projectName</v>
       </c>
       <c r="C7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -12799,13 +12649,13 @@
         <v>receiveMount</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
@@ -12817,7 +12667,7 @@
         <v>receiveDate</v>
       </c>
       <c r="C9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -12835,7 +12685,7 @@
         <v>creator</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -12853,7 +12703,7 @@
         <v>createTime</v>
       </c>
       <c r="C11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -12871,7 +12721,7 @@
         <v>receivables</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>53</v>
@@ -12963,7 +12813,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>99</v>
@@ -13020,7 +12870,7 @@
         <v>milestoneId</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -13038,7 +12888,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
@@ -13050,7 +12900,7 @@
         <v>projectId</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -13075,7 +12925,7 @@
         <v>projectName</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -13093,17 +12943,17 @@
     </row>
     <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>wbs</v>
       </c>
       <c r="C7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -13125,7 +12975,7 @@
         <v>mileDate</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -13150,7 +13000,7 @@
         <v>mileDescript</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -13175,10 +13025,10 @@
         <v>finishStatus</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E10" s="9">
         <v>2</v>
@@ -13200,10 +13050,10 @@
         <v>creatorId</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E11" s="9">
         <v>16</v>
@@ -13225,7 +13075,7 @@
         <v>createTime</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -13290,10 +13140,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13329,7 +13179,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>59</v>
@@ -13378,8 +13228,9 @@
       <c r="A4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>735</v>
+      <c r="B4" s="2" t="str">
+        <f t="shared" ref="B4:B67" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
+        <v>projectId</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>194</v>
@@ -13404,11 +13255,12 @@
       <c r="A5" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>736</v>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>buildDeptName</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -13428,11 +13280,12 @@
       <c r="A6" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>737</v>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>buildDeptId</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>195</v>
@@ -13452,11 +13305,12 @@
       <c r="A7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>738</v>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>buildManagerName</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -13476,11 +13330,12 @@
       <c r="A8" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>739</v>
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>buildManagerId</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>195</v>
@@ -13500,11 +13355,12 @@
       <c r="A9" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>740</v>
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>sellDeptName</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -13521,11 +13377,12 @@
       <c r="A10" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>741</v>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>sellDeptId</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>195</v>
@@ -13542,11 +13399,12 @@
       <c r="A11" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>742</v>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>sellManagerName</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -13563,11 +13421,12 @@
       <c r="A12" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>743</v>
+      <c r="B12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>sellManagerId</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>195</v>
@@ -13584,11 +13443,12 @@
       <c r="A13" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>744</v>
+      <c r="B13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>createProjectTime</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
@@ -13605,11 +13465,12 @@
       <c r="A14" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>745</v>
+      <c r="B14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>finishProjectTime</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>18</v>
@@ -13629,11 +13490,12 @@
       <c r="A15" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>746</v>
+      <c r="B15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>wbs</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>18</v>
@@ -13653,11 +13515,12 @@
       <c r="A16" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>747</v>
+      <c r="B16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>custName</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>18</v>
@@ -13675,13 +13538,14 @@
     </row>
     <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>748</v>
+        <v>683</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>custSapCode</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>195</v>
@@ -13701,11 +13565,12 @@
       <c r="A18" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>749</v>
+      <c r="B18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>projectName</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -13725,11 +13590,12 @@
       <c r="A19" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>750</v>
+      <c r="B19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>currentYearFollow</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>53</v>
@@ -13749,11 +13615,12 @@
       <c r="A20" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>751</v>
+      <c r="B20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>isContinue</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>53</v>
@@ -13773,11 +13640,12 @@
       <c r="A21" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>752</v>
+      <c r="B21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>projectStatus</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>53</v>
@@ -13797,11 +13665,12 @@
       <c r="A22" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>753</v>
+      <c r="B22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>state</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>53</v>
@@ -13821,11 +13690,12 @@
       <c r="A23" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>754</v>
+      <c r="B23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>projectType</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>53</v>
@@ -13837,7 +13707,7 @@
         <v>202</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -13845,19 +13715,20 @@
     </row>
     <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>755</v>
+        <v>685</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>predictContractAmount</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>202</v>
@@ -13869,13 +13740,14 @@
     </row>
     <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>756</v>
+        <v>680</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>profitCenter</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>53</v>
@@ -13887,7 +13759,7 @@
         <v>96</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -13895,16 +13767,17 @@
     </row>
     <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>profitCode</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>699</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E26" s="2">
         <v>32</v>
@@ -13919,13 +13792,14 @@
     </row>
     <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>758</v>
+        <v>679</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>costCenter</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>53</v>
@@ -13937,7 +13811,7 @@
         <v>96</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -13945,16 +13819,17 @@
     </row>
     <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>759</v>
+        <v>694</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>costCode</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E28" s="2">
         <v>32</v>
@@ -13971,17 +13846,18 @@
       <c r="A29" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>760</v>
+      <c r="B29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>profitRate</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>202</v>
@@ -13995,17 +13871,18 @@
       <c r="A30" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>761</v>
+      <c r="B30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>profitMount</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>202</v>
@@ -14019,17 +13896,18 @@
       <c r="A31" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>762</v>
+      <c r="B31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>workLoad</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>202</v>
@@ -14043,17 +13921,18 @@
       <c r="A32" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>763</v>
+      <c r="B32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>currendYearIncomming</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>202</v>
@@ -14067,17 +13946,18 @@
       <c r="A33" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>764</v>
+      <c r="B33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>currentYearGrossProfit</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>202</v>
@@ -14091,17 +13971,18 @@
       <c r="A34" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>765</v>
+      <c r="B34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>allIncomming</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>202</v>
@@ -14115,17 +13996,18 @@
       <c r="A35" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>766</v>
+      <c r="B35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>overFlowReportIncomming</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>202</v>
@@ -14139,11 +14021,12 @@
       <c r="A36" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>767</v>
+      <c r="B36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>signContractDate</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>18</v>
@@ -14161,13 +14044,14 @@
     </row>
     <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>768</v>
+        <v>758</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>isSignedContract</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>53</v>
@@ -14185,13 +14069,14 @@
     </row>
     <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>769</v>
+        <v>226</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ftpContractReviewResult</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>53</v>
@@ -14209,13 +14094,14 @@
     </row>
     <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>770</v>
+        <v>227</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>onlineDate</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>18</v>
@@ -14233,13 +14119,14 @@
     </row>
     <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>771</v>
+        <v>228</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>isOnline</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>53</v>
@@ -14257,13 +14144,14 @@
     </row>
     <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>772</v>
+        <v>229</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>onlineReportReviewResult</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>53</v>
@@ -14281,13 +14169,14 @@
     </row>
     <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>773</v>
+        <v>230</v>
+      </c>
+      <c r="B42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>acceptDate</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>18</v>
@@ -14305,13 +14194,14 @@
     </row>
     <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>774</v>
+        <v>231</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>isAccept</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>53</v>
@@ -14329,13 +14219,14 @@
     </row>
     <row r="44" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>775</v>
+        <v>232</v>
+      </c>
+      <c r="B44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ftpReportReviewResult</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>53</v>
@@ -14353,13 +14244,14 @@
     </row>
     <row r="45" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>776</v>
+        <v>233</v>
+      </c>
+      <c r="B45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>onlineDateLater</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>18</v>
@@ -14377,13 +14269,14 @@
     </row>
     <row r="46" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>777</v>
+        <v>234</v>
+      </c>
+      <c r="B46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>acceptDateLater</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>18</v>
@@ -14401,13 +14294,14 @@
     </row>
     <row r="47" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>778</v>
+        <v>235</v>
+      </c>
+      <c r="B47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>onlineNum</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>18</v>
@@ -14425,13 +14319,14 @@
     </row>
     <row r="48" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>779</v>
+        <v>236</v>
+      </c>
+      <c r="B48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>acceptNum</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>18</v>
@@ -14449,13 +14344,14 @@
     </row>
     <row r="49" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>780</v>
+        <v>237</v>
+      </c>
+      <c r="B49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>isImportant</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>53</v>
@@ -14473,19 +14369,20 @@
     </row>
     <row r="50" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>781</v>
+        <v>238</v>
+      </c>
+      <c r="B50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>budget</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>202</v>
@@ -14497,19 +14394,20 @@
     </row>
     <row r="51" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>782</v>
+        <v>239</v>
+      </c>
+      <c r="B51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>currentYearMount</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>202</v>
@@ -14521,13 +14419,14 @@
     </row>
     <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>783</v>
+        <v>240</v>
+      </c>
+      <c r="B52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>innerAcceptDate</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>18</v>
@@ -14545,19 +14444,20 @@
     </row>
     <row r="53" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>784</v>
+        <v>693</v>
+      </c>
+      <c r="B53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>netSalary</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>96</v>
@@ -14569,19 +14469,20 @@
     </row>
     <row r="54" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>785</v>
+        <v>686</v>
+      </c>
+      <c r="B54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>yearSalary</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>96</v>
@@ -14593,19 +14494,20 @@
     </row>
     <row r="55" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>786</v>
+        <v>702</v>
+      </c>
+      <c r="B55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>predictProfitRate</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>96</v>
@@ -14617,19 +14519,20 @@
     </row>
     <row r="56" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>787</v>
+        <v>687</v>
+      </c>
+      <c r="B56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>predictCapitaSalary</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>96</v>
@@ -14641,19 +14544,20 @@
     </row>
     <row r="57" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>788</v>
+        <v>688</v>
+      </c>
+      <c r="B57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>predictCapitaCost</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>96</v>
@@ -14665,19 +14569,20 @@
     </row>
     <row r="58" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>789</v>
+        <v>689</v>
+      </c>
+      <c r="B58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>predictWorkload</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>96</v>
@@ -14689,19 +14594,20 @@
     </row>
     <row r="59" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>790</v>
+        <v>690</v>
+      </c>
+      <c r="B59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>employeeCost</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>96</v>
@@ -14713,19 +14619,20 @@
     </row>
     <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>791</v>
+        <v>691</v>
+      </c>
+      <c r="B60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>businessTripCost</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>96</v>
@@ -14737,19 +14644,20 @@
     </row>
     <row r="61" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>792</v>
+        <v>692</v>
+      </c>
+      <c r="B61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>otherCost</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>96</v>
@@ -14761,19 +14669,20 @@
     </row>
     <row r="62" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>793</v>
+        <v>757</v>
+      </c>
+      <c r="B62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>sumAllCost</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>678</v>
+        <v>759</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>96</v>
@@ -14785,19 +14694,20 @@
     </row>
     <row r="63" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>794</v>
+        <v>674</v>
+      </c>
+      <c r="B63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>accruedChargesWorkers</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>96</v>
@@ -14809,22 +14719,23 @@
     </row>
     <row r="64" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>795</v>
+        <v>675</v>
+      </c>
+      <c r="B64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>accruedChargesProducts</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="2">
-        <v>128</v>
+        <v>195</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -14833,13 +14744,14 @@
     </row>
     <row r="65" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>796</v>
+        <v>241</v>
+      </c>
+      <c r="B65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>remark1</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>18</v>
@@ -14857,13 +14769,14 @@
     </row>
     <row r="66" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>797</v>
+        <v>242</v>
+      </c>
+      <c r="B66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>remark2</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>18</v>
@@ -14881,67 +14794,74 @@
     </row>
     <row r="67" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>798</v>
+        <v>243</v>
+      </c>
+      <c r="B67" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>remark3</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="E67" s="2">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>245</v>
-      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="C68" t="s">
-        <v>393</v>
+      <c r="A68" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B68" s="2" t="str">
+        <f t="shared" ref="B68:B73" si="1">LOWER(LEFT($C68,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C68,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C68,"_", " "))," ",""))-1)</f>
+        <v>isDelete</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="8">
-        <v>32</v>
+        <v>246</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>800</v>
+        <v>74</v>
+      </c>
+      <c r="B69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>createTime</v>
       </c>
       <c r="C69" t="s">
         <v>392</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E69" s="8">
+        <v>32</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>96</v>
@@ -14949,19 +14869,20 @@
     </row>
     <row r="70" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>14</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>801</v>
+        <v>75</v>
+      </c>
+      <c r="B70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>creator</v>
       </c>
       <c r="C70" t="s">
         <v>391</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="8">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>96</v>
@@ -14969,22 +14890,65 @@
     </row>
     <row r="71" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>802</v>
+        <v>14</v>
+      </c>
+      <c r="B71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>modifyTime</v>
       </c>
       <c r="C71" t="s">
         <v>390</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E71" s="8">
+        <v>32</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>modifier</v>
+      </c>
+      <c r="C72" t="s">
+        <v>389</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>760</v>
+      </c>
+      <c r="B73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>projectCode</v>
+      </c>
+      <c r="C73" t="s">
+        <v>761</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="E73" s="8">
+        <v>32</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -14993,12 +14957,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G67"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D71">
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G68"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D72">
       <formula1>数据类型枚举</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15007,7 +14972,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15034,7 +14999,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C2" t="s">
         <v>69</v>
@@ -15081,7 +15046,7 @@
         <v>relationship</v>
       </c>
       <c r="C4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -15105,7 +15070,7 @@
         <v>projectGroupId</v>
       </c>
       <c r="C5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -15126,7 +15091,7 @@
         <v>projectId</v>
       </c>
       <c r="C6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
@@ -15140,14 +15105,14 @@
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>wbs</v>
       </c>
       <c r="C7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -15168,7 +15133,7 @@
         <v>createTime</v>
       </c>
       <c r="C8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -15189,7 +15154,7 @@
         <v>creator</v>
       </c>
       <c r="C9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -15210,7 +15175,7 @@
         <v>modifyTime</v>
       </c>
       <c r="C10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -15231,7 +15196,7 @@
         <v>modifier</v>
       </c>
       <c r="C11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>

--- a/表字段设计2 (自动保存的).xlsx
+++ b/表字段设计2 (自动保存的).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="17" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="页面表头" sheetId="23" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="785">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3156,6 +3156,25 @@
   </si>
   <si>
     <t>APPROVE_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_BUSINESS_TYPE</t>
+  </si>
+  <si>
+    <t>文件业务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件业务类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3267,7 +3286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3309,80 +3328,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3402,7 +3357,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -10082,10 +10037,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10413,7 +10368,7 @@
         <v>619</v>
       </c>
       <c r="B13" s="5" t="str">
-        <f t="shared" ref="B13:B17" si="1">LOWER(LEFT($C13,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C13,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C13,"_", " "))," ",""))-1)</f>
+        <f t="shared" ref="B13:B18" si="1">LOWER(LEFT($C13,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C13,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C13,"_", " "))," ",""))-1)</f>
         <v>creatorId</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -10544,6 +10499,30 @@
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>781</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>fileBusinessType</v>
+      </c>
+      <c r="C18" t="s">
+        <v>780</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>782</v>
+      </c>
+      <c r="E18" s="24">
+        <v>2</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>784</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13278,7 +13257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>

--- a/表字段设计2 (自动保存的).xlsx
+++ b/表字段设计2 (自动保存的).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="17" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="页面表头" sheetId="23" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="787">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3175,6 +3175,13 @@
   </si>
   <si>
     <t>文件业务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODIFY_TIME</t>
+  </si>
+  <si>
+    <t>修改时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3286,7 +3293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3331,6 +3338,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10039,7 +10049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -10545,10 +10555,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10871,6 +10881,38 @@
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="17" t="str">
+        <f t="shared" ref="B13:B14" si="1">LOWER(LEFT($C13,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C13,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C13,"_", " "))," ",""))-1)</f>
+        <v>modifyTime</v>
+      </c>
+      <c r="C13" t="s">
+        <v>785</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="E13" s="25">
+        <v>32</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="H14" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/表字段设计2 (自动保存的).xlsx
+++ b/表字段设计2 (自动保存的).xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="794">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2725,10 +2725,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00-整包项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成本中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3200,6 +3196,22 @@
   </si>
   <si>
     <t>项目状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00 整包项目 01 人力项目 02 订单项目 03 内部研发项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00 进行中 01 结项 02 待验收 03 关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00 是 01否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00 待申请 01 待实施审批  02 实施审批退回 03 待销售审批 04 销售审批退回 05 待技术总监审批 06 技术总监退回 07 审批通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4175,10 +4187,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4222,7 +4234,7 @@
         <v>problemId</v>
       </c>
       <c r="C4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -4246,7 +4258,7 @@
         <v>projectId</v>
       </c>
       <c r="C5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -4260,14 +4272,14 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>projectName</v>
       </c>
       <c r="C6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -4281,17 +4293,17 @@
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" ref="B7:B13" si="1">LOWER(LEFT($C7,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C7,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C7,"_", " "))," ",""))-1)</f>
         <v>wbs</v>
       </c>
       <c r="C7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -4309,7 +4321,7 @@
         <v>problemType</v>
       </c>
       <c r="C8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
@@ -4330,7 +4342,7 @@
         <v>problemDetail</v>
       </c>
       <c r="C9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -4351,7 +4363,7 @@
         <v>creatorId</v>
       </c>
       <c r="C10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D10" t="s">
         <v>282</v>
@@ -4372,7 +4384,7 @@
         <v>creatorName</v>
       </c>
       <c r="C11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -4393,7 +4405,7 @@
         <v>createTime</v>
       </c>
       <c r="C12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -4414,7 +4426,7 @@
         <v>problemStatus</v>
       </c>
       <c r="C13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
@@ -9318,14 +9330,14 @@
     </row>
     <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>predictPeriodStart</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
@@ -9338,24 +9350,24 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>predictPeriodEnd</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>728</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>729</v>
       </c>
       <c r="E11" s="11">
         <v>32</v>
@@ -9365,24 +9377,24 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>currency</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E12" s="11">
         <v>2</v>
@@ -9392,34 +9404,34 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>taxRate</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>738</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>739</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
@@ -9689,7 +9701,7 @@
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
@@ -9716,7 +9728,7 @@
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
@@ -9743,7 +9755,7 @@
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
@@ -9770,7 +9782,7 @@
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
@@ -9797,7 +9809,7 @@
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
@@ -9824,7 +9836,7 @@
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
@@ -9851,7 +9863,7 @@
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
@@ -10890,7 +10902,7 @@
         <v>commentDetail</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>18</v>
@@ -12701,7 +12713,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C2" t="s">
         <v>99</v>
@@ -12786,17 +12798,17 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>wbs</v>
       </c>
       <c r="C6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E6">
         <v>32</v>
@@ -12993,7 +13005,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>99</v>
@@ -13123,17 +13135,17 @@
     </row>
     <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>wbs</v>
       </c>
       <c r="C7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -13323,7 +13335,7 @@
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13359,7 +13371,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>59</v>
@@ -13433,13 +13445,13 @@
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>780</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
@@ -13457,13 +13469,13 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -13563,7 +13575,7 @@
         <v>buildManagerId</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>195</v>
@@ -13581,14 +13593,14 @@
     </row>
     <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>projectManagerName</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -13606,14 +13618,14 @@
     </row>
     <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>projectManagerId</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>195</v>
@@ -13719,14 +13731,14 @@
     </row>
     <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>custManagerName</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
@@ -13741,14 +13753,14 @@
     </row>
     <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>custManagerId</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>195</v>
@@ -13860,7 +13872,7 @@
     </row>
     <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -13910,17 +13922,17 @@
     </row>
     <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>isImportant</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -13928,21 +13940,23 @@
       <c r="F25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>792</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>belongProjectGroupName</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
@@ -13960,14 +13974,14 @@
     </row>
     <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>belongProjectGroupId</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>764</v>
-      </c>
-      <c r="B27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>belongProjectGroupId</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>765</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>195</v>
@@ -13985,7 +13999,7 @@
     </row>
     <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -14020,7 +14034,7 @@
         <v>258</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -14035,17 +14049,17 @@
     </row>
     <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>LOWER(LEFT($C30,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C30,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C30,"_", " "))," ",""))-1)</f>
         <v>projectStatus</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
@@ -14053,21 +14067,23 @@
       <c r="F30" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>791</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>approveStatus</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>53</v>
@@ -14078,7 +14094,9 @@
       <c r="F31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>793</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -14129,7 +14147,7 @@
         <v>202</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>671</v>
+        <v>790</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -14137,14 +14155,14 @@
     </row>
     <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictContractAmount</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>195</v>
@@ -14162,14 +14180,14 @@
     </row>
     <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>profitCenter</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>53</v>
@@ -14181,7 +14199,7 @@
         <v>96</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -14189,17 +14207,17 @@
     </row>
     <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>profitCode</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E36" s="2">
         <v>32</v>
@@ -14214,14 +14232,14 @@
     </row>
     <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>costCenter</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>53</v>
@@ -14233,7 +14251,7 @@
         <v>96</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -14241,17 +14259,17 @@
     </row>
     <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>costCode</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E38" s="2">
         <v>32</v>
@@ -14266,14 +14284,14 @@
     </row>
     <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>taxRate</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>27</v>
@@ -14491,7 +14509,7 @@
     </row>
     <row r="48" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B48" s="2" t="str">
         <f t="shared" si="0"/>
@@ -14673,7 +14691,7 @@
         <v>ftpReportReviewResult</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>53</v>
@@ -14791,14 +14809,14 @@
     </row>
     <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>budgetWithTax</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>27</v>
@@ -14816,14 +14834,14 @@
     </row>
     <row r="61" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>budgetNoTax</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>27</v>
@@ -14848,7 +14866,7 @@
         <v>budget</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>195</v>
@@ -14916,14 +14934,14 @@
     </row>
     <row r="65" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B65" s="2" t="str">
         <f t="shared" si="0"/>
         <v>netSalary</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>195</v>
@@ -14941,14 +14959,14 @@
     </row>
     <row r="66" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B66" s="2" t="str">
         <f t="shared" si="0"/>
         <v>yearSalary</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>195</v>
@@ -14966,14 +14984,14 @@
     </row>
     <row r="67" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>LOWER(LEFT($C67,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C67,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C67,"_", " "))," ",""))-1)</f>
         <v>predictProfitMount</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>27</v>
@@ -14991,20 +15009,20 @@
     </row>
     <row r="68" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B68" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictProfitRate</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>96</v>
@@ -15016,14 +15034,14 @@
     </row>
     <row r="69" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B69" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictCapitaSalary</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>195</v>
@@ -15041,14 +15059,14 @@
     </row>
     <row r="70" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B70" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictCapitaCost</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>195</v>
@@ -15066,20 +15084,20 @@
     </row>
     <row r="71" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B71" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictWorkload</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>96</v>
@@ -15091,14 +15109,14 @@
     </row>
     <row r="72" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B72" s="2" t="str">
         <f t="shared" si="0"/>
         <v>employeeCost</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>195</v>
@@ -15116,14 +15134,14 @@
     </row>
     <row r="73" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B73" s="2" t="str">
         <f t="shared" si="0"/>
         <v>businessTripCost</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>195</v>
@@ -15141,14 +15159,14 @@
     </row>
     <row r="74" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B74" s="2" t="str">
         <f t="shared" si="0"/>
         <v>otherCost</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>195</v>
@@ -15166,14 +15184,14 @@
     </row>
     <row r="75" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B75" s="2" t="str">
         <f t="shared" si="0"/>
         <v>sumAllCost</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>27</v>
@@ -15429,17 +15447,17 @@
     </row>
     <row r="86" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B86" s="2" t="str">
         <f t="shared" si="1"/>
         <v>projectCode</v>
       </c>
       <c r="C86" t="s">
+        <v>751</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>752</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>753</v>
       </c>
       <c r="E86" s="8">
         <v>32</v>
@@ -15496,7 +15514,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C2" t="s">
         <v>69</v>
@@ -15602,14 +15620,14 @@
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>wbs</v>
       </c>
       <c r="C7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>

--- a/表字段设计2 (自动保存的).xlsx
+++ b/表字段设计2 (自动保存的).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="页面表头" sheetId="23" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="843">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3220,10 +3220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>税率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CONTRACT_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3359,10 +3355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00-同意，01-不同意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3400,6 +3392,14 @@
   </si>
   <si>
     <t>合同ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAX_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AFTER_TAX_CONTRACT_AMOUNT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4630,17 +4630,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4663,7 +4663,7 @@
         <v>788</v>
       </c>
       <c r="C2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4753,7 +4753,7 @@
         <v>contractName</v>
       </c>
       <c r="C6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -4775,7 +4775,7 @@
         <v>contractAmount</v>
       </c>
       <c r="C7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -4793,11 +4793,11 @@
         <v>761</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f t="shared" ref="B8:B23" si="1">LOWER(LEFT($C8,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C8,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C8,"_", " "))," ",""))-1)</f>
+        <f>LOWER(LEFT($C8,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C8,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C8,"_", " "))," ",""))-1)</f>
         <v>taxRate</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>727</v>
+        <v>841</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>27</v>
@@ -4815,20 +4815,20 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>contractId</v>
+        <f t="shared" ref="B8:B22" si="1">LOWER(LEFT($C9,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C9,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C9,"_", " "))," ",""))-1)</f>
+        <v>afterTaxContractAmount</v>
       </c>
       <c r="C9" t="s">
-        <v>791</v>
+        <v>842</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>162</v>
@@ -4836,32 +4836,32 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>contractCode</v>
+        <v>contractStartTime</v>
       </c>
       <c r="C10" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>832</v>
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
         <v>799</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>contractStartTime</v>
+        <v>contractEndTime</v>
       </c>
       <c r="C11" t="s">
         <v>829</v>
@@ -4876,16 +4876,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>800</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>contractEndTime</v>
+        <v>signContractDate</v>
       </c>
       <c r="C12" t="s">
-        <v>830</v>
+        <v>802</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -4903,43 +4903,43 @@
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>signContractDate</v>
+        <v>isAgree</v>
       </c>
       <c r="C13" t="s">
-        <v>803</v>
+        <v>826</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="G13" s="2" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>isAgree</v>
+        <v>yearNumer</v>
       </c>
       <c r="C14" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -4948,16 +4948,16 @@
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>yearNumer</v>
+        <v>sellDeptName</v>
       </c>
       <c r="C15" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="2">
-        <v>32</v>
+      <c r="E15" s="23">
+        <v>256</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>162</v>
@@ -4969,10 +4969,10 @@
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>sellDeptName</v>
+        <v>custManagerName</v>
       </c>
       <c r="C16" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>18</v>
@@ -4986,14 +4986,14 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>custManagerName</v>
+        <v>oaFlowCode</v>
       </c>
       <c r="C17" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
@@ -5007,14 +5007,14 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>oaFlowCode</v>
+        <v>companyCode</v>
       </c>
       <c r="C18" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -5028,14 +5028,14 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>companyCode</v>
+        <v>custId</v>
       </c>
       <c r="C19" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>18</v>
@@ -5049,14 +5049,14 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>custId</v>
+        <v>custSapCode</v>
       </c>
       <c r="C20" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>18</v>
@@ -5074,10 +5074,10 @@
       </c>
       <c r="B21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>custSapCode</v>
+        <v>custName</v>
       </c>
       <c r="C21" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>18</v>
@@ -5089,16 +5089,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>custName</v>
+        <v>remark</v>
       </c>
       <c r="C22" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>18</v>
@@ -5110,69 +5110,69 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>809</v>
+        <v>91</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>remark</v>
-      </c>
-      <c r="C23" t="s">
-        <v>810</v>
+        <f>LOWER(LEFT($C23,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C23,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C23,"_", " "))," ",""))-1)</f>
+        <v>isDelete</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="23">
-        <v>256</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>162</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f>LOWER(LEFT($C24,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C24,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C24,"_", " "))," ",""))-1)</f>
-        <v>isDelete</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>147</v>
+        <f t="shared" ref="B24:B27" si="2">LOWER(LEFT($C24,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C24,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C24,"_", " "))," ",""))-1)</f>
+        <v>createTime</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E24" s="8">
+        <v>32</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f t="shared" ref="B25:B28" si="2">LOWER(LEFT($C25,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C25,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C25,"_", " "))," ",""))-1)</f>
-        <v>createTime</v>
+        <f t="shared" si="2"/>
+        <v>creator</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="8">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>96</v>
@@ -5180,20 +5180,20 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>creator</v>
+        <v>modifyTime</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>379</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E26" s="8">
+        <v>32</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>96</v>
@@ -5201,57 +5201,36 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B27" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>modifyTime</v>
+        <v>modifier</v>
       </c>
       <c r="C27" t="s">
-        <v>379</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="8">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>modifier</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="2" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G24"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F7 F9:F24">
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G23"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F7 F9:F23">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D28 D4:D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:D27 D4:D12">
       <formula1>数据类型枚举</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D14:D23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D13:D22">
       <formula1>"DECIMAL,CHAR,VARCHAR,INTEGER"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5264,7 +5243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -5295,13 +5274,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>837</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>839</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -5345,14 +5324,14 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B4" s="4" t="str">
         <f>LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>contractProjectRelationId</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>27</v>
@@ -5372,14 +5351,14 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B5" s="4" t="str">
         <f>LOWER(LEFT($C5,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C5,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C5,"_", " "))," ",""))-1)</f>
         <v>contractId</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
@@ -5404,7 +5383,7 @@
         <v>wbs</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>27</v>
@@ -6763,7 +6742,7 @@
         <v>companyCode</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>18</v>
@@ -14562,7 +14541,7 @@
         <v>custManagerName</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
@@ -14678,7 +14657,7 @@
         <v>custName</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>18</v>
@@ -14696,7 +14675,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -14986,7 +14965,7 @@
         <v>predictContractAmount</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>193</v>
@@ -15315,7 +15294,7 @@
         <v>signContractDate</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>18</v>

--- a/表字段设计2 (自动保存的).xlsx
+++ b/表字段设计2 (自动保存的).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="页面表头" sheetId="23" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="数据类型">里程碑!$D$4:$D$13</definedName>
     <definedName name="数据类型枚举">枚举!$A$2:$A$8</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="842">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3381,6 +3381,22 @@
   </si>
   <si>
     <t>项目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户经理ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售部门ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELL_DEPT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST_MANAGER_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4611,10 +4627,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4799,7 +4815,7 @@
         <v>795</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f t="shared" ref="B9:B22" si="1">LOWER(LEFT($C9,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C9,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C9,"_", " "))," ",""))-1)</f>
+        <f t="shared" ref="B9:B24" si="1">LOWER(LEFT($C9,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C9,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C9,"_", " "))," ",""))-1)</f>
         <v>afterTaxContractAmount</v>
       </c>
       <c r="C9" t="s">
@@ -4925,293 +4941,335 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>839</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>LOWER(LEFT($C15,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C15,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C15,"_", " "))," ",""))-1)</f>
+        <v>sellDeptId</v>
+      </c>
+      <c r="C15" t="s">
+        <v>840</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="23">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>802</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>sellDeptName</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>524</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E16" s="23">
         <v>256</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>838</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>custManagerId</v>
+      </c>
+      <c r="C17" t="s">
+        <v>841</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="23">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>803</v>
       </c>
-      <c r="B16" s="2" t="str">
+      <c r="B18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>custManagerName</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>526</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E18" s="23">
         <v>256</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>812</v>
       </c>
-      <c r="B17" s="2" t="str">
+      <c r="B19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>oaFlowCode</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>813</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E19" s="23">
         <v>256</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>804</v>
       </c>
-      <c r="B18" s="2" t="str">
+      <c r="B20" s="2" t="str">
         <f t="shared" si="1"/>
         <v>companyCode</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>448</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E20" s="23">
         <v>256</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>810</v>
       </c>
-      <c r="B19" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B21" s="2" t="str">
+        <f>LOWER(LEFT($C21,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C21,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C21,"_", " "))," ",""))-1)</f>
         <v>custId</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>630</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E21" t="s">
         <v>161</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>808</v>
       </c>
-      <c r="B20" s="2" t="str">
+      <c r="B22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>custSapCode</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>830</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E22" s="23">
         <v>256</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>809</v>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>custName</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>806</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E23" s="23">
         <v>256</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>805</v>
       </c>
-      <c r="B22" s="2" t="str">
+      <c r="B24" s="2" t="str">
         <f t="shared" si="1"/>
         <v>remark</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>831</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="23">
-        <v>256</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <f>LOWER(LEFT($C23,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C23,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C23,"_", " "))," ",""))-1)</f>
-        <v>isDelete</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <f t="shared" ref="B24:B27" si="2">LOWER(LEFT($C24,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C24,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C24,"_", " "))," ",""))-1)</f>
-        <v>createTime</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="8">
-        <v>32</v>
+      <c r="E24" s="23">
+        <v>256</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>LOWER(LEFT($C25,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C25,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C25,"_", " "))," ",""))-1)</f>
+        <v>isDelete</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f t="shared" ref="B26:B29" si="2">LOWER(LEFT($C26,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C26,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C26,"_", " "))," ",""))-1)</f>
+        <v>createTime</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="8">
+        <v>32</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="2" t="str">
+      <c r="B27" s="2" t="str">
         <f t="shared" si="2"/>
         <v>creator</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>379</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="2" t="str">
+      <c r="B28" s="2" t="str">
         <f t="shared" si="2"/>
         <v>modifyTime</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>378</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E28" s="8">
         <v>32</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="2" t="str">
+      <c r="B29" s="2" t="str">
         <f t="shared" si="2"/>
         <v>modifier</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G23"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F7 F9:F23">
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G25"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F7 F9:F25">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:D27 D4:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25:D29 D4:D12">
       <formula1>数据类型枚举</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D13:D22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D13:D24">
       <formula1>"DECIMAL,CHAR,VARCHAR,INTEGER"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5224,7 +5282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -9894,7 +9952,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/表字段设计2 (自动保存的).xlsx
+++ b/表字段设计2 (自动保存的).xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="23" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="页面表头" sheetId="23" r:id="rId1"/>
@@ -36,13 +36,15 @@
     <sheet name="评审表" sheetId="11" r:id="rId27"/>
     <sheet name="评审意见表(作废)" sheetId="10" r:id="rId28"/>
     <sheet name="付款点信息表" sheetId="33" r:id="rId29"/>
-    <sheet name="枚举" sheetId="21" r:id="rId30"/>
+    <sheet name="年度预算" sheetId="38" r:id="rId30"/>
+    <sheet name="预算产品关系表" sheetId="39" r:id="rId31"/>
+    <sheet name="枚举" sheetId="21" r:id="rId32"/>
   </sheets>
   <definedNames>
     <definedName name="数据类型">里程碑!$D$4:$D$13</definedName>
     <definedName name="数据类型枚举">枚举!$A$2:$A$8</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="951">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3397,13 +3399,449 @@
   </si>
   <si>
     <t>CUST_MANAGER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表英文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_YEAR_BUDGET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YEAR_BUDGET_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YEAR_BUDGET_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款点编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否新客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_NEW_CUST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款点对应其他表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户SAPCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目WBS编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVEBUE_SOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司实体名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司实体名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPANY_ENTITY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司实体编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司实体编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTRACT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTRACT_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVENUE_SOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST_MANAGER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户经理编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户经理名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST_MANAGER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户经理名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAX_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INCOMMING_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>币种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURENCY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROSS_PROFIT_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计一月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUDGET_JAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计一月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计二月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计二月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUDGET_FEB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计三月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUDGET_MAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计四月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUDGET_APR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计四月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计五月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUDGET_MAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计五月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计六月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUDGET_JUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计七月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUDGET_JUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计八月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUDGET_AUG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计八月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计九月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计九月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUDGET_SEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计十月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计十月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUDGET_OCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计十一月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUDGET_NOV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计十一月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计十二月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUDGET_DEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计十二月收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUDGET_SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATOR_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加人编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODIFY_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度预算产品关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_YEAR_BUDGET_PRODUCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3541,7 +3979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3588,6 +4026,15 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3874,9 +4321,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3887,7 +4334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>411</v>
       </c>
@@ -3898,7 +4345,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3930,7 +4377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -3954,7 +4401,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -3978,13 +4425,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="8"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3992,7 +4439,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="8"/>
@@ -4022,14 +4469,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4040,7 +4487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>713</v>
       </c>
@@ -4048,7 +4495,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4080,7 +4527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -4104,7 +4551,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -4125,7 +4572,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>699</v>
       </c>
@@ -4146,7 +4593,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>698</v>
       </c>
@@ -4167,7 +4614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -4188,7 +4635,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -4209,7 +4656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -4230,7 +4677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -4251,7 +4698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -4272,7 +4719,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -4293,7 +4740,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -4348,14 +4795,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4366,7 +4813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -4377,7 +4824,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4409,7 +4856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -4433,7 +4880,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -4454,7 +4901,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>698</v>
       </c>
@@ -4472,7 +4919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -4490,7 +4937,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -4508,7 +4955,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -4526,7 +4973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -4544,7 +4991,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -4562,7 +5009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>128</v>
       </c>
@@ -4583,7 +5030,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -4629,19 +5076,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="29.375" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4652,7 +5099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>785</v>
       </c>
@@ -4663,7 +5110,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4695,7 +5142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>787</v>
       </c>
@@ -4719,7 +5166,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>788</v>
       </c>
@@ -4741,7 +5188,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>791</v>
       </c>
@@ -4763,7 +5210,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>792</v>
       </c>
@@ -4785,7 +5232,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>760</v>
       </c>
@@ -4810,7 +5257,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>795</v>
       </c>
@@ -4831,7 +5278,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>796</v>
       </c>
@@ -4852,7 +5299,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>797</v>
       </c>
@@ -4873,7 +5320,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>798</v>
       </c>
@@ -4894,7 +5341,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>799</v>
       </c>
@@ -4918,7 +5365,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>801</v>
       </c>
@@ -4939,7 +5386,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>839</v>
       </c>
@@ -4960,7 +5407,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>802</v>
       </c>
@@ -4981,7 +5428,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>838</v>
       </c>
@@ -5002,7 +5449,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>803</v>
       </c>
@@ -5023,7 +5470,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>812</v>
       </c>
@@ -5044,7 +5491,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>804</v>
       </c>
@@ -5065,7 +5512,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>810</v>
       </c>
@@ -5086,7 +5533,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>808</v>
       </c>
@@ -5107,7 +5554,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>809</v>
       </c>
@@ -5128,7 +5575,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>805</v>
       </c>
@@ -5149,7 +5596,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -5175,7 +5622,7 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -5196,7 +5643,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -5217,7 +5664,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -5238,7 +5685,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -5286,14 +5733,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -5311,7 +5758,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>824</v>
       </c>
@@ -5329,7 +5776,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -5361,7 +5808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>834</v>
       </c>
@@ -5388,7 +5835,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>826</v>
       </c>
@@ -5413,7 +5860,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>191</v>
       </c>
@@ -5438,7 +5885,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>837</v>
       </c>
@@ -5490,13 +5937,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -5507,12 +5954,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5544,7 +5991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>126</v>
       </c>
@@ -5561,7 +6008,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -5572,7 +6019,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -5583,7 +6030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -5594,7 +6041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -5605,7 +6052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>133</v>
       </c>
@@ -5616,7 +6063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -5627,7 +6074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -5638,7 +6085,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -5649,7 +6096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -5660,7 +6107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -5671,7 +6118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>140</v>
       </c>
@@ -5682,7 +6129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -5693,7 +6140,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -5704,7 +6151,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -5715,7 +6162,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>139</v>
       </c>
@@ -5726,7 +6173,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -5767,6 +6214,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5778,9 +6226,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -5791,12 +6239,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5828,7 +6276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -5845,7 +6293,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -5859,7 +6307,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -5870,7 +6318,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -5881,7 +6329,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -5892,7 +6340,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -5903,7 +6351,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -5914,7 +6362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -5925,7 +6373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -5936,7 +6384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -5988,13 +6436,13 @@
       <selection activeCell="F6" sqref="F6:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -6005,12 +6453,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6042,7 +6490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -6059,7 +6507,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -6073,7 +6521,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -6087,7 +6535,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -6101,7 +6549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -6115,7 +6563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -6129,7 +6577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>151</v>
       </c>
@@ -6143,7 +6591,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -6157,7 +6605,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -6171,7 +6619,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -6185,7 +6633,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>154</v>
       </c>
@@ -6199,7 +6647,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -6253,15 +6701,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -6279,7 +6727,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -6297,7 +6745,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -6329,7 +6777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -6356,7 +6804,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -6381,7 +6829,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -6406,7 +6854,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>318</v>
       </c>
@@ -6429,7 +6877,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>319</v>
       </c>
@@ -6452,7 +6900,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>320</v>
       </c>
@@ -6475,7 +6923,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>321</v>
       </c>
@@ -6498,7 +6946,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>322</v>
       </c>
@@ -6521,7 +6969,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>323</v>
       </c>
@@ -6544,7 +6992,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>324</v>
       </c>
@@ -6567,7 +7015,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>325</v>
       </c>
@@ -6590,7 +7038,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>326</v>
       </c>
@@ -6613,7 +7061,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>327</v>
       </c>
@@ -6636,7 +7084,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>328</v>
       </c>
@@ -6659,7 +7107,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>329</v>
       </c>
@@ -6682,7 +7130,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>330</v>
       </c>
@@ -6705,7 +7153,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>331</v>
       </c>
@@ -6728,7 +7176,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>332</v>
       </c>
@@ -6751,7 +7199,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>333</v>
       </c>
@@ -6774,7 +7222,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>334</v>
       </c>
@@ -6797,7 +7245,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>335</v>
       </c>
@@ -6820,7 +7268,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>336</v>
       </c>
@@ -6843,7 +7291,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="14" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>337</v>
       </c>
@@ -6864,7 +7312,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -6889,7 +7337,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -6912,7 +7360,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
@@ -6937,7 +7385,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
@@ -6960,7 +7408,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>91</v>
       </c>
@@ -6987,7 +7435,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -7026,13 +7474,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -7050,7 +7498,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>484</v>
       </c>
@@ -7068,7 +7516,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -7100,7 +7548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>485</v>
       </c>
@@ -7127,7 +7575,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>504</v>
       </c>
@@ -7154,7 +7602,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>486</v>
       </c>
@@ -7181,7 +7629,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>487</v>
       </c>
@@ -7208,7 +7656,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>489</v>
       </c>
@@ -7233,7 +7681,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>490</v>
       </c>
@@ -7258,7 +7706,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>497</v>
       </c>
@@ -7283,7 +7731,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>498</v>
       </c>
@@ -7308,7 +7756,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>488</v>
       </c>
@@ -7333,7 +7781,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>509</v>
       </c>
@@ -7358,7 +7806,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>150</v>
       </c>
@@ -7383,7 +7831,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>155</v>
       </c>
@@ -7408,7 +7856,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -7433,7 +7881,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -7460,7 +7908,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -7485,7 +7933,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>91</v>
       </c>
@@ -7541,14 +7989,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -7565,7 +8013,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>483</v>
       </c>
@@ -7582,7 +8030,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -7611,7 +8059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>508</v>
       </c>
@@ -7637,7 +8085,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>486</v>
       </c>
@@ -7663,7 +8111,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>485</v>
       </c>
@@ -7689,7 +8137,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>502</v>
       </c>
@@ -7711,7 +8159,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -7733,7 +8181,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>197</v>
       </c>
@@ -7755,7 +8203,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -7779,7 +8227,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -7803,7 +8251,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>562</v>
       </c>
@@ -7827,7 +8275,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>102</v>
       </c>
@@ -7851,7 +8299,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>150</v>
       </c>
@@ -7876,7 +8324,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>155</v>
       </c>
@@ -7901,7 +8349,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -7926,7 +8374,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -7953,7 +8401,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -7978,7 +8426,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>91</v>
       </c>
@@ -8034,13 +8482,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -8051,7 +8499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>411</v>
       </c>
@@ -8062,7 +8510,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -8094,7 +8542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>417</v>
       </c>
@@ -8118,7 +8566,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>418</v>
       </c>
@@ -8142,7 +8590,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -8166,7 +8614,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>419</v>
       </c>
@@ -8191,7 +8639,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>421</v>
       </c>
@@ -8215,7 +8663,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>422</v>
       </c>
@@ -8239,7 +8687,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>425</v>
       </c>
@@ -8260,7 +8708,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>426</v>
       </c>
@@ -8281,7 +8729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>423</v>
       </c>
@@ -8328,14 +8776,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -8353,7 +8801,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -8371,7 +8819,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -8403,7 +8851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>358</v>
       </c>
@@ -8430,7 +8878,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>438</v>
       </c>
@@ -8457,7 +8905,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -8484,7 +8932,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -8509,7 +8957,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>319</v>
       </c>
@@ -8559,14 +9007,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -8584,7 +9032,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -8602,7 +9050,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -8634,7 +9082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>358</v>
       </c>
@@ -8661,7 +9109,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>357</v>
       </c>
@@ -8688,7 +9136,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -8715,7 +9163,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>155</v>
       </c>
@@ -8734,7 +9182,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -8759,7 +9207,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -8786,7 +9234,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -8811,7 +9259,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>91</v>
       </c>
@@ -8840,7 +9288,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F12" s="3"/>
     </row>
   </sheetData>
@@ -8870,12 +9318,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -8893,7 +9341,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>442</v>
       </c>
@@ -8911,7 +9359,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -8943,7 +9391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>444</v>
       </c>
@@ -8970,7 +9418,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>443</v>
       </c>
@@ -8997,7 +9445,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>445</v>
       </c>
@@ -9024,7 +9472,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>446</v>
       </c>
@@ -9049,7 +9497,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>455</v>
       </c>
@@ -9074,7 +9522,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -9101,7 +9549,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -9128,7 +9576,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -9155,7 +9603,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>91</v>
       </c>
@@ -9211,15 +9659,15 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -9237,7 +9685,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>456</v>
       </c>
@@ -9255,7 +9703,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -9287,7 +9735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>457</v>
       </c>
@@ -9314,7 +9762,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>458</v>
       </c>
@@ -9341,7 +9789,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>459</v>
       </c>
@@ -9368,7 +9816,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>572</v>
       </c>
@@ -9395,7 +9843,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>474</v>
       </c>
@@ -9422,7 +9870,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>455</v>
       </c>
@@ -9449,7 +9897,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -9476,7 +9924,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -9503,7 +9951,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -9530,7 +9978,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
@@ -9585,14 +10033,14 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -9610,7 +10058,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>461</v>
       </c>
@@ -9628,7 +10076,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -9660,7 +10108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>462</v>
       </c>
@@ -9687,7 +10135,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>463</v>
       </c>
@@ -9714,7 +10162,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>569</v>
       </c>
@@ -9741,7 +10189,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>464</v>
       </c>
@@ -9768,7 +10216,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>446</v>
       </c>
@@ -9795,7 +10243,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>455</v>
       </c>
@@ -9822,7 +10270,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -9847,7 +10295,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -9874,7 +10322,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -9899,7 +10347,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
@@ -9955,17 +10403,17 @@
       <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -9983,7 +10431,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>511</v>
       </c>
@@ -10001,7 +10449,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -10033,7 +10481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>513</v>
       </c>
@@ -10060,7 +10508,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>514</v>
       </c>
@@ -10087,7 +10535,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>624</v>
       </c>
@@ -10114,7 +10562,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>515</v>
       </c>
@@ -10141,7 +10589,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>516</v>
       </c>
@@ -10167,7 +10615,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>517</v>
       </c>
@@ -10194,7 +10642,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>721</v>
       </c>
@@ -10221,7 +10669,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>722</v>
       </c>
@@ -10248,7 +10696,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>723</v>
       </c>
@@ -10275,7 +10723,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>724</v>
       </c>
@@ -10302,7 +10750,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>625</v>
       </c>
@@ -10329,7 +10777,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>626</v>
       </c>
@@ -10356,7 +10804,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>627</v>
       </c>
@@ -10383,7 +10831,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>628</v>
       </c>
@@ -10410,7 +10858,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>629</v>
       </c>
@@ -10437,7 +10885,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>521</v>
       </c>
@@ -10464,7 +10912,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>522</v>
       </c>
@@ -10491,7 +10939,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>519</v>
       </c>
@@ -10518,7 +10966,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>520</v>
       </c>
@@ -10545,7 +10993,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>645</v>
       </c>
@@ -10572,7 +11020,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>644</v>
       </c>
@@ -10599,7 +11047,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>650</v>
       </c>
@@ -10626,7 +11074,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>651</v>
       </c>
@@ -10653,7 +11101,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>652</v>
       </c>
@@ -10680,7 +11128,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>653</v>
       </c>
@@ -10707,7 +11155,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>654</v>
       </c>
@@ -10734,7 +11182,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>518</v>
       </c>
@@ -10763,7 +11211,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>556</v>
       </c>
@@ -10792,7 +11240,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>523</v>
       </c>
@@ -10819,7 +11267,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>640</v>
       </c>
@@ -10846,7 +11294,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>455</v>
       </c>
@@ -10873,7 +11321,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
@@ -10900,7 +11348,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
@@ -10927,7 +11375,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>14</v>
       </c>
@@ -10954,7 +11402,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>91</v>
       </c>
@@ -11010,18 +11458,18 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -11039,7 +11487,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>149</v>
       </c>
@@ -11055,7 +11503,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -11087,7 +11535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>581</v>
       </c>
@@ -11114,7 +11562,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>574</v>
       </c>
@@ -11141,7 +11589,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>573</v>
       </c>
@@ -11168,7 +11616,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>589</v>
       </c>
@@ -11195,7 +11643,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>575</v>
       </c>
@@ -11222,7 +11670,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>591</v>
       </c>
@@ -11249,7 +11697,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>576</v>
       </c>
@@ -11276,7 +11724,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>577</v>
       </c>
@@ -11303,7 +11751,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>594</v>
       </c>
@@ -11330,7 +11778,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>610</v>
       </c>
@@ -11357,7 +11805,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>611</v>
       </c>
@@ -11384,7 +11832,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>612</v>
       </c>
@@ -11411,7 +11859,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>603</v>
       </c>
@@ -11438,7 +11886,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>606</v>
       </c>
@@ -11494,15 +11942,15 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -11520,7 +11968,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>57</v>
       </c>
@@ -11538,7 +11986,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
@@ -11570,7 +12018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>60</v>
       </c>
@@ -11597,7 +12045,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>576</v>
       </c>
@@ -11624,7 +12072,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>577</v>
       </c>
@@ -11651,7 +12099,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>93</v>
       </c>
@@ -11678,7 +12126,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>61</v>
       </c>
@@ -11705,7 +12153,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>62</v>
       </c>
@@ -11732,7 +12180,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>92</v>
       </c>
@@ -11759,7 +12207,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>48</v>
       </c>
@@ -11788,7 +12236,7 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>91</v>
       </c>
@@ -11839,17 +12287,17 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="1" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -11867,7 +12315,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
@@ -11883,7 +12331,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -11915,7 +12363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>46</v>
       </c>
@@ -11942,7 +12390,7 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>52</v>
       </c>
@@ -11973,7 +12421,7 @@
       </c>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>618</v>
       </c>
@@ -12002,7 +12450,7 @@
       </c>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>619</v>
       </c>
@@ -12031,7 +12479,7 @@
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>50</v>
       </c>
@@ -12060,7 +12508,7 @@
       </c>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>55</v>
       </c>
@@ -12089,7 +12537,7 @@
       </c>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>56</v>
       </c>
@@ -12118,7 +12566,7 @@
       </c>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>48</v>
       </c>
@@ -12147,7 +12595,7 @@
       </c>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>47</v>
       </c>
@@ -12176,7 +12624,7 @@
       </c>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
@@ -12207,7 +12655,7 @@
       </c>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -12245,17 +12693,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -12273,7 +12721,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>532</v>
       </c>
@@ -12291,7 +12739,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -12323,7 +12771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>535</v>
       </c>
@@ -12350,7 +12798,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>549</v>
       </c>
@@ -12377,7 +12825,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>551</v>
       </c>
@@ -12404,7 +12852,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>536</v>
       </c>
@@ -12433,7 +12881,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>537</v>
       </c>
@@ -12460,7 +12908,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>325</v>
       </c>
@@ -12486,7 +12934,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>538</v>
       </c>
@@ -12513,7 +12961,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>539</v>
       </c>
@@ -12540,7 +12988,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>523</v>
       </c>
@@ -12567,7 +13015,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>455</v>
       </c>
@@ -12594,7 +13042,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -12621,7 +13069,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -12648,7 +13096,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -12675,7 +13123,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>91</v>
       </c>
@@ -12730,16 +13178,16 @@
       <selection sqref="A1:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -12750,7 +13198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -12761,7 +13209,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -12793,7 +13241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -12817,7 +13265,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -12841,7 +13289,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -12865,7 +13313,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -12890,7 +13338,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>159</v>
       </c>
@@ -12932,50 +13380,1404 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f t="shared" ref="B4:B43" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
+        <v>yearBudgetCode</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="26">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>isNewCust</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="26">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>custName</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="26">
+        <v>512</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>sapCode</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="28">
+        <v>128</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>projectName</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="28">
+        <v>256</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>858</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>wbs</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="28">
+        <v>256</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="27" t="s">
+        <v>858</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>projectType</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="28">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>859</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>revebueSource</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>860</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="21">
+        <v>512</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="27" t="s">
+        <v>859</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>862</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>companyEntityName</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>863</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="E12" s="21">
+        <v>128</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="27" t="s">
+        <v>861</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>866</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>companyCode</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" s="21">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="27" t="s">
+        <v>865</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f>LOWER(LEFT($C14,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C14,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C14,"_", " "))," ",""))-1)</f>
+        <v>contractId</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f>LOWER(LEFT($C15,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C15,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C15,"_", " "))," ",""))-1)</f>
+        <v>contractCode</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="21">
+        <v>256</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f>LOWER(LEFT($C16,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C16,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C16,"_", " "))," ",""))-1)</f>
+        <v>contractName</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="21">
+        <v>256</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>871</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>revenueSource</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="21">
+        <v>256</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>custManagerId</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="27" t="s">
+        <v>875</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>876</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>custManagerName</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="E19" s="21">
+        <v>256</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="27" t="s">
+        <v>878</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>879</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>taxType</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E20" s="21">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="27" t="s">
+        <v>879</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>881</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>incommingType</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E21" s="21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>region</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="E22" s="21">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>887</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>curency</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23" s="21">
+        <v>32</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>889</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>grossProfitRate</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>892</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="27" t="s">
+        <v>893</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>894</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>budgetJan</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="27" t="s">
+        <v>897</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>899</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>budgetFeb</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="27" t="s">
+        <v>898</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>901</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>budgetMar</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>903</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="27" t="s">
+        <v>901</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>904</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>budgetApr</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>903</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="27" t="s">
+        <v>906</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>907</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>budgetMay</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>903</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="27" t="s">
+        <v>909</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>910</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>budgetJun</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>903</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="27" t="s">
+        <v>910</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>912</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>budgetJul</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="27" t="s">
+        <v>912</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>914</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>budgetAug</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="27" t="s">
+        <v>916</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>918</v>
+      </c>
+      <c r="B33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>budgetSep</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="27" t="s">
+        <v>917</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>921</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>budgetOct</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>903</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="27" t="s">
+        <v>920</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>923</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>budgetNov</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="27" t="s">
+        <v>925</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>926</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>budgetDec</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>budgetSum</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>903</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>creatorId</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>931</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>createTime</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="26">
+        <v>32</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>modifier</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="E40" s="26">
+        <v>10</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyTime</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="26">
+        <v>32</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>isDelete</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="26">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>939</v>
+      </c>
+      <c r="B43" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>remark</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>940</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="E43" s="28">
+        <v>256</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="27" t="s">
+        <v>941</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F43">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G42"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
+      <formula1>" =枚举!$A1:$A7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10 D14:D17 D38:D42">
+      <formula1>数据类型枚举</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" ref="B4:B6" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
+        <v>paymentId</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>productId</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>yearBudgetCode</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="E6" s="3">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D6">
+      <formula1>数据类型枚举</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
+      <formula1>" =枚举!$A1:$A7"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -12994,14 +14796,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -13012,7 +14814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -13023,7 +14825,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -13055,7 +14857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -13079,7 +14881,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -13103,7 +14905,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -13127,7 +14929,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -13151,7 +14953,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -13175,7 +14977,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>169</v>
       </c>
@@ -13221,16 +15023,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -13241,7 +15043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -13252,7 +15054,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -13284,7 +15086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -13308,7 +15110,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -13332,7 +15134,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -13356,7 +15158,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -13380,7 +15182,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -13404,7 +15206,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -13428,7 +15230,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -13455,7 +15257,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>287</v>
       </c>
@@ -13480,7 +15282,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>267</v>
       </c>
@@ -13505,7 +15307,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -13556,14 +15358,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -13581,7 +15383,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>107</v>
       </c>
@@ -13599,7 +15401,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -13634,7 +15436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>108</v>
       </c>
@@ -13664,7 +15466,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
@@ -13689,7 +15491,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>102</v>
       </c>
@@ -13714,7 +15516,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>698</v>
       </c>
@@ -13739,7 +15541,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>109</v>
       </c>
@@ -13764,7 +15566,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>110</v>
       </c>
@@ -13789,7 +15591,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>111</v>
       </c>
@@ -13814,7 +15616,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>105</v>
       </c>
@@ -13839,7 +15641,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>112</v>
       </c>
@@ -13864,7 +15666,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>91</v>
       </c>
@@ -13920,15 +15722,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -13939,7 +15741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -13950,7 +15752,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -13982,7 +15784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -14006,7 +15808,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -14027,7 +15829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -14048,7 +15850,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>698</v>
       </c>
@@ -14069,7 +15871,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -14090,7 +15892,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -14111,7 +15913,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -14132,7 +15934,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -14153,7 +15955,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -14205,17 +16007,17 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -14233,7 +16035,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -14251,7 +16053,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>181</v>
       </c>
@@ -14283,7 +16085,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>191</v>
       </c>
@@ -14310,7 +16112,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>769</v>
       </c>
@@ -14334,7 +16136,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>768</v>
       </c>
@@ -14358,7 +16160,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>197</v>
       </c>
@@ -14383,7 +16185,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>198</v>
       </c>
@@ -14408,7 +16210,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>199</v>
       </c>
@@ -14433,7 +16235,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>201</v>
       </c>
@@ -14458,7 +16260,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>744</v>
       </c>
@@ -14483,7 +16285,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>745</v>
       </c>
@@ -14508,7 +16310,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>202</v>
       </c>
@@ -14530,7 +16332,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>203</v>
       </c>
@@ -14552,7 +16354,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>204</v>
       </c>
@@ -14574,7 +16376,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>205</v>
       </c>
@@ -14596,7 +16398,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>747</v>
       </c>
@@ -14618,7 +16420,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>748</v>
       </c>
@@ -14640,7 +16442,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>206</v>
       </c>
@@ -14662,7 +16464,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>207</v>
       </c>
@@ -14687,7 +16489,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>208</v>
       </c>
@@ -14712,7 +16514,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>209</v>
       </c>
@@ -14737,7 +16539,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>807</v>
       </c>
@@ -14762,7 +16564,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>210</v>
       </c>
@@ -14787,7 +16589,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>775</v>
       </c>
@@ -14814,7 +16616,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>753</v>
       </c>
@@ -14839,7 +16641,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>754</v>
       </c>
@@ -14864,7 +16666,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>751</v>
       </c>
@@ -14889,7 +16691,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>211</v>
       </c>
@@ -14914,7 +16716,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>779</v>
       </c>
@@ -14941,7 +16743,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>756</v>
       </c>
@@ -14968,7 +16770,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>212</v>
       </c>
@@ -14993,7 +16795,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>213</v>
       </c>
@@ -15020,7 +16822,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>669</v>
       </c>
@@ -15045,7 +16847,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>666</v>
       </c>
@@ -15072,7 +16874,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>678</v>
       </c>
@@ -15097,7 +16899,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>665</v>
       </c>
@@ -15124,7 +16926,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>677</v>
       </c>
@@ -15149,7 +16951,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>760</v>
       </c>
@@ -15174,7 +16976,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>214</v>
       </c>
@@ -15199,7 +17001,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>215</v>
       </c>
@@ -15224,7 +17026,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>216</v>
       </c>
@@ -15249,7 +17051,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>217</v>
       </c>
@@ -15274,7 +17076,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>218</v>
       </c>
@@ -15299,7 +17101,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>219</v>
       </c>
@@ -15324,7 +17126,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>220</v>
       </c>
@@ -15349,7 +17151,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>221</v>
       </c>
@@ -15374,7 +17176,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>739</v>
       </c>
@@ -15399,7 +17201,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>222</v>
       </c>
@@ -15424,7 +17226,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>223</v>
       </c>
@@ -15449,7 +17251,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>224</v>
       </c>
@@ -15474,7 +17276,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>225</v>
       </c>
@@ -15499,7 +17301,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>226</v>
       </c>
@@ -15524,7 +17326,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>227</v>
       </c>
@@ -15549,7 +17351,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>228</v>
       </c>
@@ -15574,7 +17376,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>229</v>
       </c>
@@ -15599,7 +17401,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>230</v>
       </c>
@@ -15624,7 +17426,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>231</v>
       </c>
@@ -15649,7 +17451,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>232</v>
       </c>
@@ -15674,7 +17476,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>763</v>
       </c>
@@ -15699,7 +17501,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>765</v>
       </c>
@@ -15724,7 +17526,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>233</v>
       </c>
@@ -15749,7 +17551,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>234</v>
       </c>
@@ -15774,7 +17576,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>235</v>
       </c>
@@ -15799,7 +17601,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>761</v>
       </c>
@@ -15824,7 +17626,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>670</v>
       </c>
@@ -15849,7 +17651,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>762</v>
       </c>
@@ -15874,7 +17676,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>685</v>
       </c>
@@ -15899,7 +17701,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>671</v>
       </c>
@@ -15924,7 +17726,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>672</v>
       </c>
@@ -15949,7 +17751,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>673</v>
       </c>
@@ -15974,7 +17776,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>674</v>
       </c>
@@ -15999,7 +17801,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>675</v>
       </c>
@@ -16024,7 +17826,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>676</v>
       </c>
@@ -16049,7 +17851,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>738</v>
       </c>
@@ -16074,7 +17876,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>661</v>
       </c>
@@ -16099,7 +17901,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>662</v>
       </c>
@@ -16124,7 +17926,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>236</v>
       </c>
@@ -16149,7 +17951,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>237</v>
       </c>
@@ -16174,7 +17976,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>238</v>
       </c>
@@ -16199,7 +18001,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>239</v>
       </c>
@@ -16228,7 +18030,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>74</v>
       </c>
@@ -16249,7 +18051,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>75</v>
       </c>
@@ -16270,7 +18072,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -16291,7 +18093,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>77</v>
       </c>
@@ -16312,7 +18114,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>741</v>
       </c>
@@ -16357,14 +18159,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -16375,7 +18177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -16383,7 +18185,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -16415,7 +18217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -16439,7 +18241,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -16457,7 +18259,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>369</v>
       </c>
@@ -16475,7 +18277,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>370</v>
       </c>
@@ -16493,7 +18295,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>371</v>
       </c>
@@ -16511,7 +18313,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -16529,7 +18331,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -16547,7 +18349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -16565,7 +18367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -16583,7 +18385,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -16601,7 +18403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>

--- a/表字段设计2 (自动保存的).xlsx
+++ b/表字段设计2 (自动保存的).xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="23" activeTab="30"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="25" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="页面表头" sheetId="23" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="数据类型">里程碑!$D$4:$D$13</definedName>
     <definedName name="数据类型枚举">枚举!$A$2:$A$8</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="955">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2242,18 +2242,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>付款编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PAYMENT_FOREIGN_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>付款代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PAYMENT_FOREIGN_CODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3835,13 +3827,37 @@
   </si>
   <si>
     <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款外键编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款外键代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款点ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款点主键自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据wbs生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT_CODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4321,9 +4337,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4334,7 +4350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>411</v>
       </c>
@@ -4345,7 +4361,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4377,7 +4393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -4401,7 +4417,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -4425,13 +4441,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="8"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4439,7 +4455,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="8"/>
@@ -4469,14 +4485,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4487,15 +4503,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4527,7 +4543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -4536,7 +4552,7 @@
         <v>problemId</v>
       </c>
       <c r="C4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -4551,7 +4567,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -4560,7 +4576,7 @@
         <v>projectId</v>
       </c>
       <c r="C5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -4572,16 +4588,16 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>projectName</v>
       </c>
       <c r="C6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -4593,19 +4609,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" ref="B7:B13" si="1">LOWER(LEFT($C7,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C7,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C7,"_", " "))," ",""))-1)</f>
         <v>wbs</v>
       </c>
       <c r="C7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -4614,7 +4630,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -4623,7 +4639,7 @@
         <v>problemType</v>
       </c>
       <c r="C8" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
@@ -4635,7 +4651,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -4644,7 +4660,7 @@
         <v>problemDetail</v>
       </c>
       <c r="C9" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -4656,7 +4672,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -4665,7 +4681,7 @@
         <v>creatorId</v>
       </c>
       <c r="C10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D10" t="s">
         <v>278</v>
@@ -4677,7 +4693,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -4686,7 +4702,7 @@
         <v>creatorName</v>
       </c>
       <c r="C11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -4698,7 +4714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -4707,7 +4723,7 @@
         <v>createTime</v>
       </c>
       <c r="C12" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -4719,7 +4735,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -4728,7 +4744,7 @@
         <v>problemStatus</v>
       </c>
       <c r="C13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
@@ -4740,7 +4756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -4795,14 +4811,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4813,18 +4829,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4856,7 +4872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -4880,7 +4896,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -4901,25 +4917,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>wbs</v>
       </c>
       <c r="C6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E6">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -4937,7 +4953,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -4955,7 +4971,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -4973,7 +4989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -4991,7 +5007,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -5009,7 +5025,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>128</v>
       </c>
@@ -5030,7 +5046,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -5080,15 +5096,15 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -5099,18 +5115,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C2" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5142,16 +5158,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B4" s="2" t="str">
         <f t="shared" ref="B4:B7" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>contractId</v>
       </c>
       <c r="C4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -5166,16 +5182,16 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>contractCode</v>
+      </c>
+      <c r="C5" t="s">
         <v>788</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>contractCode</v>
-      </c>
-      <c r="C5" t="s">
-        <v>790</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -5188,16 +5204,16 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>789</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>contractName</v>
+      </c>
+      <c r="C6" t="s">
         <v>791</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>contractName</v>
-      </c>
-      <c r="C6" t="s">
-        <v>793</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -5210,16 +5226,16 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>790</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>contractAmount</v>
+      </c>
+      <c r="C7" t="s">
         <v>792</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>contractAmount</v>
-      </c>
-      <c r="C7" t="s">
-        <v>794</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -5232,16 +5248,16 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>LOWER(LEFT($C8,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C8,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C8,"_", " "))," ",""))-1)</f>
         <v>taxRate</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>27</v>
@@ -5257,37 +5273,37 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B24" si="1">LOWER(LEFT($C9,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C9,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C9,"_", " "))," ",""))-1)</f>
         <v>afterTaxContractAmount</v>
       </c>
       <c r="C9" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>contractStartTime</v>
       </c>
       <c r="C10" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -5299,16 +5315,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>contractEndTime</v>
       </c>
       <c r="C11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -5320,16 +5336,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>signContractDate</v>
       </c>
       <c r="C12" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -5341,16 +5357,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>isAgree</v>
       </c>
       <c r="C13" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>53</v>
@@ -5362,19 +5378,19 @@
         <v>162</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>yearNumer</v>
       </c>
       <c r="C14" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>18</v>
@@ -5386,16 +5402,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>LOWER(LEFT($C15,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C15,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C15,"_", " "))," ",""))-1)</f>
         <v>sellDeptId</v>
       </c>
       <c r="C15" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>19</v>
@@ -5407,9 +5423,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" si="1"/>
@@ -5428,16 +5444,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>custManagerId</v>
       </c>
       <c r="C17" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>19</v>
@@ -5449,9 +5465,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" si="1"/>
@@ -5470,16 +5486,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>oaFlowCode</v>
       </c>
       <c r="C19" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>18</v>
@@ -5491,9 +5507,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" si="1"/>
@@ -5512,16 +5528,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>LOWER(LEFT($C21,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C21,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C21,"_", " "))," ",""))-1)</f>
         <v>custId</v>
       </c>
       <c r="C21" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>19</v>
@@ -5533,16 +5549,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>custSapCode</v>
       </c>
       <c r="C22" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>18</v>
@@ -5554,16 +5570,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>custName</v>
       </c>
       <c r="C23" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>18</v>
@@ -5575,16 +5591,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" si="1"/>
         <v>remark</v>
       </c>
       <c r="C24" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>18</v>
@@ -5596,7 +5612,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -5622,7 +5638,7 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -5643,7 +5659,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -5664,7 +5680,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -5685,7 +5701,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -5733,14 +5749,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -5758,15 +5774,15 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>823</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>825</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -5776,7 +5792,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -5808,16 +5824,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B4" s="4" t="str">
         <f>LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>contractProjectRelationId</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>27</v>
@@ -5830,21 +5846,21 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B5" s="4" t="str">
         <f>LOWER(LEFT($C5,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C5,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C5,"_", " "))," ",""))-1)</f>
         <v>contractId</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>27</v>
@@ -5860,7 +5876,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>191</v>
       </c>
@@ -5869,7 +5885,7 @@
         <v>wbs</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
@@ -5885,9 +5901,9 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B7" s="4" t="str">
         <f>LOWER(LEFT($C7,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C7,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C7,"_", " "))," ",""))-1)</f>
@@ -5937,13 +5953,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -5954,12 +5970,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5991,7 +6007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>126</v>
       </c>
@@ -6008,7 +6024,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -6019,7 +6035,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -6030,7 +6046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -6041,7 +6057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -6052,7 +6068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>133</v>
       </c>
@@ -6063,7 +6079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -6074,7 +6090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -6085,7 +6101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -6096,7 +6112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -6107,7 +6123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -6118,7 +6134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>140</v>
       </c>
@@ -6129,7 +6145,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -6140,7 +6156,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -6151,7 +6167,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -6162,7 +6178,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>139</v>
       </c>
@@ -6173,7 +6189,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -6226,9 +6242,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -6239,12 +6255,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6276,7 +6292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -6293,7 +6309,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -6307,7 +6323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -6315,10 +6331,10 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -6329,7 +6345,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -6337,10 +6353,10 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -6351,7 +6367,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -6362,7 +6378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -6373,7 +6389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -6384,7 +6400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -6436,13 +6452,13 @@
       <selection activeCell="F6" sqref="F6:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -6453,12 +6469,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6490,7 +6506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -6507,7 +6523,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -6521,7 +6537,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -6535,7 +6551,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -6543,13 +6559,13 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -6557,13 +6573,13 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -6571,13 +6587,13 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>151</v>
       </c>
@@ -6591,7 +6607,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -6605,7 +6621,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -6619,7 +6635,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -6633,7 +6649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>154</v>
       </c>
@@ -6647,7 +6663,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -6701,15 +6717,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -6727,7 +6743,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -6745,7 +6761,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -6777,7 +6793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -6804,7 +6820,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -6829,7 +6845,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -6854,7 +6870,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>318</v>
       </c>
@@ -6877,7 +6893,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>319</v>
       </c>
@@ -6900,7 +6916,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>320</v>
       </c>
@@ -6923,7 +6939,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>321</v>
       </c>
@@ -6946,7 +6962,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>322</v>
       </c>
@@ -6969,7 +6985,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>323</v>
       </c>
@@ -6992,7 +7008,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>324</v>
       </c>
@@ -7015,7 +7031,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>325</v>
       </c>
@@ -7038,7 +7054,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>326</v>
       </c>
@@ -7061,7 +7077,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>327</v>
       </c>
@@ -7084,7 +7100,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>328</v>
       </c>
@@ -7107,7 +7123,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>329</v>
       </c>
@@ -7130,7 +7146,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>330</v>
       </c>
@@ -7153,7 +7169,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>331</v>
       </c>
@@ -7176,7 +7192,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>332</v>
       </c>
@@ -7199,7 +7215,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>333</v>
       </c>
@@ -7222,7 +7238,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>334</v>
       </c>
@@ -7245,7 +7261,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>335</v>
       </c>
@@ -7254,7 +7270,7 @@
         <v>companyCode</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>18</v>
@@ -7268,7 +7284,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>336</v>
       </c>
@@ -7291,7 +7307,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>337</v>
       </c>
@@ -7312,7 +7328,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -7337,7 +7353,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -7360,7 +7376,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
@@ -7385,7 +7401,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
@@ -7408,7 +7424,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>91</v>
       </c>
@@ -7435,7 +7451,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -7474,13 +7490,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -7498,12 +7514,12 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>484</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>483</v>
@@ -7516,7 +7532,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -7548,7 +7564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>485</v>
       </c>
@@ -7575,7 +7591,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>504</v>
       </c>
@@ -7602,7 +7618,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>486</v>
       </c>
@@ -7629,7 +7645,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>487</v>
       </c>
@@ -7656,7 +7672,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>489</v>
       </c>
@@ -7681,7 +7697,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>490</v>
       </c>
@@ -7706,7 +7722,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>497</v>
       </c>
@@ -7731,7 +7747,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>498</v>
       </c>
@@ -7756,7 +7772,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>488</v>
       </c>
@@ -7781,7 +7797,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>509</v>
       </c>
@@ -7806,7 +7822,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>150</v>
       </c>
@@ -7831,7 +7847,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>155</v>
       </c>
@@ -7856,7 +7872,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -7881,7 +7897,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -7908,7 +7924,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -7933,7 +7949,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>91</v>
       </c>
@@ -7989,14 +8005,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -8013,12 +8029,12 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>483</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>483</v>
@@ -8030,7 +8046,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -8059,7 +8075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>508</v>
       </c>
@@ -8085,7 +8101,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>486</v>
       </c>
@@ -8111,7 +8127,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>485</v>
       </c>
@@ -8137,7 +8153,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>502</v>
       </c>
@@ -8159,7 +8175,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -8181,7 +8197,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>197</v>
       </c>
@@ -8203,7 +8219,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -8227,7 +8243,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -8236,7 +8252,7 @@
         <v>custId</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -8251,19 +8267,19 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>custSapCode</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>custSapCode</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>564</v>
       </c>
       <c r="E12" s="3">
         <v>32</v>
@@ -8275,7 +8291,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>102</v>
       </c>
@@ -8299,7 +8315,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>150</v>
       </c>
@@ -8324,7 +8340,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>155</v>
       </c>
@@ -8349,7 +8365,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -8374,7 +8390,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -8401,7 +8417,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -8426,7 +8442,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>91</v>
       </c>
@@ -8482,13 +8498,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -8499,7 +8515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>411</v>
       </c>
@@ -8510,7 +8526,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -8542,7 +8558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>417</v>
       </c>
@@ -8566,7 +8582,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>418</v>
       </c>
@@ -8590,7 +8606,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -8614,7 +8630,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>419</v>
       </c>
@@ -8639,7 +8655,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>421</v>
       </c>
@@ -8663,7 +8679,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>422</v>
       </c>
@@ -8687,7 +8703,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>425</v>
       </c>
@@ -8708,7 +8724,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>426</v>
       </c>
@@ -8729,7 +8745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>423</v>
       </c>
@@ -8776,14 +8792,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -8801,7 +8817,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -8819,7 +8835,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -8851,7 +8867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>358</v>
       </c>
@@ -8878,7 +8894,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>438</v>
       </c>
@@ -8905,7 +8921,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -8932,7 +8948,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -8957,7 +8973,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>319</v>
       </c>
@@ -9007,14 +9023,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -9032,7 +9048,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -9050,7 +9066,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -9082,7 +9098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>358</v>
       </c>
@@ -9109,7 +9125,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>357</v>
       </c>
@@ -9136,7 +9152,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -9163,7 +9179,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>155</v>
       </c>
@@ -9182,7 +9198,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -9207,7 +9223,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -9234,7 +9250,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -9259,7 +9275,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>91</v>
       </c>
@@ -9288,7 +9304,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F12" s="3"/>
     </row>
   </sheetData>
@@ -9318,12 +9334,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -9341,7 +9357,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>442</v>
       </c>
@@ -9359,7 +9375,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -9391,7 +9407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>444</v>
       </c>
@@ -9418,7 +9434,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>443</v>
       </c>
@@ -9445,7 +9461,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>445</v>
       </c>
@@ -9472,7 +9488,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>446</v>
       </c>
@@ -9497,7 +9513,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>455</v>
       </c>
@@ -9522,7 +9538,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -9549,7 +9565,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -9576,7 +9592,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -9603,7 +9619,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>91</v>
       </c>
@@ -9659,15 +9675,15 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -9685,7 +9701,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>456</v>
       </c>
@@ -9703,7 +9719,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -9735,7 +9751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>457</v>
       </c>
@@ -9744,7 +9760,7 @@
         <v>groupId</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -9762,7 +9778,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>458</v>
       </c>
@@ -9789,7 +9805,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>459</v>
       </c>
@@ -9816,16 +9832,16 @@
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ownerOrgName</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>31</v>
@@ -9838,12 +9854,12 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>474</v>
       </c>
@@ -9870,7 +9886,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>455</v>
       </c>
@@ -9897,7 +9913,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -9924,7 +9940,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -9951,7 +9967,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -9978,7 +9994,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
@@ -10033,14 +10049,14 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -10058,7 +10074,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>461</v>
       </c>
@@ -10076,7 +10092,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -10108,7 +10124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>462</v>
       </c>
@@ -10135,7 +10151,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>463</v>
       </c>
@@ -10162,16 +10178,16 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>menberUsrName</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
@@ -10184,12 +10200,12 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>464</v>
       </c>
@@ -10216,7 +10232,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>446</v>
       </c>
@@ -10243,7 +10259,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>455</v>
       </c>
@@ -10270,7 +10286,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -10295,7 +10311,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -10322,7 +10338,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -10347,7 +10363,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
@@ -10403,17 +10419,17 @@
       <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -10431,12 +10447,12 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>511</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>511</v>
@@ -10449,7 +10465,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -10481,7 +10497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>513</v>
       </c>
@@ -10508,7 +10524,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>514</v>
       </c>
@@ -10535,16 +10551,16 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>firstBidAmount</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -10557,12 +10573,12 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>515</v>
       </c>
@@ -10571,7 +10587,7 @@
         <v>predictAmount</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -10589,7 +10605,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>516</v>
       </c>
@@ -10615,7 +10631,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>517</v>
       </c>
@@ -10642,16 +10658,16 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>predictPeriodStart</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
@@ -10664,24 +10680,24 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>predictPeriodEnd</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E11" s="11">
         <v>32</v>
@@ -10691,24 +10707,24 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>currency</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>currency</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>725</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>727</v>
       </c>
       <c r="E12" s="11">
         <v>2</v>
@@ -10718,51 +10734,51 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>taxRate</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="B13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>taxRate</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>728</v>
-      </c>
       <c r="E13" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>custId</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E14" s="11">
         <v>10</v>
@@ -10772,24 +10788,24 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>custCnName</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E15" s="11">
         <v>256</v>
@@ -10799,24 +10815,24 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>custSapCode</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E16" s="11">
         <v>128</v>
@@ -10826,24 +10842,24 @@
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>constructionDeptId</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E17" s="11">
         <v>16</v>
@@ -10853,24 +10869,24 @@
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>constructionDeptName</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E18" s="11">
         <v>256</v>
@@ -10880,12 +10896,12 @@
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>521</v>
       </c>
@@ -10912,7 +10928,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>522</v>
       </c>
@@ -10939,7 +10955,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>519</v>
       </c>
@@ -10966,7 +10982,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>520</v>
       </c>
@@ -10993,19 +11009,19 @@
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>technicalDirectorId</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>648</v>
       </c>
       <c r="E23" s="11">
         <v>10</v>
@@ -11015,24 +11031,24 @@
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>technicalDirectorName</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>647</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>649</v>
       </c>
       <c r="E24" s="11">
         <v>256</v>
@@ -11042,21 +11058,21 @@
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>sellDeptManagerName</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>31</v>
@@ -11069,21 +11085,21 @@
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>sellDeptManagerId</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>193</v>
@@ -11096,21 +11112,21 @@
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>constructionDeptManagerName</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>31</v>
@@ -11123,21 +11139,21 @@
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>constructionDeptManagerId</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>193</v>
@@ -11150,21 +11166,21 @@
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>status</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>241</v>
@@ -11177,12 +11193,12 @@
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>518</v>
       </c>
@@ -11211,16 +11227,16 @@
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>isChecked</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>241</v>
@@ -11232,15 +11248,15 @@
         <v>162</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>523</v>
       </c>
@@ -11267,19 +11283,19 @@
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B33" s="4" t="str">
         <f>LOWER(LEFT($C33,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C33,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C33,"_", " "))," ",""))-1)</f>
         <v>paymentPoint</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E33" s="11">
         <v>512</v>
@@ -11289,12 +11305,12 @@
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>455</v>
       </c>
@@ -11321,7 +11337,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
@@ -11348,7 +11364,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
@@ -11375,7 +11391,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>14</v>
       </c>
@@ -11402,7 +11418,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>91</v>
       </c>
@@ -11458,18 +11474,18 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -11487,12 +11503,12 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -11503,7 +11519,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -11535,43 +11551,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" ref="B4:B12" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>fileId</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>583</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>585</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fileUploadName</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>18</v>
@@ -11584,21 +11600,21 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>filePath</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
@@ -11611,21 +11627,21 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fileSaveName</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
@@ -11638,21 +11654,21 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>uploadType</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>241</v>
@@ -11665,21 +11681,21 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>fileSize</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>27</v>
@@ -11692,24 +11708,24 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>foreignId</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E10" s="20">
         <v>10</v>
@@ -11719,24 +11735,24 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>foreignCode</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E11" s="20">
         <v>32</v>
@@ -11746,21 +11762,21 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>remark</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>18</v>
@@ -11778,79 +11794,79 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B13" s="5" t="str">
         <f t="shared" ref="B13:B17" si="1">LOWER(LEFT($C13,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C13,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C13,"_", " "))," ",""))-1)</f>
         <v>creatorId</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E13" s="20">
         <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>createTime</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E14" s="20">
         <v>32</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>modifier</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E15" s="20">
         <v>10</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
@@ -11859,25 +11875,25 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>modifyTime</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E16" s="20">
         <v>32</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
@@ -11886,28 +11902,28 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>isDelete</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E17" s="20">
         <v>2</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>91</v>
@@ -11942,15 +11958,15 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -11968,7 +11984,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>57</v>
       </c>
@@ -11986,7 +12002,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
@@ -12018,7 +12034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>60</v>
       </c>
@@ -12045,16 +12061,16 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>foreignId</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>27</v>
@@ -12067,21 +12083,21 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>foreignCode</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>31</v>
@@ -12094,12 +12110,12 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>93</v>
       </c>
@@ -12126,7 +12142,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>61</v>
       </c>
@@ -12153,7 +12169,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>62</v>
       </c>
@@ -12180,7 +12196,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>92</v>
       </c>
@@ -12207,7 +12223,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>48</v>
       </c>
@@ -12216,7 +12232,7 @@
         <v>commentDetail</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>18</v>
@@ -12236,7 +12252,7 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>91</v>
       </c>
@@ -12287,17 +12303,17 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -12315,12 +12331,12 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -12331,7 +12347,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -12363,7 +12379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>46</v>
       </c>
@@ -12390,7 +12406,7 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>52</v>
       </c>
@@ -12421,9 +12437,9 @@
       </c>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12443,23 +12459,23 @@
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>96</v>
       </c>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>reviewCode</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>18</v>
@@ -12472,14 +12488,14 @@
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>45</v>
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>50</v>
       </c>
@@ -12501,14 +12517,14 @@
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>96</v>
       </c>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>55</v>
       </c>
@@ -12537,7 +12553,7 @@
       </c>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>56</v>
       </c>
@@ -12566,7 +12582,7 @@
       </c>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>48</v>
       </c>
@@ -12595,7 +12611,7 @@
       </c>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>47</v>
       </c>
@@ -12607,7 +12623,7 @@
         <v>387</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E12" s="21">
         <v>32</v>
@@ -12624,7 +12640,7 @@
       </c>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
@@ -12655,7 +12671,7 @@
       </c>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -12687,23 +12703,23 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -12721,12 +12737,12 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>532</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>532</v>
@@ -12739,7 +12755,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -12771,12 +12787,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>535</v>
+        <v>951</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f t="shared" ref="B4:B17" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
+        <f t="shared" ref="B4:B18" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>paymentId</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -12793,364 +12809,391 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
-        <v>535</v>
+        <v>952</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>paymentForeignId</v>
+        <f>LOWER(LEFT($C5,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C5,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C5,"_", " "))," ",""))-1)</f>
+        <v>paymentCode</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>550</v>
+        <v>954</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="11">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="3" t="s">
-        <v>553</v>
+        <v>953</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>551</v>
+        <v>949</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>paymentForeignCode</v>
+        <v>paymentForeignId</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="11">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>536</v>
+        <v>950</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>paymentType</v>
+        <v>paymentForeignCode</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E7" s="11">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="3" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>paymentDate</v>
+        <v>paymentType</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>566</v>
+        <v>53</v>
       </c>
       <c r="E8" s="11">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>548</v>
+      </c>
       <c r="H8" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>325</v>
+        <v>537</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>paymentTerm</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>542</v>
+        <v>paymentDate</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>541</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>529</v>
+        <v>564</v>
+      </c>
+      <c r="E9" s="11">
+        <v>32</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="3" t="s">
-        <v>325</v>
+        <v>537</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>538</v>
+        <v>325</v>
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>paymentRate</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>543</v>
+        <v>paymentTerm</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>542</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G10" s="5"/>
       <c r="H10" s="3" t="s">
-        <v>538</v>
+        <v>325</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>paymentAmount</v>
+        <v>paymentRate</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>296</v>
+        <v>530</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f>LOWER(LEFT($C12,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C12,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C12,"_", " "))," ",""))-1)</f>
-        <v>remark</v>
+        <f t="shared" si="0"/>
+        <v>paymentAmount</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>160</v>
+        <v>544</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="11">
-        <v>256</v>
+        <v>19</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="3" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="B13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>creatorId</v>
+        <f>LOWER(LEFT($C13,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C13,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C13,"_", " "))," ",""))-1)</f>
+        <v>remark</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>454</v>
+        <v>160</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E13" s="11">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="3" t="s">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>455</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>createTime</v>
+        <v>creatorId</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>454</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E14" s="11">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="3" t="s">
-        <v>15</v>
+        <v>455</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>modifier</v>
+        <v>createTime</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E15" s="11">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>modifyTime</v>
+        <v>modifier</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>477</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E16" s="11">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>isDelete</v>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyTime</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E17" s="11">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>91</v>
+      <c r="G17" s="5"/>
+      <c r="H17" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>isDelete</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="11">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13158,15 +13201,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
       <formula1>" =枚举!$A1:$A7"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G17"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D17">
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G18"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D18">
       <formula1>数据类型枚举</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F18">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13178,16 +13222,16 @@
       <selection sqref="A1:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -13198,7 +13242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -13209,7 +13253,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -13241,7 +13285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -13265,7 +13309,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -13289,7 +13333,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -13313,7 +13357,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -13338,7 +13382,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>159</v>
       </c>
@@ -13386,17 +13430,17 @@
       <selection sqref="A1:J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>842</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>844</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -13406,15 +13450,15 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -13424,7 +13468,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>181</v>
       </c>
@@ -13438,7 +13482,7 @@
         <v>184</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>186</v>
@@ -13453,19 +13497,19 @@
         <v>189</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" ref="B4:B43" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
         <v>yearBudgetCode</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>18</v>
@@ -13478,21 +13522,21 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>isNewCust</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -13505,14 +13549,14 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -13532,14 +13576,14 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -13559,12 +13603,12 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="27" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>102</v>
       </c>
@@ -13591,9 +13635,9 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -13613,12 +13657,12 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="27" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>213</v>
       </c>
@@ -13645,16 +13689,16 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>revebueSource</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>300</v>
@@ -13667,24 +13711,24 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="27" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
+        <v>860</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>companyEntityName</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>861</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>862</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>companyEntityName</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>863</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>864</v>
       </c>
       <c r="E12" s="21">
         <v>128</v>
@@ -13694,14 +13738,14 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="27" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -13721,21 +13765,21 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="27" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B14" s="3" t="str">
         <f>LOWER(LEFT($C14,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C14,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C14,"_", " "))," ",""))-1)</f>
         <v>contractId</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -13748,21 +13792,21 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>LOWER(LEFT($C15,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C15,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C15,"_", " "))," ",""))-1)</f>
         <v>contractCode</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>18</v>
@@ -13775,21 +13819,21 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B16" s="3" t="str">
         <f>LOWER(LEFT($C16,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C16,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C16,"_", " "))," ",""))-1)</f>
         <v>contractName</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>18</v>
@@ -13802,21 +13846,21 @@
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>revenueSource</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>18</v>
@@ -13829,12 +13873,12 @@
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="27" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>519</v>
       </c>
@@ -13843,7 +13887,7 @@
         <v>custManagerId</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>193</v>
@@ -13856,24 +13900,24 @@
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="27" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>custManagerName</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E19" s="21">
         <v>256</v>
@@ -13883,21 +13927,21 @@
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="27" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>taxType</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>241</v>
@@ -13910,21 +13954,21 @@
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="27" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>incommingType</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>241</v>
@@ -13937,24 +13981,24 @@
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="27" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
+        <v>882</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>region</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>884</v>
-      </c>
-      <c r="B22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>region</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>885</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>886</v>
       </c>
       <c r="E22" s="21">
         <v>2</v>
@@ -13964,21 +14008,21 @@
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="27" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>curency</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>300</v>
@@ -13991,75 +14035,75 @@
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="27" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
+        <v>887</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>grossProfitRate</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="B24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>grossProfitRate</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="E24" s="21" t="s">
         <v>890</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>892</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="27" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>budgetJan</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>193</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="27" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>budgetFeb</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>193</v>
@@ -14072,129 +14116,129 @@
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="27" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>budgetMar</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>193</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="27" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>budgetApr</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>193</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="27" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>budgetMay</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>193</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="27" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>budgetJun</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>193</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="27" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>budgetJul</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>193</v>
@@ -14207,21 +14251,21 @@
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="27" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>budgetAug</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>193</v>
@@ -14234,24 +14278,24 @@
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="27" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>budgetSep</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>296</v>
@@ -14261,48 +14305,48 @@
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="27" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>budgetOct</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>193</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="27" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>budgetNov</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>193</v>
@@ -14315,21 +14359,21 @@
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="27" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>budgetDec</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>193</v>
@@ -14342,12 +14386,12 @@
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="15" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
         <v>219</v>
       </c>
@@ -14356,13 +14400,13 @@
         <v>budgetSum</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>193</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>162</v>
@@ -14374,7 +14418,7 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>155</v>
       </c>
@@ -14383,27 +14427,27 @@
         <v>creatorId</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>193</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B39" s="4" t="str">
         <f t="shared" si="0"/>
@@ -14423,14 +14467,14 @@
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B40" s="4" t="str">
         <f t="shared" si="0"/>
@@ -14440,7 +14484,7 @@
         <v>367</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E40" s="26">
         <v>10</v>
@@ -14450,12 +14494,12 @@
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>140</v>
       </c>
@@ -14464,7 +14508,7 @@
         <v>modifyTime</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>18</v>
@@ -14482,7 +14526,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>91</v>
       </c>
@@ -14491,7 +14535,7 @@
         <v>isDelete</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>53</v>
@@ -14511,16 +14555,16 @@
       <c r="I42" s="3"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B43" s="29" t="str">
         <f t="shared" si="0"/>
         <v>remark</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>300</v>
@@ -14533,7 +14577,7 @@
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="27" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -14560,21 +14604,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>842</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>844</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -14584,15 +14628,15 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -14602,7 +14646,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>181</v>
       </c>
@@ -14631,12 +14675,12 @@
         <v>189</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
@@ -14649,28 +14693,28 @@
         <v>193</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>195</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>productId</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>193</v>
@@ -14683,24 +14727,24 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>yearBudgetCode</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E6" s="3">
         <v>32</v>
@@ -14710,7 +14754,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -14740,44 +14784,44 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -14796,14 +14840,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -14814,7 +14858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -14825,7 +14869,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -14857,7 +14901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -14881,7 +14925,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -14905,7 +14949,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -14929,7 +14973,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -14953,7 +14997,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -14977,7 +15021,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>169</v>
       </c>
@@ -15023,16 +15067,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -15043,7 +15087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -15054,7 +15098,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -15086,7 +15130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -15110,7 +15154,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -15134,7 +15178,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -15158,7 +15202,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -15182,7 +15226,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -15206,7 +15250,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -15230,7 +15274,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -15257,7 +15301,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>287</v>
       </c>
@@ -15282,7 +15326,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>267</v>
       </c>
@@ -15307,7 +15351,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -15358,14 +15402,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -15383,15 +15427,15 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -15401,7 +15445,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -15436,7 +15480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>108</v>
       </c>
@@ -15466,7 +15510,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
@@ -15475,7 +15519,7 @@
         <v>projectId</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -15491,7 +15535,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>102</v>
       </c>
@@ -15516,19 +15560,19 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>wbs</v>
       </c>
       <c r="C7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -15541,7 +15585,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>109</v>
       </c>
@@ -15566,7 +15610,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>110</v>
       </c>
@@ -15591,7 +15635,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>111</v>
       </c>
@@ -15616,7 +15660,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>105</v>
       </c>
@@ -15641,7 +15685,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>112</v>
       </c>
@@ -15666,7 +15710,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>91</v>
       </c>
@@ -15722,15 +15766,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -15741,18 +15785,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -15784,7 +15828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -15808,7 +15852,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -15829,7 +15873,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -15850,16 +15894,16 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>wbs</v>
       </c>
       <c r="C7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -15871,7 +15915,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -15892,7 +15936,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -15913,7 +15957,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -15934,7 +15978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -15955,7 +15999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -16007,17 +16051,17 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -16035,12 +16079,12 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>59</v>
@@ -16053,7 +16097,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>181</v>
       </c>
@@ -16085,7 +16129,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>191</v>
       </c>
@@ -16112,15 +16156,15 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
@@ -16136,15 +16180,15 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -16160,7 +16204,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>197</v>
       </c>
@@ -16185,7 +16229,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>198</v>
       </c>
@@ -16210,7 +16254,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>199</v>
       </c>
@@ -16235,7 +16279,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>201</v>
       </c>
@@ -16244,7 +16288,7 @@
         <v>buildManagerId</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>193</v>
@@ -16260,16 +16304,16 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>projectManagerName</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -16285,16 +16329,16 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>projectManagerId</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>193</v>
@@ -16310,7 +16354,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>202</v>
       </c>
@@ -16332,7 +16376,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>203</v>
       </c>
@@ -16354,7 +16398,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>204</v>
       </c>
@@ -16376,7 +16420,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>205</v>
       </c>
@@ -16398,16 +16442,16 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>custManagerName</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
@@ -16420,16 +16464,16 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>custManagerId</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>custManagerId</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>193</v>
@@ -16442,7 +16486,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>206</v>
       </c>
@@ -16464,7 +16508,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>207</v>
       </c>
@@ -16489,7 +16533,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>208</v>
       </c>
@@ -16514,7 +16558,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>209</v>
       </c>
@@ -16523,7 +16567,7 @@
         <v>custName</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>18</v>
@@ -16539,16 +16583,16 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>custSapCode</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>193</v>
@@ -16564,7 +16608,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>210</v>
       </c>
@@ -16589,19 +16633,19 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>isImportant</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -16610,22 +16654,22 @@
         <v>45</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>belongProjectGroupName</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
@@ -16641,16 +16685,16 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>belongProjectGroupId</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>193</v>
@@ -16666,9 +16710,9 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -16691,7 +16735,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>211</v>
       </c>
@@ -16703,7 +16747,7 @@
         <v>256</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -16716,19 +16760,19 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>LOWER(LEFT($C30,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C30,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C30,"_", " "))," ",""))-1)</f>
         <v>projectStatus</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
@@ -16737,22 +16781,22 @@
         <v>200</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>approveStatus</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="B31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>approveStatus</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>53</v>
@@ -16764,13 +16808,13 @@
         <v>45</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>212</v>
       </c>
@@ -16795,7 +16839,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>213</v>
       </c>
@@ -16816,22 +16860,22 @@
         <v>200</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictContractAmount</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>193</v>
@@ -16847,16 +16891,16 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>profitCenter</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>53</v>
@@ -16868,25 +16912,25 @@
         <v>96</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>profitCode</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>profitCode</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>680</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E36" s="2">
         <v>32</v>
@@ -16899,16 +16943,16 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>costCenter</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>53</v>
@@ -16920,25 +16964,25 @@
         <v>96</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>costCode</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E38" s="2">
         <v>32</v>
@@ -16951,16 +16995,16 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>taxRate</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>27</v>
@@ -16976,7 +17020,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>214</v>
       </c>
@@ -17001,7 +17045,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>215</v>
       </c>
@@ -17026,7 +17070,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>216</v>
       </c>
@@ -17051,7 +17095,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>217</v>
       </c>
@@ -17076,7 +17120,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>218</v>
       </c>
@@ -17101,7 +17145,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>219</v>
       </c>
@@ -17126,7 +17170,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>220</v>
       </c>
@@ -17151,7 +17195,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>221</v>
       </c>
@@ -17160,7 +17204,7 @@
         <v>signContractDate</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>18</v>
@@ -17176,9 +17220,9 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B48" s="2" t="str">
         <f t="shared" si="0"/>
@@ -17201,7 +17245,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>222</v>
       </c>
@@ -17226,7 +17270,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>223</v>
       </c>
@@ -17251,7 +17295,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>224</v>
       </c>
@@ -17276,7 +17320,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>225</v>
       </c>
@@ -17301,7 +17345,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>226</v>
       </c>
@@ -17326,7 +17370,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>227</v>
       </c>
@@ -17351,7 +17395,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>228</v>
       </c>
@@ -17360,7 +17404,7 @@
         <v>ftpReportReviewResult</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>53</v>
@@ -17376,7 +17420,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>229</v>
       </c>
@@ -17401,7 +17445,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>230</v>
       </c>
@@ -17426,7 +17470,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>231</v>
       </c>
@@ -17451,7 +17495,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>232</v>
       </c>
@@ -17476,16 +17520,16 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>budgetWithTax</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>27</v>
@@ -17501,16 +17545,16 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>budgetNoTax</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>27</v>
@@ -17526,7 +17570,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>233</v>
       </c>
@@ -17535,7 +17579,7 @@
         <v>budget</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>193</v>
@@ -17551,7 +17595,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>234</v>
       </c>
@@ -17576,7 +17620,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>235</v>
       </c>
@@ -17601,16 +17645,16 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B65" s="2" t="str">
         <f t="shared" si="0"/>
         <v>netSalary</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>193</v>
@@ -17626,16 +17670,16 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B66" s="2" t="str">
         <f t="shared" si="0"/>
         <v>yearSalary</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>193</v>
@@ -17651,16 +17695,16 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>LOWER(LEFT($C67,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C67,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C67,"_", " "))," ",""))-1)</f>
         <v>predictProfitMount</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>27</v>
@@ -17676,22 +17720,22 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B68" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictProfitRate</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>96</v>
@@ -17701,16 +17745,16 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B69" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictCapitaSalary</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>193</v>
@@ -17726,16 +17770,16 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B70" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictCapitaCost</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>193</v>
@@ -17751,22 +17795,22 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B71" s="2" t="str">
         <f t="shared" si="0"/>
         <v>predictWorkload</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>96</v>
@@ -17776,16 +17820,16 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B72" s="2" t="str">
         <f t="shared" si="0"/>
         <v>employeeCost</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>193</v>
@@ -17801,16 +17845,16 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B73" s="2" t="str">
         <f t="shared" si="0"/>
         <v>businessTripCost</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>193</v>
@@ -17826,16 +17870,16 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B74" s="2" t="str">
         <f t="shared" si="0"/>
         <v>otherCost</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>193</v>
@@ -17851,16 +17895,16 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B75" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>sumAllCost</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="B75" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sumAllCost</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>740</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>27</v>
@@ -17876,16 +17920,16 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B76" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>accruedChargesWorkers</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="B76" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>accruedChargesWorkers</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>193</v>
@@ -17901,16 +17945,16 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B77" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>accruedChargesProducts</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="B77" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>accruedChargesProducts</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>193</v>
@@ -17926,7 +17970,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>236</v>
       </c>
@@ -17951,7 +17995,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>237</v>
       </c>
@@ -17976,7 +18020,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>238</v>
       </c>
@@ -18001,7 +18045,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>239</v>
       </c>
@@ -18030,7 +18074,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>74</v>
       </c>
@@ -18051,7 +18095,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>75</v>
       </c>
@@ -18072,7 +18116,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -18093,7 +18137,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>77</v>
       </c>
@@ -18114,19 +18158,19 @@
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B86" s="2" t="str">
         <f t="shared" si="1"/>
         <v>projectCode</v>
       </c>
       <c r="C86" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E86" s="8">
         <v>32</v>
@@ -18159,14 +18203,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -18177,7 +18221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -18185,7 +18229,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -18217,7 +18261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -18241,7 +18285,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -18259,7 +18303,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>369</v>
       </c>
@@ -18277,7 +18321,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>370</v>
       </c>
@@ -18295,7 +18339,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>371</v>
       </c>
@@ -18313,7 +18357,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -18331,7 +18375,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -18349,7 +18393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -18367,7 +18411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -18385,7 +18429,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -18403,7 +18447,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>91</v>
       </c>

--- a/表字段设计2 (自动保存的).xlsx
+++ b/表字段设计2 (自动保存的).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="25" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="19" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="页面表头" sheetId="23" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="956">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3851,6 +3851,10 @@
   </si>
   <si>
     <t>PAYMENT_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPANY_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9328,10 +9332,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9412,17 +9416,17 @@
         <v>444</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f t="shared" ref="B4:B12" si="0">LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
-        <v>companyCode</v>
+        <f>LOWER(LEFT($C4,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C4,"_", " "))," ",""))-1)</f>
+        <v>companyId</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>448</v>
+        <v>955</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="E4" s="3">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>28</v>
@@ -9436,99 +9440,101 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>companyName</v>
+        <f t="shared" ref="B4:B13" si="0">LOWER(LEFT($C5,1))&amp;RIGHT(SUBSTITUTE(PROPER(SUBSTITUTE($C5,"_", " "))," ",""),LEN(SUBSTITUTE(PROPER(SUBSTITUTE($C5,"_", " "))," ",""))-1)</f>
+        <v>companyCode</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="11">
-        <v>256</v>
+      <c r="E5" s="3">
+        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>companyAddress</v>
+        <v>companyName</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="11">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>remark</v>
+        <v>companyAddress</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="11">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>creatorId</v>
+        <v>remark</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8" s="11">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>162</v>
@@ -9540,125 +9546,150 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>455</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>createTime</v>
+        <v>creatorId</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>454</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E9" s="11">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>modifier</v>
+        <v>createTime</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>452</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E10" s="11">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>modifyTime</v>
+        <v>modifier</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E11" s="11">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>isDelete</v>
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyTime</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>453</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E12" s="11">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>91</v>
+      <c r="G12" s="5"/>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>isDelete</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G12 H4:H11"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G13 H4:H12"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
       <formula1>" =枚举!$A1:$A7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F13">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13">
       <formula1>数据类型枚举</formula1>
     </dataValidation>
   </dataValidations>
@@ -12705,8 +12736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
